--- a/android_studio/guideMain/goluk_strings.xlsx
+++ b/android_studio/guideMain/goluk_strings.xlsx
@@ -28665,10 +28665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -28691,16 +28691,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28715,9 +28722,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28729,29 +28751,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28766,10 +28766,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28783,7 +28791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28797,11 +28805,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28814,22 +28829,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28850,7 +28850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28862,7 +28874,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28874,25 +28922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28910,7 +28940,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28922,25 +28994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28952,19 +29012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28976,61 +29024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29059,30 +29059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -29094,6 +29070,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29115,11 +29100,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29138,34 +29156,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29174,133 +29174,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -29646,9 +29646,9 @@
   <dimension ref="A1:J1528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1180" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1472" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1184" sqref="E1184"/>
+      <selection pane="bottomLeft" activeCell="G1478" sqref="G1478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/android_studio/guideMain/goluk_strings.xlsx
+++ b/android_studio/guideMain/goluk_strings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9574">
   <si>
     <t>name</t>
   </si>
@@ -25897,7 +25897,7 @@
     <t>str_usercenter_attention_cancle_ok</t>
   </si>
   <si>
-    <t>Cancel followe Successfully</t>
+    <t>Cancel follow Successfully</t>
   </si>
   <si>
     <t>取消关注成功</t>
@@ -28654,10 +28654,88 @@
     <t>export_error</t>
   </si>
   <si>
+    <t>Export failed...</t>
+  </si>
+  <si>
+    <t>导出失败...</t>
+  </si>
+  <si>
+    <t>匯出失敗…</t>
+  </si>
+  <si>
+    <t>Échec de l\'exportation...</t>
+  </si>
+  <si>
+    <t>Export fehlgeschlagen...</t>
+  </si>
+  <si>
+    <t>Esportazione non riuscita...</t>
+  </si>
+  <si>
+    <t>エクスポートできませんでした...</t>
+  </si>
+  <si>
+    <t>내보내기 실패...</t>
+  </si>
+  <si>
+    <t>Экспортировать не удалось...</t>
+  </si>
+  <si>
     <t>exporting</t>
   </si>
   <si>
-    <t>正在导出...</t>
+    <t>Exporting video, please wait...</t>
+  </si>
+  <si>
+    <t>视频导出中，请耐心等待...</t>
+  </si>
+  <si>
+    <t>正在匯出影片，請耐心等待…</t>
+  </si>
+  <si>
+    <t>Exportation de la vidéo, veuillez patienter...</t>
+  </si>
+  <si>
+    <t>Video wird exportiert, bitte warten...</t>
+  </si>
+  <si>
+    <t>Esportazione video in corso. Attendi, prego...</t>
+  </si>
+  <si>
+    <t>ビデオをエクスポート中です。お待ちください...</t>
+  </si>
+  <si>
+    <t>동영상 내보내는 중. 잠시만 기다리세요...</t>
+  </si>
+  <si>
+    <t>Идет экспорт видео, подождите...</t>
+  </si>
+  <si>
+    <t>Signature cannot be empty</t>
+  </si>
+  <si>
+    <t>个性签名不能为空</t>
+  </si>
+  <si>
+    <t>個性簽名不能為空</t>
+  </si>
+  <si>
+    <t>Signature ne peuvent pas être vides</t>
+  </si>
+  <si>
+    <t>Signatur dürfen nicht leer sein</t>
+  </si>
+  <si>
+    <t>Firma possono essere vuote</t>
+  </si>
+  <si>
+    <t>署名は空白にできません</t>
+  </si>
+  <si>
+    <t>서명드는 반드시 입력해야 합니다</t>
+  </si>
+  <si>
+    <t>Необходимо указать подпись</t>
   </si>
 </sst>
 </file>
@@ -28665,12 +28743,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28691,12 +28769,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="冬青黑体简体中文 W3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -28713,38 +28789,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28765,6 +28811,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -28781,6 +28842,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -28789,9 +28866,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28805,18 +28881,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28829,7 +28898,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28850,25 +28934,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28886,19 +29030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28910,13 +29048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28928,13 +29066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28946,31 +29078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28982,55 +29108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29059,30 +29143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -29107,17 +29167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -29135,9 +29184,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29162,10 +29246,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29174,16 +29258,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29192,120 +29276,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -29322,6 +29406,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -29376,6 +29466,18 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -29643,12 +29745,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1528"/>
+  <dimension ref="A1:J1529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1472" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1496" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1478" sqref="G1478"/>
+      <selection pane="bottomLeft" activeCell="H1505" sqref="H1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -71635,39 +71737,106 @@
       <c r="I1526" s="3"/>
       <c r="J1526" s="3"/>
     </row>
-    <row r="1527" spans="1:10">
+    <row r="1527" ht="42.75" spans="1:10">
       <c r="A1527" s="3" t="s">
         <v>9545</v>
       </c>
-      <c r="B1527" s="3" t="s">
-        <v>8813</v>
-      </c>
-      <c r="C1527" s="3"/>
-      <c r="D1527" s="3"/>
-      <c r="E1527" s="3"/>
-      <c r="F1527" s="3"/>
-      <c r="G1527" s="3"/>
-      <c r="H1527" s="3"/>
-      <c r="I1527" s="3"/>
-      <c r="J1527" s="3"/>
-    </row>
-    <row r="1528" spans="1:10">
+      <c r="B1527" s="7" t="s">
+        <v>9546</v>
+      </c>
+      <c r="C1527" s="8" t="s">
+        <v>9547</v>
+      </c>
+      <c r="D1527" s="8" t="s">
+        <v>9548</v>
+      </c>
+      <c r="E1527" s="7" t="s">
+        <v>9549</v>
+      </c>
+      <c r="F1527" s="7" t="s">
+        <v>9550</v>
+      </c>
+      <c r="G1527" s="7" t="s">
+        <v>9551</v>
+      </c>
+      <c r="H1527" s="7" t="s">
+        <v>9552</v>
+      </c>
+      <c r="I1527" s="7" t="s">
+        <v>9553</v>
+      </c>
+      <c r="J1527" s="7" t="s">
+        <v>9554</v>
+      </c>
+    </row>
+    <row r="1528" ht="57" spans="1:10">
       <c r="A1528" s="3" t="s">
-        <v>9546</v>
-      </c>
-      <c r="B1528" s="3" t="s">
-        <v>9547</v>
-      </c>
-      <c r="C1528" s="3"/>
-      <c r="D1528" s="3"/>
-      <c r="E1528" s="3"/>
-      <c r="F1528" s="3"/>
-      <c r="G1528" s="3"/>
-      <c r="H1528" s="3"/>
-      <c r="I1528" s="3"/>
-      <c r="J1528" s="3"/>
+        <v>9555</v>
+      </c>
+      <c r="B1528" s="7" t="s">
+        <v>9556</v>
+      </c>
+      <c r="C1528" s="8" t="s">
+        <v>9557</v>
+      </c>
+      <c r="D1528" s="8" t="s">
+        <v>9558</v>
+      </c>
+      <c r="E1528" s="7" t="s">
+        <v>9559</v>
+      </c>
+      <c r="F1528" s="7" t="s">
+        <v>9560</v>
+      </c>
+      <c r="G1528" s="7" t="s">
+        <v>9561</v>
+      </c>
+      <c r="H1528" s="7" t="s">
+        <v>9562</v>
+      </c>
+      <c r="I1528" s="7" t="s">
+        <v>9563</v>
+      </c>
+      <c r="J1528" s="7" t="s">
+        <v>9564</v>
+      </c>
+    </row>
+    <row r="1529" ht="42.75" spans="2:10">
+      <c r="B1529" s="3" t="s">
+        <v>9565</v>
+      </c>
+      <c r="C1529" s="3" t="s">
+        <v>9566</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>9567</v>
+      </c>
+      <c r="E1529" s="3" t="s">
+        <v>9568</v>
+      </c>
+      <c r="F1529" s="3" t="s">
+        <v>9569</v>
+      </c>
+      <c r="G1529" s="3" t="s">
+        <v>9570</v>
+      </c>
+      <c r="H1529" s="3" t="s">
+        <v>9571</v>
+      </c>
+      <c r="I1529" s="3" t="s">
+        <v>9572</v>
+      </c>
+      <c r="J1529" s="3" t="s">
+        <v>9573</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1527">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1528">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/android_studio/guideMain/goluk_strings.xlsx
+++ b/android_studio/guideMain/goluk_strings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9575">
   <si>
     <t>name</t>
   </si>
@@ -19960,31 +19960,31 @@
     <t>set_ipc_item_hint_text</t>
   </si>
   <si>
-    <t>Sync the last wonderful and emergency videos automatically once connecting your phone with Goluk</t>
-  </si>
-  <si>
-    <t>手机与极路客连接成功后自动同步最近录制的精彩和紧急视频</t>
-  </si>
-  <si>
-    <t>當手機連接至極路客時，自動同步最近的精彩和危急情況紀錄影片</t>
-  </si>
-  <si>
-    <t>Synchroniser automatiquement les dernières vidéos magnifiques et d\'urgence après avoir connecté votre téléphone à Goluk</t>
-  </si>
-  <si>
-    <t>Die letzten wunderbaren Videos und Notfallvideos automatisch synchronisieren, sobald Ihr Mobiltelefon mit Goluk verbunden ist</t>
-  </si>
-  <si>
-    <t>Sincronizza automaticamente gli ultimi video meravigliosi e d\'emergenza quando connetti il telefono con Goluk</t>
-  </si>
-  <si>
-    <t>お使いの携帯をGolukと接続すると、最新のハイライトビデオと緊急ビデオ同期されます</t>
-  </si>
-  <si>
-    <t>휴대전화기를 Goluk에 연결하는 즉시 자동으로 최신 원더풀 및 비상 동영상 동기화</t>
-  </si>
-  <si>
-    <t>Автоматическая синхронизация последних замечательных и аварийных видеозаписей после подключения телефона к Goluk</t>
+    <t>Sync the last wonderful videos automatically once connecting your phone with Goluk</t>
+  </si>
+  <si>
+    <t>手机与极路客连接成功后自动同步最近录制的精彩</t>
+  </si>
+  <si>
+    <t>當手機連接至極路客時，自動同步最近的精彩紀錄影片</t>
+  </si>
+  <si>
+    <t>Synchroniser les dernières vidéos merveilleuses automatiquement une fois la connexion de votre téléphone avec Goluk</t>
+  </si>
+  <si>
+    <t>Synchronisieren Sie die letzten wunderbaren Videos automatisch, sobald Sie Ihr Handy mit Goluk verbinden</t>
+  </si>
+  <si>
+    <t>Sincronizza automaticamente gli ultimi video meravigliosi una volta connesso il telefono con Goluk</t>
+  </si>
+  <si>
+    <t>携帯電話とGolukを一度接続すれば、最後の素晴らしい動画を自動的に同期できます</t>
+  </si>
+  <si>
+    <t>휴대 전화를 Goluk에 연결하면 마지막 멋진 동영상을 자동으로 동기화 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Синхронизация последних замечательных видео автоматически после подключения телефона с Goluk</t>
   </si>
   <si>
     <t>my_install_title_text</t>
@@ -28709,6 +28709,9 @@
   </si>
   <si>
     <t>Идет экспорт видео, подождите...</t>
+  </si>
+  <si>
+    <t>signature_is_empty</t>
   </si>
   <si>
     <t>Signature cannot be empty</t>
@@ -28776,13 +28779,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -28790,14 +28786,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28812,7 +28809,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28820,7 +28817,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28834,19 +28845,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28866,8 +28868,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28890,7 +28893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28898,9 +28901,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28934,61 +28937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29006,7 +28955,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29024,19 +29033,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29054,61 +29111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29167,6 +29170,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -29178,6 +29196,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29202,30 +29229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -29246,10 +29249,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29258,16 +29261,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29279,16 +29282,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29297,94 +29300,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -29748,9 +29751,9 @@
   <dimension ref="A1:J1529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1496" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1181" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1505" sqref="H1505"/>
+      <selection pane="bottomLeft" activeCell="B1184" sqref="B1184:J1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -61461,7 +61464,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="1184" ht="102" spans="1:10">
+    <row r="1184" ht="89.25" spans="1:10">
       <c r="A1184" s="3" t="s">
         <v>6647</v>
       </c>
@@ -71801,33 +71804,36 @@
         <v>9564</v>
       </c>
     </row>
-    <row r="1529" ht="42.75" spans="2:10">
+    <row r="1529" ht="42.75" spans="1:10">
+      <c r="A1529" t="s">
+        <v>9565</v>
+      </c>
       <c r="B1529" s="3" t="s">
-        <v>9565</v>
+        <v>9566</v>
       </c>
       <c r="C1529" s="3" t="s">
-        <v>9566</v>
+        <v>9567</v>
       </c>
       <c r="D1529" t="s">
-        <v>9567</v>
+        <v>9568</v>
       </c>
       <c r="E1529" s="3" t="s">
-        <v>9568</v>
+        <v>9569</v>
       </c>
       <c r="F1529" s="3" t="s">
-        <v>9569</v>
+        <v>9570</v>
       </c>
       <c r="G1529" s="3" t="s">
-        <v>9570</v>
+        <v>9571</v>
       </c>
       <c r="H1529" s="3" t="s">
-        <v>9571</v>
+        <v>9572</v>
       </c>
       <c r="I1529" s="3" t="s">
-        <v>9572</v>
+        <v>9573</v>
       </c>
       <c r="J1529" s="3" t="s">
-        <v>9573</v>
+        <v>9574</v>
       </c>
     </row>
   </sheetData>

--- a/android_studio/guideMain/goluk_strings.xlsx
+++ b/android_studio/guideMain/goluk_strings.xlsx
@@ -19963,7 +19963,7 @@
     <t>Sync the last wonderful videos automatically once connecting your phone with Goluk</t>
   </si>
   <si>
-    <t>手机与极路客连接成功后自动同步最近录制的精彩</t>
+    <t>手机与极路客连接成功后自动同步最近录制的精彩视频</t>
   </si>
   <si>
     <t>當手機連接至極路客時，自動同步最近的精彩紀錄影片</t>
@@ -28747,9 +28747,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -28778,6 +28778,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -28786,7 +28833,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28808,61 +28891,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28876,42 +28907,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28937,19 +28937,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28961,7 +28997,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28979,25 +29087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29009,55 +29099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29069,55 +29117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29147,6 +29147,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -29157,15 +29172,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29203,8 +29209,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29219,40 +29243,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29261,133 +29261,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -29753,7 +29753,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1181" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1184" sqref="B1184:J1184"/>
+      <selection pane="bottomLeft" activeCell="A1184" sqref="$A1184:$XFD1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/android_studio/guideMain/goluk_strings.xlsx
+++ b/android_studio/guideMain/goluk_strings.xlsx
@@ -29084,7 +29084,7 @@
     <t>timelapse</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiime-lapse </t>
+    <t xml:space="preserve">Time-lapse </t>
   </si>
   <si>
     <t>缩时录像</t>
@@ -29191,10 +29191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -29260,16 +29260,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29283,8 +29290,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29297,30 +29321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29334,6 +29337,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -29342,35 +29352,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29389,16 +29374,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29437,7 +29437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29449,13 +29479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29467,25 +29539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29503,13 +29557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29521,31 +29587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29563,61 +29605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29728,6 +29728,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -29746,23 +29761,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29791,6 +29800,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -29801,40 +29825,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29843,19 +29843,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29864,112 +29864,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -30361,7 +30361,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1539" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1539" sqref="D1539"/>
+      <selection pane="bottomLeft" activeCell="B1542" sqref="B1542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82905982905983" defaultRowHeight="14.25"/>

--- a/android_studio/guideMain/goluk_strings.xlsx
+++ b/android_studio/guideMain/goluk_strings.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goluk_lium\Git\workspace-goluk\android_studio\guideMain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24804" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24810" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11936" uniqueCount="9714">
   <si>
     <t>name</t>
   </si>
@@ -4362,7 +4367,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="Helv"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>После подключения устройства к приложению Goluk пароль и наименование</t>
     </r>
@@ -4371,7 +4376,7 @@
         <sz val="13"/>
         <color indexed="28"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4380,7 +4385,7 @@
         <sz val="12"/>
         <color indexed="28"/>
         <rFont val="Helv"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Wi-Fi можно сменить</t>
     </r>
@@ -28368,18 +28373,12 @@
     <t>not_goluk_device</t>
   </si>
   <si>
-    <t>Please connect to GOLUK Wi-Fi. If you are connected, please turn off Bluetooth and VPN and try again;</t>
-  </si>
-  <si>
     <t>当前连接Wi-Fi非极路客Wi-Fi，请切换后重试</t>
   </si>
   <si>
     <t>你正在連接到非GOLUK Wi-Fi，請切換到GOLUK Wi-Fi後再試一次</t>
   </si>
   <si>
-    <t>Vous êtes actuellement connectés au Wi-Fi non GOLUK , veuillez passer à GOLUK  Wi-Fi et essayer de nouveau.</t>
-  </si>
-  <si>
     <t>Sie sind zur zeit im nicht - GOLUK  Wi-Fi, wechseln sie bitte auf GOLUK  Wi-Fi und versuchen sie es erneut.</t>
   </si>
   <si>
@@ -28396,33 +28395,6 @@
   </si>
   <si>
     <t>no_wifi_selected</t>
-  </si>
-  <si>
-    <t>You are currently connected to non-GOLUK Wi-Fi, please switch to GOLUK Wi-Fi and try again.</t>
-  </si>
-  <si>
-    <t>请先连接极路客Wi-Fi。若已连接，请关闭蓝牙和VPN后重试</t>
-  </si>
-  <si>
-    <t>請連接到GOLUK Wi-Fi。如果您已連接，請關閉藍牙和VPN，然後再試一次</t>
-  </si>
-  <si>
-    <t>Bitte verbinden sie mich mit GOLUK Wi-Fi.wenn sie verbunden sind, wenden sie sich bitte an bluetooth - und versuchen sie es erneut.</t>
-  </si>
-  <si>
-    <t>Passez à GOLUK Wi-Fi.si vous êtes connecté, éteignez le bluetooth et le rpv et essayer de nouveau.</t>
-  </si>
-  <si>
-    <t>Connetti a GOLUK Wi-Fi.se sei connesso, per favore spegni il bluetooth e vpn e prova di nuovo.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, подключитесь к GOLUK Wi-Fi. Если вы подключены, отключите Bluetooth и VPN и повторите попытку;</t>
-  </si>
-  <si>
-    <t>GOLUK Wi-Fiをつないでください。あなたが接続している場合は、ブルートゥースとvpnをオフにして、もう一度ためしてください</t>
-  </si>
-  <si>
-    <t>좀 연결 GOLUK 무선.만약 네가 연결 좀 꺼, 다시 블루투스 기술;</t>
   </si>
   <si>
     <t>no_log_file</t>
@@ -28787,7 +28759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Загрузка видео. </t>
     </r>
@@ -28796,7 +28768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>При выходе</t>
     </r>
@@ -28805,7 +28777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>, загрузка будет отменена</t>
     </r>
@@ -29184,19 +29156,104 @@
   </si>
   <si>
     <t>タイムラプス</t>
+  </si>
+  <si>
+    <t>请尝试关闭手机蜂窝移动网络、蓝牙和 VPN 后重试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please turn off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Cellular Data, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bluetooth and VPN and try again</t>
+    </r>
+  </si>
+  <si>
+    <t>請嘗試關閉手機蜂窩移動網絡，藍牙和VPN後重試</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veuillez désactiver les données cellulaires, Bluetooth et VPN et réessayer.</t>
+  </si>
+  <si>
+    <t>Bitte deaktivieren Sie Mobilfunkdaten, Bluetooth und VPN und versuchen Sie es erneut</t>
+  </si>
+  <si>
+    <t>Spegni Cellular Data, Bluetooth e VPN e riprova</t>
+  </si>
+  <si>
+    <t>Отключите данные сотовой связи, Bluetooth и VPN и повторите попытку.</t>
+  </si>
+  <si>
+    <t>携帯データ、Bluetooth、VPNをオフにしてもう一度お試しください</t>
+  </si>
+  <si>
+    <t>셀룰러 데이터, 블루투스 및 VPN을 끄고 다시 시도하십시오.</t>
+  </si>
+  <si>
+    <t>You are currently connected to non-GOLUK Wi-Fi, please switch to GOLUK Wi-Fi and try again.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vous êtes actuellement connectés au Wi-Fi non GOLUK , veuillez passer à GOLUK  Wi-Fi et essayer de nouveau.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please connect to GOLUK Wi-Fi. </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先连接极路客Wi-Fi</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>請連接到GOLUK Wi-Fi</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitte verbinden sie mich mit GOLUK Wi-Fi.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passez à GOLUK Wi-Fi.si vous êtes connecté</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connetti a GOLUK Wi-Fi.se sei connesso</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста, подключитесь к GOLUK Wi-Fi. </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLUK Wi-Fiをつないでください。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLUK Wi-Fi에 연결하십시오.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29208,6 +29265,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -29215,214 +29273,109 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Helv"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Helv"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helv"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helv"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="28"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="28"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="28"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -29437,192 +29390,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -29727,261 +29499,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -30036,63 +29566,33 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -30350,35 +29850,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J1545"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1539" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B1542" sqref="B1542"/>
+      <pane ySplit="1" topLeftCell="A1479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1482" sqref="C1482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82905982905983" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="30.1623931623932" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="27.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.1623931623932" customWidth="1"/>
-    <col min="10" max="10" width="16.8290598290598" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -30874,7 +30373,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" ht="28.55" spans="1:10">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -30890,7 +30389,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" ht="28.55" spans="1:10">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -31498,7 +30997,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" ht="28.55" spans="1:10">
+    <row r="70" spans="1:10" ht="28.5">
       <c r="A70" s="5" t="s">
         <v>143</v>
       </c>
@@ -31514,7 +31013,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" ht="28.55" spans="1:10">
+    <row r="71" spans="1:10">
       <c r="A71" s="5" t="s">
         <v>145</v>
       </c>
@@ -31530,7 +31029,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" ht="28.55" spans="1:10">
+    <row r="72" spans="1:10" ht="28.5">
       <c r="A72" s="5" t="s">
         <v>147</v>
       </c>
@@ -31770,7 +31269,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" ht="28.55" spans="1:10">
+    <row r="87" spans="1:10" ht="28.5">
       <c r="A87" s="5" t="s">
         <v>176</v>
       </c>
@@ -31834,7 +31333,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" ht="28.55" spans="1:10">
+    <row r="91" spans="1:10" ht="28.5">
       <c r="A91" s="5" t="s">
         <v>184</v>
       </c>
@@ -31850,7 +31349,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" ht="28.55" spans="1:10">
+    <row r="92" spans="1:10" ht="28.5">
       <c r="A92" s="5" t="s">
         <v>186</v>
       </c>
@@ -31882,7 +31381,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" ht="28.55" spans="1:10">
+    <row r="94" spans="1:10" ht="28.5">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -31898,7 +31397,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" ht="28.55" spans="1:10">
+    <row r="95" spans="1:10" ht="28.5">
       <c r="A95" s="5" t="s">
         <v>192</v>
       </c>
@@ -32394,7 +31893,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" ht="28.55" spans="1:10">
+    <row r="126" spans="1:10" ht="28.5">
       <c r="A126" s="5" t="s">
         <v>252</v>
       </c>
@@ -32410,7 +31909,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" ht="28.55" spans="1:10">
+    <row r="127" spans="1:10" ht="28.5">
       <c r="A127" s="5" t="s">
         <v>254</v>
       </c>
@@ -32874,7 +32373,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" ht="28.55" spans="1:10">
+    <row r="156" spans="1:10" ht="28.5">
       <c r="A156" s="5" t="s">
         <v>311</v>
       </c>
@@ -32890,7 +32389,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" ht="28.55" spans="1:10">
+    <row r="157" spans="1:10" ht="28.5">
       <c r="A157" s="5" t="s">
         <v>313</v>
       </c>
@@ -32906,7 +32405,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" ht="28.55" spans="1:10">
+    <row r="158" spans="1:10" ht="28.5">
       <c r="A158" s="5" t="s">
         <v>315</v>
       </c>
@@ -33018,7 +32517,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" ht="28.55" spans="1:10">
+    <row r="165" spans="1:10">
       <c r="A165" s="5" t="s">
         <v>329</v>
       </c>
@@ -33034,7 +32533,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" ht="28.55" spans="1:10">
+    <row r="166" spans="1:10" ht="28.5">
       <c r="A166" s="5" t="s">
         <v>331</v>
       </c>
@@ -33322,7 +32821,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" ht="28.55" spans="1:10">
+    <row r="184" spans="1:10" ht="28.5">
       <c r="A184" s="5" t="s">
         <v>367</v>
       </c>
@@ -33354,7 +32853,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" ht="28.55" spans="1:10">
+    <row r="186" spans="1:10" ht="28.5">
       <c r="A186" s="5" t="s">
         <v>371</v>
       </c>
@@ -33370,7 +32869,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" ht="28.55" spans="1:10">
+    <row r="187" spans="1:10" ht="28.5">
       <c r="A187" s="5" t="s">
         <v>373</v>
       </c>
@@ -33386,7 +32885,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" ht="28.55" spans="1:10">
+    <row r="188" spans="1:10" ht="28.5">
       <c r="A188" s="5" t="s">
         <v>375</v>
       </c>
@@ -33418,7 +32917,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" ht="28.55" spans="1:10">
+    <row r="190" spans="1:10" ht="28.5">
       <c r="A190" s="5" t="s">
         <v>379</v>
       </c>
@@ -34090,7 +33589,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
     </row>
-    <row r="232" ht="28.55" spans="1:10">
+    <row r="232" spans="1:10" ht="28.5">
       <c r="A232" s="5" t="s">
         <v>463</v>
       </c>
@@ -34106,7 +33605,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
     </row>
-    <row r="233" ht="28.55" spans="1:10">
+    <row r="233" spans="1:10" ht="28.5">
       <c r="A233" s="5" t="s">
         <v>465</v>
       </c>
@@ -34644,7 +34143,7 @@
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" ht="28.55" spans="1:10">
+    <row r="263" spans="1:10" ht="28.5">
       <c r="A263" s="5" t="s">
         <v>553</v>
       </c>
@@ -34788,7 +34287,7 @@
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" ht="28.55" spans="1:10">
+    <row r="271" spans="1:10" ht="28.5">
       <c r="A271" s="5" t="s">
         <v>574</v>
       </c>
@@ -34842,7 +34341,7 @@
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" ht="28.55" spans="1:10">
+    <row r="274" spans="1:10" ht="28.5">
       <c r="A274" s="5" t="s">
         <v>583</v>
       </c>
@@ -34860,7 +34359,7 @@
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" ht="28.55" spans="1:10">
+    <row r="275" spans="1:10" ht="28.5">
       <c r="A275" s="5" t="s">
         <v>586</v>
       </c>
@@ -34878,7 +34377,7 @@
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
     </row>
-    <row r="276" ht="28.55" spans="1:10">
+    <row r="276" spans="1:10" ht="28.5">
       <c r="A276" s="5" t="s">
         <v>589</v>
       </c>
@@ -35002,7 +34501,7 @@
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" ht="28.55" spans="1:10">
+    <row r="283" spans="1:10" ht="28.5">
       <c r="A283" s="5" t="s">
         <v>608</v>
       </c>
@@ -35218,7 +34717,7 @@
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" ht="28.55" spans="1:10">
+    <row r="295" spans="1:10" ht="28.5">
       <c r="A295" s="5" t="s">
         <v>644</v>
       </c>
@@ -35236,7 +34735,7 @@
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" ht="42.8" spans="1:10">
+    <row r="296" spans="1:10" ht="42.75">
       <c r="A296" s="5" t="s">
         <v>647</v>
       </c>
@@ -35254,7 +34753,7 @@
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" ht="28.55" spans="1:10">
+    <row r="297" spans="1:10" ht="28.5">
       <c r="A297" s="5" t="s">
         <v>650</v>
       </c>
@@ -35290,7 +34789,7 @@
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" ht="28.55" spans="1:10">
+    <row r="299" spans="1:10" ht="28.5">
       <c r="A299" s="5" t="s">
         <v>656</v>
       </c>
@@ -35326,7 +34825,7 @@
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
     </row>
-    <row r="301" ht="28.55" spans="1:10">
+    <row r="301" spans="1:10" ht="28.5">
       <c r="A301" s="5" t="s">
         <v>661</v>
       </c>
@@ -35344,7 +34843,7 @@
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
     </row>
-    <row r="302" ht="28.55" spans="1:10">
+    <row r="302" spans="1:10" ht="28.5">
       <c r="A302" s="5" t="s">
         <v>664</v>
       </c>
@@ -35380,7 +34879,7 @@
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
     </row>
-    <row r="304" ht="28.55" spans="1:10">
+    <row r="304" spans="1:10" ht="28.5">
       <c r="A304" s="5" t="s">
         <v>670</v>
       </c>
@@ -35398,7 +34897,7 @@
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
     </row>
-    <row r="305" ht="28.55" spans="1:10">
+    <row r="305" spans="1:10" ht="28.5">
       <c r="A305" s="5" t="s">
         <v>673</v>
       </c>
@@ -35416,7 +34915,7 @@
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
     </row>
-    <row r="306" ht="28.55" spans="1:10">
+    <row r="306" spans="1:10" ht="28.5">
       <c r="A306" s="5" t="s">
         <v>676</v>
       </c>
@@ -35452,7 +34951,7 @@
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
     </row>
-    <row r="308" ht="28.55" spans="1:10">
+    <row r="308" spans="1:10" ht="28.5">
       <c r="A308" s="5" t="s">
         <v>682</v>
       </c>
@@ -35470,7 +34969,7 @@
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" ht="28.55" spans="1:10">
+    <row r="309" spans="1:10" ht="28.5">
       <c r="A309" s="5" t="s">
         <v>685</v>
       </c>
@@ -35488,7 +34987,7 @@
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" ht="28.55" spans="1:10">
+    <row r="310" spans="1:10" ht="28.5">
       <c r="A310" s="5" t="s">
         <v>688</v>
       </c>
@@ -35524,7 +35023,7 @@
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" ht="28.55" spans="1:10">
+    <row r="312" spans="1:10" ht="28.5">
       <c r="A312" s="5" t="s">
         <v>694</v>
       </c>
@@ -35560,7 +35059,7 @@
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
     </row>
-    <row r="314" ht="28.55" spans="1:10">
+    <row r="314" spans="1:10" ht="28.5">
       <c r="A314" s="5" t="s">
         <v>699</v>
       </c>
@@ -35596,7 +35095,7 @@
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
     </row>
-    <row r="316" ht="28.55" spans="1:10">
+    <row r="316" spans="1:10" ht="28.5">
       <c r="A316" s="5" t="s">
         <v>704</v>
       </c>
@@ -35632,7 +35131,7 @@
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
     </row>
-    <row r="318" ht="28.55" spans="1:10">
+    <row r="318" spans="1:10" ht="28.5">
       <c r="A318" s="5" t="s">
         <v>710</v>
       </c>
@@ -35686,7 +35185,7 @@
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
     </row>
-    <row r="321" ht="42.8" spans="1:10">
+    <row r="321" spans="1:10" ht="42.75">
       <c r="A321" s="5" t="s">
         <v>714</v>
       </c>
@@ -35704,7 +35203,7 @@
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
     </row>
-    <row r="322" ht="42.8" spans="1:10">
+    <row r="322" spans="1:10" ht="42.75">
       <c r="A322" s="5" t="s">
         <v>717</v>
       </c>
@@ -35722,7 +35221,7 @@
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
     </row>
-    <row r="323" ht="28.55" spans="1:10">
+    <row r="323" spans="1:10" ht="28.5">
       <c r="A323" s="5" t="s">
         <v>720</v>
       </c>
@@ -35830,7 +35329,7 @@
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
     </row>
-    <row r="329" ht="28.55" spans="1:10">
+    <row r="329" spans="1:10" ht="28.5">
       <c r="A329" s="5" t="s">
         <v>731</v>
       </c>
@@ -35880,7 +35379,7 @@
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
     </row>
-    <row r="332" ht="28.55" spans="1:10">
+    <row r="332" spans="1:10" ht="28.5">
       <c r="A332" s="5" t="s">
         <v>736</v>
       </c>
@@ -35912,7 +35411,7 @@
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
     </row>
-    <row r="334" ht="28.55" spans="1:10">
+    <row r="334" spans="1:10" ht="28.5">
       <c r="A334" s="5" t="s">
         <v>740</v>
       </c>
@@ -35944,7 +35443,7 @@
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
     </row>
-    <row r="336" ht="28.55" spans="1:10">
+    <row r="336" spans="1:10" ht="28.5">
       <c r="A336" s="5" t="s">
         <v>744</v>
       </c>
@@ -35960,7 +35459,7 @@
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
     </row>
-    <row r="337" ht="28.55" spans="1:10">
+    <row r="337" spans="1:10" ht="28.5">
       <c r="A337" s="5" t="s">
         <v>746</v>
       </c>
@@ -36010,7 +35509,7 @@
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
     </row>
-    <row r="340" ht="28.55" spans="1:10">
+    <row r="340" spans="1:10" ht="28.5">
       <c r="A340" s="5" t="s">
         <v>752</v>
       </c>
@@ -36026,7 +35525,7 @@
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
     </row>
-    <row r="341" ht="28.55" spans="1:10">
+    <row r="341" spans="1:10" ht="28.5">
       <c r="A341" s="5" t="s">
         <v>754</v>
       </c>
@@ -36042,7 +35541,7 @@
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
     </row>
-    <row r="342" ht="28.55" spans="1:10">
+    <row r="342" spans="1:10" ht="28.5">
       <c r="A342" s="5" t="s">
         <v>756</v>
       </c>
@@ -36058,7 +35557,7 @@
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
     </row>
-    <row r="343" ht="28.55" spans="1:10">
+    <row r="343" spans="1:10" ht="28.5">
       <c r="A343" s="5" t="s">
         <v>758</v>
       </c>
@@ -36304,7 +35803,7 @@
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
     </row>
-    <row r="357" ht="28.55" spans="1:10">
+    <row r="357" spans="1:10" ht="28.5">
       <c r="A357" s="5" t="s">
         <v>787</v>
       </c>
@@ -36394,7 +35893,7 @@
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
     </row>
-    <row r="362" ht="28.55" spans="1:10">
+    <row r="362" spans="1:10" ht="28.5">
       <c r="A362" s="5" t="s">
         <v>797</v>
       </c>
@@ -36412,7 +35911,7 @@
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
     </row>
-    <row r="363" ht="28.55" spans="1:10">
+    <row r="363" spans="1:10" ht="28.5">
       <c r="A363" s="5" t="s">
         <v>799</v>
       </c>
@@ -36430,7 +35929,7 @@
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
     </row>
-    <row r="364" ht="128.45" spans="1:10">
+    <row r="364" spans="1:10" ht="128.25">
       <c r="A364" s="5" t="s">
         <v>801</v>
       </c>
@@ -36628,7 +36127,7 @@
       <c r="I374" s="5"/>
       <c r="J374" s="5"/>
     </row>
-    <row r="375" ht="28.55" spans="1:10">
+    <row r="375" spans="1:10" ht="28.5">
       <c r="A375" s="5" t="s">
         <v>822</v>
       </c>
@@ -36646,7 +36145,7 @@
       <c r="I375" s="5"/>
       <c r="J375" s="5"/>
     </row>
-    <row r="376" ht="28.55" spans="1:10">
+    <row r="376" spans="1:10" ht="28.5">
       <c r="A376" s="5" t="s">
         <v>824</v>
       </c>
@@ -36664,7 +36163,7 @@
       <c r="I376" s="5"/>
       <c r="J376" s="5"/>
     </row>
-    <row r="377" ht="28.55" spans="1:10">
+    <row r="377" spans="1:10" ht="28.5">
       <c r="A377" s="5" t="s">
         <v>826</v>
       </c>
@@ -36736,7 +36235,7 @@
       <c r="I380" s="5"/>
       <c r="J380" s="5"/>
     </row>
-    <row r="381" ht="28.55" spans="1:10">
+    <row r="381" spans="1:10" ht="28.5">
       <c r="A381" s="5" t="s">
         <v>834</v>
       </c>
@@ -36772,7 +36271,7 @@
       <c r="I382" s="5"/>
       <c r="J382" s="5"/>
     </row>
-    <row r="383" ht="28.55" spans="1:10">
+    <row r="383" spans="1:10" ht="28.5">
       <c r="A383" s="5" t="s">
         <v>838</v>
       </c>
@@ -37024,7 +36523,7 @@
       <c r="I396" s="5"/>
       <c r="J396" s="5"/>
     </row>
-    <row r="397" ht="28.55" spans="1:10">
+    <row r="397" spans="1:10" ht="28.5">
       <c r="A397" s="5" t="s">
         <v>864</v>
       </c>
@@ -37164,7 +36663,7 @@
       <c r="I404" s="5"/>
       <c r="J404" s="5"/>
     </row>
-    <row r="405" ht="71.35" spans="1:10">
+    <row r="405" spans="1:10" ht="57">
       <c r="A405" s="5" t="s">
         <v>879</v>
       </c>
@@ -37196,7 +36695,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="406" ht="28.55" spans="1:10">
+    <row r="406" spans="1:10" ht="28.5">
       <c r="A406" s="5" t="s">
         <v>889</v>
       </c>
@@ -37228,7 +36727,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="407" ht="42.8" spans="1:10">
+    <row r="407" spans="1:10" ht="42.75">
       <c r="A407" s="5" t="s">
         <v>899</v>
       </c>
@@ -37292,7 +36791,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="409" ht="128.45" spans="1:10">
+    <row r="409" spans="1:10" ht="128.25">
       <c r="A409" s="5" t="s">
         <v>919</v>
       </c>
@@ -37324,7 +36823,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="410" ht="28.55" spans="1:10">
+    <row r="410" spans="1:10" ht="28.5">
       <c r="A410" s="5" t="s">
         <v>929</v>
       </c>
@@ -37388,7 +36887,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="412" ht="42.8" spans="1:10">
+    <row r="412" spans="1:10" ht="42.75">
       <c r="A412" s="5" t="s">
         <v>949</v>
       </c>
@@ -37452,7 +36951,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="414" ht="28.55" spans="1:10">
+    <row r="414" spans="1:10" ht="28.5">
       <c r="A414" s="5" t="s">
         <v>969</v>
       </c>
@@ -37708,7 +37207,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="422" ht="28.55" spans="1:10">
+    <row r="422" spans="1:10" ht="28.5">
       <c r="A422" s="5" t="s">
         <v>1046</v>
       </c>
@@ -37740,7 +37239,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="423" ht="28.55" spans="1:10">
+    <row r="423" spans="1:10" ht="28.5">
       <c r="A423" s="5" t="s">
         <v>1056</v>
       </c>
@@ -37772,7 +37271,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="424" ht="28.55" spans="1:10">
+    <row r="424" spans="1:10" ht="28.5">
       <c r="A424" s="5" t="s">
         <v>1066</v>
       </c>
@@ -37804,7 +37303,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="425" ht="28.55" spans="1:10">
+    <row r="425" spans="1:10" ht="28.5">
       <c r="A425" s="5" t="s">
         <v>1076</v>
       </c>
@@ -37836,7 +37335,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="426" ht="28.55" spans="1:10">
+    <row r="426" spans="1:10" ht="28.5">
       <c r="A426" s="5" t="s">
         <v>1086</v>
       </c>
@@ -37900,7 +37399,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="428" ht="199.8" spans="1:10">
+    <row r="428" spans="1:10" ht="185.25">
       <c r="A428" s="5" t="s">
         <v>1106</v>
       </c>
@@ -37932,7 +37431,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="429" ht="57.1" spans="1:10">
+    <row r="429" spans="1:10" ht="57">
       <c r="A429" s="5" t="s">
         <v>1116</v>
       </c>
@@ -37964,7 +37463,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="430" ht="42.8" spans="1:10">
+    <row r="430" spans="1:10" ht="42.75">
       <c r="A430" s="5" t="s">
         <v>1126</v>
       </c>
@@ -37996,7 +37495,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="431" ht="28.55" spans="1:10">
+    <row r="431" spans="1:10" ht="28.5">
       <c r="A431" s="5" t="s">
         <v>1136</v>
       </c>
@@ -38028,7 +37527,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="432" ht="28.55" spans="1:10">
+    <row r="432" spans="1:10" ht="28.5">
       <c r="A432" s="5" t="s">
         <v>1146</v>
       </c>
@@ -38060,7 +37559,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="433" ht="42.8" spans="1:10">
+    <row r="433" spans="1:10" ht="42.75">
       <c r="A433" s="5" t="s">
         <v>1156</v>
       </c>
@@ -38092,7 +37591,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="434" ht="28.55" spans="1:10">
+    <row r="434" spans="1:10" ht="28.5">
       <c r="A434" s="5" t="s">
         <v>1166</v>
       </c>
@@ -38188,7 +37687,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="437" ht="42.8" spans="1:10">
+    <row r="437" spans="1:10" ht="42.75">
       <c r="A437" s="5" t="s">
         <v>1194</v>
       </c>
@@ -38220,7 +37719,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="438" ht="42.8" spans="1:10">
+    <row r="438" spans="1:10" ht="42.75">
       <c r="A438" s="5" t="s">
         <v>1204</v>
       </c>
@@ -38252,7 +37751,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="439" ht="41.5" spans="1:10">
+    <row r="439" spans="1:10" ht="28.5">
       <c r="A439" s="5" t="s">
         <v>1214</v>
       </c>
@@ -38284,7 +37783,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="440" ht="42.8" spans="1:10">
+    <row r="440" spans="1:10" ht="42.75">
       <c r="A440" s="5" t="s">
         <v>1224</v>
       </c>
@@ -38348,7 +37847,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="442" ht="28.55" spans="1:10">
+    <row r="442" spans="1:10" ht="28.5">
       <c r="A442" s="5" t="s">
         <v>1240</v>
       </c>
@@ -38380,7 +37879,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="443" ht="28.55" spans="1:10">
+    <row r="443" spans="1:10" ht="28.5">
       <c r="A443" s="5" t="s">
         <v>1250</v>
       </c>
@@ -38412,7 +37911,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="444" ht="57.1" spans="1:10">
+    <row r="444" spans="1:10" ht="57">
       <c r="A444" s="5" t="s">
         <v>1260</v>
       </c>
@@ -38444,7 +37943,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="445" ht="57.1" spans="1:10">
+    <row r="445" spans="1:10" ht="57">
       <c r="A445" s="5" t="s">
         <v>1270</v>
       </c>
@@ -38476,7 +37975,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="446" ht="57.1" spans="1:10">
+    <row r="446" spans="1:10" ht="57">
       <c r="A446" s="5" t="s">
         <v>1280</v>
       </c>
@@ -38508,7 +38007,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="447" ht="57.1" spans="1:10">
+    <row r="447" spans="1:10" ht="57">
       <c r="A447" s="5" t="s">
         <v>1290</v>
       </c>
@@ -38540,7 +38039,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="448" ht="57.1" spans="1:10">
+    <row r="448" spans="1:10" ht="57">
       <c r="A448" s="5" t="s">
         <v>1300</v>
       </c>
@@ -38572,7 +38071,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="449" ht="28.55" spans="1:10">
+    <row r="449" spans="1:10" ht="28.5">
       <c r="A449" s="5" t="s">
         <v>1310</v>
       </c>
@@ -38636,7 +38135,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="451" ht="42.8" spans="1:10">
+    <row r="451" spans="1:10" ht="42.75">
       <c r="A451" s="5" t="s">
         <v>1329</v>
       </c>
@@ -38668,7 +38167,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="452" ht="42.8" spans="1:10">
+    <row r="452" spans="1:10" ht="42.75">
       <c r="A452" s="5" t="s">
         <v>1338</v>
       </c>
@@ -38700,7 +38199,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="453" ht="28.55" spans="1:10">
+    <row r="453" spans="1:10" ht="28.5">
       <c r="A453" s="5" t="s">
         <v>1348</v>
       </c>
@@ -38732,7 +38231,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="454" ht="199.8" spans="1:10">
+    <row r="454" spans="1:10" ht="185.25">
       <c r="A454" s="5" t="s">
         <v>1358</v>
       </c>
@@ -38764,7 +38263,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="455" ht="28.55" spans="1:10">
+    <row r="455" spans="1:10" ht="28.5">
       <c r="A455" s="5" t="s">
         <v>1368</v>
       </c>
@@ -38892,7 +38391,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="459" ht="28.55" spans="1:10">
+    <row r="459" spans="1:10" ht="28.5">
       <c r="A459" s="5" t="s">
         <v>1406</v>
       </c>
@@ -38988,7 +38487,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="462" ht="28.55" spans="1:10">
+    <row r="462" spans="1:10" ht="28.5">
       <c r="A462" s="5" t="s">
         <v>1429</v>
       </c>
@@ -39020,7 +38519,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="463" s="2" customFormat="1" ht="116.75" spans="1:10">
+    <row r="463" spans="1:10" s="2" customFormat="1" ht="77.25">
       <c r="A463" s="6" t="s">
         <v>1439</v>
       </c>
@@ -39052,7 +38551,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="464" ht="28.55" spans="1:10">
+    <row r="464" spans="1:10" ht="28.5">
       <c r="A464" s="5" t="s">
         <v>1449</v>
       </c>
@@ -39116,7 +38615,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="466" ht="28.55" spans="1:10">
+    <row r="466" spans="1:10" ht="28.5">
       <c r="A466" s="5" t="s">
         <v>1469</v>
       </c>
@@ -39148,7 +38647,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="467" ht="42.8" spans="1:10">
+    <row r="467" spans="1:10" ht="42.75">
       <c r="A467" s="5" t="s">
         <v>1479</v>
       </c>
@@ -39180,7 +38679,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="468" ht="28.55" spans="1:10">
+    <row r="468" spans="1:10" ht="28.5">
       <c r="A468" s="5" t="s">
         <v>1489</v>
       </c>
@@ -39212,7 +38711,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="469" ht="28.55" spans="1:10">
+    <row r="469" spans="1:10" ht="28.5">
       <c r="A469" s="5" t="s">
         <v>1499</v>
       </c>
@@ -39244,7 +38743,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="470" ht="57.1" spans="1:10">
+    <row r="470" spans="1:10" ht="57">
       <c r="A470" s="5" t="s">
         <v>1509</v>
       </c>
@@ -39276,7 +38775,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="471" ht="28.55" spans="1:10">
+    <row r="471" spans="1:10" ht="28.5">
       <c r="A471" s="5" t="s">
         <v>1519</v>
       </c>
@@ -39340,7 +38839,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="473" ht="71.35" spans="1:10">
+    <row r="473" spans="1:10" ht="71.25">
       <c r="A473" s="5" t="s">
         <v>1539</v>
       </c>
@@ -39372,7 +38871,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="474" ht="42.8" spans="1:10">
+    <row r="474" spans="1:10" ht="42.75">
       <c r="A474" s="5" t="s">
         <v>1549</v>
       </c>
@@ -39404,7 +38903,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="475" ht="71.35" spans="1:10">
+    <row r="475" spans="1:10" ht="71.25">
       <c r="A475" s="5" t="s">
         <v>1559</v>
       </c>
@@ -39436,7 +38935,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="476" ht="28.55" spans="1:10">
+    <row r="476" spans="1:10" ht="28.5">
       <c r="A476" s="5" t="s">
         <v>1569</v>
       </c>
@@ -39468,7 +38967,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="477" ht="28.55" spans="1:10">
+    <row r="477" spans="1:10" ht="28.5">
       <c r="A477" s="5" t="s">
         <v>1579</v>
       </c>
@@ -39500,7 +38999,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="478" ht="28.55" spans="1:10">
+    <row r="478" spans="1:10" ht="28.5">
       <c r="A478" s="5" t="s">
         <v>1589</v>
       </c>
@@ -39564,7 +39063,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="480" ht="28.55" spans="1:10">
+    <row r="480" spans="1:10">
       <c r="A480" s="5" t="s">
         <v>1609</v>
       </c>
@@ -39628,7 +39127,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="482" ht="28.55" spans="1:10">
+    <row r="482" spans="1:10" ht="28.5">
       <c r="A482" s="5" t="s">
         <v>1627</v>
       </c>
@@ -39692,7 +39191,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="484" ht="42.8" spans="1:10">
+    <row r="484" spans="1:10" ht="42.75">
       <c r="A484" s="5" t="s">
         <v>1647</v>
       </c>
@@ -39724,7 +39223,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="485" ht="71.35" spans="1:10">
+    <row r="485" spans="1:10" ht="57">
       <c r="A485" s="5" t="s">
         <v>1657</v>
       </c>
@@ -39756,7 +39255,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="486" ht="28.55" spans="1:10">
+    <row r="486" spans="1:10" ht="28.5">
       <c r="A486" s="5" t="s">
         <v>1667</v>
       </c>
@@ -39788,7 +39287,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="487" ht="28.55" spans="1:10">
+    <row r="487" spans="1:10" ht="28.5">
       <c r="A487" s="5" t="s">
         <v>1676</v>
       </c>
@@ -39820,7 +39319,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="488" ht="71.35" spans="1:10">
+    <row r="488" spans="1:10" ht="71.25">
       <c r="A488" s="5" t="s">
         <v>1685</v>
       </c>
@@ -39916,7 +39415,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="491" ht="42.8" spans="1:10">
+    <row r="491" spans="1:10" ht="42.75">
       <c r="A491" s="5" t="s">
         <v>1713</v>
       </c>
@@ -40012,7 +39511,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="494" ht="28.55" spans="1:10">
+    <row r="494" spans="1:10" ht="28.5">
       <c r="A494" s="5" t="s">
         <v>1743</v>
       </c>
@@ -40076,7 +39575,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="496" ht="42.8" spans="1:10">
+    <row r="496" spans="1:10" ht="28.5">
       <c r="A496" s="5" t="s">
         <v>1763</v>
       </c>
@@ -40108,7 +39607,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="497" ht="28.55" spans="1:10">
+    <row r="497" spans="1:10" ht="28.5">
       <c r="A497" s="5" t="s">
         <v>1773</v>
       </c>
@@ -40140,7 +39639,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="498" ht="28.55" spans="1:10">
+    <row r="498" spans="1:10" ht="28.5">
       <c r="A498" s="5" t="s">
         <v>1783</v>
       </c>
@@ -40172,7 +39671,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="499" ht="85.6" spans="1:10">
+    <row r="499" spans="1:10" ht="85.5">
       <c r="A499" s="5" t="s">
         <v>1793</v>
       </c>
@@ -40236,7 +39735,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="501" ht="28.55" spans="1:10">
+    <row r="501" spans="1:10" ht="28.5">
       <c r="A501" s="5" t="s">
         <v>1813</v>
       </c>
@@ -40268,7 +39767,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="502" ht="28.55" spans="1:10">
+    <row r="502" spans="1:10" ht="28.5">
       <c r="A502" s="5" t="s">
         <v>1823</v>
       </c>
@@ -40300,7 +39799,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="503" ht="27.25" spans="1:10">
+    <row r="503" spans="1:10">
       <c r="A503" s="5" t="s">
         <v>1833</v>
       </c>
@@ -40332,7 +39831,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="504" ht="57.1" spans="1:10">
+    <row r="504" spans="1:10" ht="42.75">
       <c r="A504" s="5" t="s">
         <v>1843</v>
       </c>
@@ -40364,7 +39863,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="505" ht="28.55" spans="1:10">
+    <row r="505" spans="1:10" ht="28.5">
       <c r="A505" s="5" t="s">
         <v>1853</v>
       </c>
@@ -40396,7 +39895,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="506" ht="57.1" spans="1:10">
+    <row r="506" spans="1:10" ht="42.75">
       <c r="A506" s="5" t="s">
         <v>1863</v>
       </c>
@@ -40428,7 +39927,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="507" ht="71.35" spans="1:10">
+    <row r="507" spans="1:10" ht="71.25">
       <c r="A507" s="5" t="s">
         <v>1873</v>
       </c>
@@ -40460,7 +39959,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="508" ht="57.1" spans="1:10">
+    <row r="508" spans="1:10" ht="42.75">
       <c r="A508" s="5" t="s">
         <v>1883</v>
       </c>
@@ -40492,7 +39991,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="509" ht="185.5" spans="1:10">
+    <row r="509" spans="1:10" ht="185.25">
       <c r="A509" s="5" t="s">
         <v>1893</v>
       </c>
@@ -40524,7 +40023,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="510" ht="42.8" spans="1:10">
+    <row r="510" spans="1:10" ht="42.75">
       <c r="A510" s="5" t="s">
         <v>1903</v>
       </c>
@@ -40556,7 +40055,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="511" ht="156.95" spans="1:10">
+    <row r="511" spans="1:10" ht="156.75">
       <c r="A511" s="5" t="s">
         <v>1913</v>
       </c>
@@ -40588,7 +40087,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="512" ht="99.9" spans="1:10">
+    <row r="512" spans="1:10" ht="99.75">
       <c r="A512" s="5" t="s">
         <v>1923</v>
       </c>
@@ -40620,7 +40119,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="513" ht="42.8" spans="1:10">
+    <row r="513" spans="1:10" ht="42.75">
       <c r="A513" s="5" t="s">
         <v>1933</v>
       </c>
@@ -40652,7 +40151,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="514" ht="42.8" spans="1:10">
+    <row r="514" spans="1:10" ht="42.75">
       <c r="A514" s="5" t="s">
         <v>1943</v>
       </c>
@@ -40684,7 +40183,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="515" ht="42.8" spans="1:10">
+    <row r="515" spans="1:10" ht="42.75">
       <c r="A515" s="5" t="s">
         <v>1953</v>
       </c>
@@ -40716,7 +40215,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="516" ht="57.1" spans="1:10">
+    <row r="516" spans="1:10" ht="57">
       <c r="A516" s="5" t="s">
         <v>1963</v>
       </c>
@@ -40748,7 +40247,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="517" ht="156.95" spans="1:10">
+    <row r="517" spans="1:10" ht="142.5">
       <c r="A517" s="5" t="s">
         <v>1973</v>
       </c>
@@ -40812,7 +40311,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="519" ht="42.8" spans="1:10">
+    <row r="519" spans="1:10" ht="28.5">
       <c r="A519" s="5" t="s">
         <v>1992</v>
       </c>
@@ -40844,7 +40343,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="520" ht="57.1" spans="1:10">
+    <row r="520" spans="1:10" ht="57">
       <c r="A520" s="5" t="s">
         <v>2002</v>
       </c>
@@ -40876,7 +40375,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="521" ht="42.8" spans="1:10">
+    <row r="521" spans="1:10" ht="42.75">
       <c r="A521" s="5" t="s">
         <v>2012</v>
       </c>
@@ -40908,7 +40407,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="522" ht="57.1" spans="1:10">
+    <row r="522" spans="1:10" ht="57">
       <c r="A522" s="5" t="s">
         <v>2022</v>
       </c>
@@ -40940,7 +40439,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="523" ht="28.55" spans="1:10">
+    <row r="523" spans="1:10" ht="28.5">
       <c r="A523" s="5" t="s">
         <v>2032</v>
       </c>
@@ -40972,7 +40471,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="524" ht="28.55" spans="1:10">
+    <row r="524" spans="1:10" ht="28.5">
       <c r="A524" s="5" t="s">
         <v>2042</v>
       </c>
@@ -41036,7 +40535,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="526" ht="28.55" spans="1:10">
+    <row r="526" spans="1:10" ht="28.5">
       <c r="A526" s="5" t="s">
         <v>2060</v>
       </c>
@@ -41068,7 +40567,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="527" ht="57.1" spans="1:10">
+    <row r="527" spans="1:10" ht="57">
       <c r="A527" s="5" t="s">
         <v>2070</v>
       </c>
@@ -41100,7 +40599,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="528" ht="42.8" spans="1:10">
+    <row r="528" spans="1:10" ht="42.75">
       <c r="A528" s="5" t="s">
         <v>2080</v>
       </c>
@@ -41132,7 +40631,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="529" ht="28.55" spans="1:10">
+    <row r="529" spans="1:10" ht="28.5">
       <c r="A529" s="5" t="s">
         <v>2090</v>
       </c>
@@ -41196,7 +40695,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="531" ht="42.8" spans="1:10">
+    <row r="531" spans="1:10" ht="42.75">
       <c r="A531" s="5" t="s">
         <v>2109</v>
       </c>
@@ -41228,7 +40727,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="532" ht="57.1" spans="1:10">
+    <row r="532" spans="1:10" ht="57">
       <c r="A532" s="5" t="s">
         <v>2119</v>
       </c>
@@ -41260,7 +40759,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="533" ht="28.55" spans="1:10">
+    <row r="533" spans="1:10" ht="28.5">
       <c r="A533" s="5" t="s">
         <v>2129</v>
       </c>
@@ -41292,7 +40791,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="534" ht="28.55" spans="1:10">
+    <row r="534" spans="1:10" ht="28.5">
       <c r="A534" s="5" t="s">
         <v>2139</v>
       </c>
@@ -41356,7 +40855,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="536" ht="57.1" spans="1:10">
+    <row r="536" spans="1:10" ht="57">
       <c r="A536" s="5" t="s">
         <v>2159</v>
       </c>
@@ -41388,7 +40887,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="537" ht="99.9" spans="1:10">
+    <row r="537" spans="1:10" ht="99.75">
       <c r="A537" s="5" t="s">
         <v>2169</v>
       </c>
@@ -41420,7 +40919,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="538" ht="99.9" spans="1:10">
+    <row r="538" spans="1:10" ht="99.75">
       <c r="A538" s="5" t="s">
         <v>2179</v>
       </c>
@@ -41452,7 +40951,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="539" ht="57.1" spans="1:10">
+    <row r="539" spans="1:10" ht="57">
       <c r="A539" s="5" t="s">
         <v>2189</v>
       </c>
@@ -41484,7 +40983,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="540" ht="28.55" spans="1:10">
+    <row r="540" spans="1:10" ht="28.5">
       <c r="A540" s="5" t="s">
         <v>2199</v>
       </c>
@@ -41516,7 +41015,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="541" ht="28.55" spans="1:10">
+    <row r="541" spans="1:10" ht="28.5">
       <c r="A541" s="5" t="s">
         <v>2209</v>
       </c>
@@ -41580,7 +41079,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="543" ht="42.8" spans="1:10">
+    <row r="543" spans="1:10" ht="42.75">
       <c r="A543" s="5" t="s">
         <v>2228</v>
       </c>
@@ -41612,7 +41111,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="544" ht="28.55" spans="1:10">
+    <row r="544" spans="1:10" ht="28.5">
       <c r="A544" s="5" t="s">
         <v>2238</v>
       </c>
@@ -41644,7 +41143,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="545" ht="28.55" spans="1:10">
+    <row r="545" spans="1:10" ht="28.5">
       <c r="A545" s="5" t="s">
         <v>2248</v>
       </c>
@@ -41676,7 +41175,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="546" ht="28.55" spans="1:10">
+    <row r="546" spans="1:10" ht="28.5">
       <c r="A546" s="5" t="s">
         <v>2258</v>
       </c>
@@ -41708,7 +41207,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="547" ht="42.8" spans="1:10">
+    <row r="547" spans="1:10" ht="28.5">
       <c r="A547" s="5" t="s">
         <v>2268</v>
       </c>
@@ -41740,7 +41239,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="548" ht="114.15" spans="1:10">
+    <row r="548" spans="1:10" ht="114">
       <c r="A548" s="5" t="s">
         <v>2278</v>
       </c>
@@ -41836,7 +41335,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="551" ht="28.55" spans="1:10">
+    <row r="551" spans="1:10" ht="28.5">
       <c r="A551" s="5" t="s">
         <v>2307</v>
       </c>
@@ -41868,7 +41367,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="552" ht="28.55" spans="1:10">
+    <row r="552" spans="1:10" ht="28.5">
       <c r="A552" s="5" t="s">
         <v>2317</v>
       </c>
@@ -41900,7 +41399,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="553" ht="85.6" spans="1:10">
+    <row r="553" spans="1:10" ht="85.5">
       <c r="A553" s="5" t="s">
         <v>2326</v>
       </c>
@@ -41932,7 +41431,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="554" ht="42.8" spans="1:10">
+    <row r="554" spans="1:10" ht="42.75">
       <c r="A554" s="5" t="s">
         <v>2336</v>
       </c>
@@ -41996,7 +41495,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="556" ht="42.8" spans="1:10">
+    <row r="556" spans="1:10" ht="42.75">
       <c r="A556" s="5" t="s">
         <v>2355</v>
       </c>
@@ -42028,7 +41527,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="557" ht="42.8" spans="1:10">
+    <row r="557" spans="1:10" ht="42.75">
       <c r="A557" s="5" t="s">
         <v>2365</v>
       </c>
@@ -42060,7 +41559,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="558" ht="28.55" spans="1:10">
+    <row r="558" spans="1:10" ht="28.5">
       <c r="A558" s="5" t="s">
         <v>2374</v>
       </c>
@@ -42124,7 +41623,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="560" ht="71.35" spans="1:10">
+    <row r="560" spans="1:10" ht="71.25">
       <c r="A560" s="5" t="s">
         <v>2393</v>
       </c>
@@ -42156,7 +41655,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="561" ht="57.1" spans="1:10">
+    <row r="561" spans="1:10" ht="57">
       <c r="A561" s="5" t="s">
         <v>2403</v>
       </c>
@@ -42380,7 +41879,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="568" ht="28.55" spans="1:10">
+    <row r="568" spans="1:10" ht="28.5">
       <c r="A568" s="5" t="s">
         <v>2462</v>
       </c>
@@ -42412,7 +41911,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="569" ht="42.8" spans="1:10">
+    <row r="569" spans="1:10" ht="42.75">
       <c r="A569" s="5" t="s">
         <v>2472</v>
       </c>
@@ -42444,7 +41943,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="570" ht="28.55" spans="1:10">
+    <row r="570" spans="1:10">
       <c r="A570" s="5" t="s">
         <v>2482</v>
       </c>
@@ -42476,7 +41975,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="571" ht="57.1" spans="1:10">
+    <row r="571" spans="1:10" ht="57">
       <c r="A571" s="5" t="s">
         <v>2492</v>
       </c>
@@ -42572,7 +42071,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="574" ht="28.55" spans="1:10">
+    <row r="574" spans="1:10" ht="28.5">
       <c r="A574" s="5" t="s">
         <v>2520</v>
       </c>
@@ -42604,7 +42103,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="575" ht="28.55" spans="1:10">
+    <row r="575" spans="1:10" ht="28.5">
       <c r="A575" s="5" t="s">
         <v>2530</v>
       </c>
@@ -42636,7 +42135,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="576" ht="28.55" spans="1:10">
+    <row r="576" spans="1:10" ht="28.5">
       <c r="A576" s="5" t="s">
         <v>2540</v>
       </c>
@@ -42668,7 +42167,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="577" ht="57.1" spans="1:10">
+    <row r="577" spans="1:10" ht="57">
       <c r="A577" s="5" t="s">
         <v>2550</v>
       </c>
@@ -42732,7 +42231,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="579" ht="42.8" spans="1:10">
+    <row r="579" spans="1:10" ht="42.75">
       <c r="A579" s="5" t="s">
         <v>2569</v>
       </c>
@@ -42764,7 +42263,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="580" ht="28.55" spans="1:10">
+    <row r="580" spans="1:10" ht="28.5">
       <c r="A580" s="5" t="s">
         <v>2579</v>
       </c>
@@ -42796,7 +42295,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="581" ht="57.1" spans="1:10">
+    <row r="581" spans="1:10" ht="42.75">
       <c r="A581" s="5" t="s">
         <v>2589</v>
       </c>
@@ -42828,7 +42327,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="582" ht="57.1" spans="1:10">
+    <row r="582" spans="1:10" ht="57">
       <c r="A582" s="5" t="s">
         <v>2599</v>
       </c>
@@ -42924,7 +42423,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="585" ht="42.8" spans="1:10">
+    <row r="585" spans="1:10" ht="42.75">
       <c r="A585" s="5" t="s">
         <v>2626</v>
       </c>
@@ -42956,7 +42455,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="586" ht="42.8" spans="1:10">
+    <row r="586" spans="1:10" ht="42.75">
       <c r="A586" s="5" t="s">
         <v>2636</v>
       </c>
@@ -42988,7 +42487,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="587" ht="42.8" spans="1:10">
+    <row r="587" spans="1:10" ht="42.75">
       <c r="A587" s="5" t="s">
         <v>2646</v>
       </c>
@@ -43020,7 +42519,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="588" ht="28.55" spans="1:10">
+    <row r="588" spans="1:10" ht="28.5">
       <c r="A588" s="5" t="s">
         <v>2656</v>
       </c>
@@ -43244,7 +42743,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="595" ht="42.8" spans="1:10">
+    <row r="595" spans="1:10" ht="42.75">
       <c r="A595" s="5" t="s">
         <v>2722</v>
       </c>
@@ -43276,7 +42775,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="596" ht="28.55" spans="1:10">
+    <row r="596" spans="1:10" ht="28.5">
       <c r="A596" s="5" t="s">
         <v>2732</v>
       </c>
@@ -43340,7 +42839,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="598" ht="28.55" spans="1:10">
+    <row r="598" spans="1:10" ht="28.5">
       <c r="A598" s="5" t="s">
         <v>2752</v>
       </c>
@@ -43372,7 +42871,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="599" ht="42.8" spans="1:10">
+    <row r="599" spans="1:10" ht="42.75">
       <c r="A599" s="5" t="s">
         <v>2762</v>
       </c>
@@ -43436,7 +42935,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="601" ht="28.55" spans="1:10">
+    <row r="601" spans="1:10" ht="28.5">
       <c r="A601" s="5" t="s">
         <v>2781</v>
       </c>
@@ -43468,7 +42967,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="602" ht="28.55" spans="1:10">
+    <row r="602" spans="1:10" ht="28.5">
       <c r="A602" s="5" t="s">
         <v>2788</v>
       </c>
@@ -43500,7 +42999,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="603" ht="28.55" spans="1:10">
+    <row r="603" spans="1:10" ht="28.5">
       <c r="A603" s="5" t="s">
         <v>2796</v>
       </c>
@@ -43564,7 +43063,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="605" ht="42.8" spans="1:10">
+    <row r="605" spans="1:10" ht="42.75">
       <c r="A605" s="5" t="s">
         <v>2815</v>
       </c>
@@ -43596,7 +43095,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="606" ht="42.8" spans="1:10">
+    <row r="606" spans="1:10" ht="42.75">
       <c r="A606" s="5" t="s">
         <v>2825</v>
       </c>
@@ -43628,7 +43127,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="607" ht="28.55" spans="1:10">
+    <row r="607" spans="1:10" ht="28.5">
       <c r="A607" s="5" t="s">
         <v>2835</v>
       </c>
@@ -43660,7 +43159,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="608" ht="28.55" spans="1:10">
+    <row r="608" spans="1:10" ht="28.5">
       <c r="A608" s="5" t="s">
         <v>2845</v>
       </c>
@@ -43724,7 +43223,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="610" ht="27.25" spans="1:10">
+    <row r="610" spans="1:10">
       <c r="A610" s="5" t="s">
         <v>2862</v>
       </c>
@@ -43756,7 +43255,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="611" ht="28.55" spans="1:10">
+    <row r="611" spans="1:10" ht="28.5">
       <c r="A611" s="5" t="s">
         <v>2872</v>
       </c>
@@ -43916,7 +43415,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="616" ht="28.55" spans="1:10">
+    <row r="616" spans="1:10" ht="28.5">
       <c r="A616" s="5" t="s">
         <v>2912</v>
       </c>
@@ -43948,7 +43447,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="617" ht="27.25" spans="1:10">
+    <row r="617" spans="1:10" ht="28.5">
       <c r="A617" s="5" t="s">
         <v>2922</v>
       </c>
@@ -44044,7 +43543,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="620" ht="28.55" spans="1:10">
+    <row r="620" spans="1:10" ht="28.5">
       <c r="A620" s="5" t="s">
         <v>2951</v>
       </c>
@@ -44108,7 +43607,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="622" ht="99.9" spans="1:10">
+    <row r="622" spans="1:10" ht="99.75">
       <c r="A622" s="5" t="s">
         <v>2971</v>
       </c>
@@ -44172,7 +43671,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="624" ht="28.55" spans="1:10">
+    <row r="624" spans="1:10" ht="28.5">
       <c r="A624" s="5" t="s">
         <v>2991</v>
       </c>
@@ -44204,7 +43703,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="625" ht="28.55" spans="1:10">
+    <row r="625" spans="1:10" ht="28.5">
       <c r="A625" s="5" t="s">
         <v>3001</v>
       </c>
@@ -44364,7 +43863,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="630" ht="28.55" spans="1:10">
+    <row r="630" spans="1:10" ht="28.5">
       <c r="A630" s="5" t="s">
         <v>3043</v>
       </c>
@@ -44396,7 +43895,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="631" ht="28.55" spans="1:10">
+    <row r="631" spans="1:10" ht="28.5">
       <c r="A631" s="5" t="s">
         <v>3053</v>
       </c>
@@ -44556,7 +44055,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="636" ht="28.55" spans="1:10">
+    <row r="636" spans="1:10" ht="28.5">
       <c r="A636" s="5" t="s">
         <v>3095</v>
       </c>
@@ -44588,7 +44087,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="637" ht="28.55" spans="1:10">
+    <row r="637" spans="1:10" ht="28.5">
       <c r="A637" s="5" t="s">
         <v>3105</v>
       </c>
@@ -44620,7 +44119,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="638" ht="28.55" spans="1:10">
+    <row r="638" spans="1:10" ht="28.5">
       <c r="A638" s="5" t="s">
         <v>3115</v>
       </c>
@@ -44780,7 +44279,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="643" ht="28.55" spans="1:10">
+    <row r="643" spans="1:10" ht="28.5">
       <c r="A643" s="5" t="s">
         <v>3161</v>
       </c>
@@ -44844,7 +44343,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="645" ht="28.55" spans="1:10">
+    <row r="645" spans="1:10" ht="28.5">
       <c r="A645" s="5" t="s">
         <v>3181</v>
       </c>
@@ -44876,7 +44375,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="646" ht="28.55" spans="1:10">
+    <row r="646" spans="1:10" ht="28.5">
       <c r="A646" s="5" t="s">
         <v>3191</v>
       </c>
@@ -45004,7 +44503,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="650" ht="28.55" spans="1:10">
+    <row r="650" spans="1:10" ht="28.5">
       <c r="A650" s="5" t="s">
         <v>3225</v>
       </c>
@@ -45036,7 +44535,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="651" ht="328.2" spans="1:10">
+    <row r="651" spans="1:10" ht="313.5">
       <c r="A651" s="5" t="s">
         <v>3235</v>
       </c>
@@ -45068,7 +44567,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="652" ht="371.05" spans="1:10">
+    <row r="652" spans="1:10" ht="342">
       <c r="A652" s="5" t="s">
         <v>3245</v>
       </c>
@@ -45196,7 +44695,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="656" ht="57.1" spans="1:10">
+    <row r="656" spans="1:10" ht="42.75">
       <c r="A656" s="5" t="s">
         <v>3285</v>
       </c>
@@ -45292,7 +44791,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="659" ht="42.8" spans="1:10">
+    <row r="659" spans="1:10" ht="42.75">
       <c r="A659" s="5" t="s">
         <v>3308</v>
       </c>
@@ -45324,7 +44823,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="660" ht="42.8" spans="1:10">
+    <row r="660" spans="1:10" ht="42.75">
       <c r="A660" s="5" t="s">
         <v>3318</v>
       </c>
@@ -45356,7 +44855,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="661" ht="28.55" spans="1:10">
+    <row r="661" spans="1:10" ht="28.5">
       <c r="A661" s="5" t="s">
         <v>3328</v>
       </c>
@@ -45388,7 +44887,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="662" ht="28.55" spans="1:10">
+    <row r="662" spans="1:10" ht="28.5">
       <c r="A662" s="5" t="s">
         <v>3338</v>
       </c>
@@ -45420,7 +44919,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="663" ht="42.8" spans="1:10">
+    <row r="663" spans="1:10" ht="42.75">
       <c r="A663" s="5" t="s">
         <v>3348</v>
       </c>
@@ -45452,7 +44951,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="664" ht="356.75" spans="1:10">
+    <row r="664" spans="1:10" ht="327.75">
       <c r="A664" s="5" t="s">
         <v>3358</v>
       </c>
@@ -45484,7 +44983,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="665" ht="57.1" spans="1:10">
+    <row r="665" spans="1:10" ht="42.75">
       <c r="A665" s="5" t="s">
         <v>3368</v>
       </c>
@@ -45516,7 +45015,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="666" ht="28.55" spans="1:10">
+    <row r="666" spans="1:10" ht="28.5">
       <c r="A666" s="5" t="s">
         <v>3378</v>
       </c>
@@ -45548,7 +45047,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="667" ht="42.8" spans="1:10">
+    <row r="667" spans="1:10" ht="42.75">
       <c r="A667" s="5" t="s">
         <v>3388</v>
       </c>
@@ -45580,7 +45079,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="668" ht="41.5" spans="1:10">
+    <row r="668" spans="1:10" ht="28.5">
       <c r="A668" s="5" t="s">
         <v>3398</v>
       </c>
@@ -45612,7 +45111,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="669" ht="114.15" spans="1:10">
+    <row r="669" spans="1:10" ht="99.75">
       <c r="A669" s="5" t="s">
         <v>3408</v>
       </c>
@@ -45676,7 +45175,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="671" ht="57.1" spans="1:10">
+    <row r="671" spans="1:10" ht="57">
       <c r="A671" s="5" t="s">
         <v>3428</v>
       </c>
@@ -45708,7 +45207,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="672" ht="57.1" spans="1:10">
+    <row r="672" spans="1:10" ht="57">
       <c r="A672" s="5" t="s">
         <v>3438</v>
       </c>
@@ -45740,7 +45239,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="673" ht="28.55" spans="1:10">
+    <row r="673" spans="1:10" ht="28.5">
       <c r="A673" s="5" t="s">
         <v>3448</v>
       </c>
@@ -45996,7 +45495,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="681" ht="28.55" spans="1:10">
+    <row r="681" spans="1:10" ht="28.5">
       <c r="A681" s="5" t="s">
         <v>3501</v>
       </c>
@@ -46284,7 +45783,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="690" ht="42.8" spans="1:10">
+    <row r="690" spans="1:10" ht="42.75">
       <c r="A690" s="5" t="s">
         <v>3586</v>
       </c>
@@ -46316,7 +45815,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="691" ht="85.6" spans="1:10">
+    <row r="691" spans="1:10" ht="85.5">
       <c r="A691" s="5" t="s">
         <v>3595</v>
       </c>
@@ -46348,7 +45847,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="692" ht="28.55" spans="1:10">
+    <row r="692" spans="1:10" ht="28.5">
       <c r="A692" s="5" t="s">
         <v>3605</v>
       </c>
@@ -46380,7 +45879,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="693" ht="28.55" spans="1:10">
+    <row r="693" spans="1:10" ht="28.5">
       <c r="A693" s="5" t="s">
         <v>3615</v>
       </c>
@@ -46444,7 +45943,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="695" ht="28.55" spans="1:10">
+    <row r="695" spans="1:10" ht="28.5">
       <c r="A695" s="5" t="s">
         <v>3635</v>
       </c>
@@ -46476,7 +45975,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="696" ht="28.55" spans="1:10">
+    <row r="696" spans="1:10" ht="28.5">
       <c r="A696" s="5" t="s">
         <v>3645</v>
       </c>
@@ -46508,7 +46007,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="697" ht="28.55" spans="1:10">
+    <row r="697" spans="1:10" ht="28.5">
       <c r="A697" s="5" t="s">
         <v>3655</v>
       </c>
@@ -46540,7 +46039,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="698" ht="28.55" spans="1:10">
+    <row r="698" spans="1:10" ht="28.5">
       <c r="A698" s="5" t="s">
         <v>3665</v>
       </c>
@@ -46572,7 +46071,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="699" ht="28.55" spans="1:10">
+    <row r="699" spans="1:10" ht="28.5">
       <c r="A699" s="5" t="s">
         <v>3675</v>
       </c>
@@ -46604,7 +46103,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="700" ht="42.8" spans="1:10">
+    <row r="700" spans="1:10" ht="42.75">
       <c r="A700" s="5" t="s">
         <v>3685</v>
       </c>
@@ -46636,7 +46135,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="701" ht="42.8" spans="1:10">
+    <row r="701" spans="1:10" ht="42.75">
       <c r="A701" s="5" t="s">
         <v>3695</v>
       </c>
@@ -46668,7 +46167,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="702" ht="28.55" spans="1:10">
+    <row r="702" spans="1:10" ht="28.5">
       <c r="A702" s="5" t="s">
         <v>3705</v>
       </c>
@@ -46732,7 +46231,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="704" ht="28.55" spans="1:10">
+    <row r="704" spans="1:10" ht="28.5">
       <c r="A704" s="5" t="s">
         <v>3717</v>
       </c>
@@ -46764,7 +46263,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="705" ht="42.8" spans="1:10">
+    <row r="705" spans="1:10" ht="42.75">
       <c r="A705" s="5" t="s">
         <v>3727</v>
       </c>
@@ -46796,7 +46295,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="706" ht="42.8" spans="1:10">
+    <row r="706" spans="1:10" ht="42.75">
       <c r="A706" s="5" t="s">
         <v>3737</v>
       </c>
@@ -46828,7 +46327,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="707" ht="28.55" spans="1:10">
+    <row r="707" spans="1:10" ht="28.5">
       <c r="A707" s="5" t="s">
         <v>3747</v>
       </c>
@@ -46860,7 +46359,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="708" ht="28.55" spans="1:10">
+    <row r="708" spans="1:10" ht="28.5">
       <c r="A708" s="5" t="s">
         <v>3757</v>
       </c>
@@ -46924,7 +46423,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="710" ht="42.8" spans="1:10">
+    <row r="710" spans="1:10" ht="42.75">
       <c r="A710" s="5" t="s">
         <v>3776</v>
       </c>
@@ -46956,7 +46455,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="711" ht="42.8" spans="1:10">
+    <row r="711" spans="1:10" ht="42.75">
       <c r="A711" s="5" t="s">
         <v>3786</v>
       </c>
@@ -47020,7 +46519,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="713" ht="28.55" spans="1:10">
+    <row r="713" spans="1:10" ht="28.5">
       <c r="A713" s="5" t="s">
         <v>3806</v>
       </c>
@@ -47084,7 +46583,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="715" ht="57.1" spans="1:10">
+    <row r="715" spans="1:10" ht="57">
       <c r="A715" s="5" t="s">
         <v>3826</v>
       </c>
@@ -47116,7 +46615,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="716" ht="128.45" spans="1:10">
+    <row r="716" spans="1:10" ht="128.25">
       <c r="A716" s="5" t="s">
         <v>3836</v>
       </c>
@@ -47148,7 +46647,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="717" ht="42.8" spans="1:10">
+    <row r="717" spans="1:10" ht="42.75">
       <c r="A717" s="5" t="s">
         <v>3846</v>
       </c>
@@ -47180,7 +46679,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="718" ht="28.55" spans="1:10">
+    <row r="718" spans="1:10" ht="28.5">
       <c r="A718" s="5" t="s">
         <v>3856</v>
       </c>
@@ -47244,7 +46743,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="720" ht="28.55" spans="1:10">
+    <row r="720" spans="1:10">
       <c r="A720" s="5" t="s">
         <v>3866</v>
       </c>
@@ -47276,7 +46775,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="721" ht="28.55" spans="1:10">
+    <row r="721" spans="1:10" ht="28.5">
       <c r="A721" s="5" t="s">
         <v>3875</v>
       </c>
@@ -47340,7 +46839,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="723" ht="28.55" spans="1:10">
+    <row r="723" spans="1:10" ht="28.5">
       <c r="A723" s="5" t="s">
         <v>3890</v>
       </c>
@@ -47372,7 +46871,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="724" ht="42.8" spans="1:10">
+    <row r="724" spans="1:10" ht="42.75">
       <c r="A724" s="5" t="s">
         <v>3900</v>
       </c>
@@ -47404,7 +46903,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="725" ht="28.55" spans="1:10">
+    <row r="725" spans="1:10" ht="28.5">
       <c r="A725" s="5" t="s">
         <v>3910</v>
       </c>
@@ -47436,7 +46935,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="726" ht="28.55" spans="1:10">
+    <row r="726" spans="1:10" ht="28.5">
       <c r="A726" s="5" t="s">
         <v>3920</v>
       </c>
@@ -47500,7 +46999,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="728" ht="28.55" spans="1:10">
+    <row r="728" spans="1:10" ht="28.5">
       <c r="A728" s="5" t="s">
         <v>3940</v>
       </c>
@@ -47532,7 +47031,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="729" ht="28.55" spans="1:10">
+    <row r="729" spans="1:10" ht="28.5">
       <c r="A729" s="5" t="s">
         <v>3950</v>
       </c>
@@ -47564,7 +47063,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="730" ht="57.1" spans="1:10">
+    <row r="730" spans="1:10" ht="42.75">
       <c r="A730" s="5" t="s">
         <v>3960</v>
       </c>
@@ -47596,7 +47095,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="731" ht="57.1" spans="1:10">
+    <row r="731" spans="1:10" ht="57">
       <c r="A731" s="5" t="s">
         <v>3970</v>
       </c>
@@ -47628,7 +47127,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="732" ht="71.35" spans="1:10">
+    <row r="732" spans="1:10" ht="71.25">
       <c r="A732" s="5" t="s">
         <v>3980</v>
       </c>
@@ -47660,7 +47159,7 @@
         <v>3989</v>
       </c>
     </row>
-    <row r="733" ht="57.1" spans="1:10">
+    <row r="733" spans="1:10" ht="57">
       <c r="A733" s="5" t="s">
         <v>3990</v>
       </c>
@@ -47692,7 +47191,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="734" ht="71.35" spans="1:10">
+    <row r="734" spans="1:10" ht="71.25">
       <c r="A734" s="5" t="s">
         <v>4000</v>
       </c>
@@ -47724,7 +47223,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="735" ht="85.6" spans="1:10">
+    <row r="735" spans="1:10" ht="85.5">
       <c r="A735" s="5" t="s">
         <v>4010</v>
       </c>
@@ -47756,7 +47255,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="736" ht="71.35" spans="1:10">
+    <row r="736" spans="1:10" ht="71.25">
       <c r="A736" s="5" t="s">
         <v>4020</v>
       </c>
@@ -47788,7 +47287,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="737" ht="28.55" spans="1:10">
+    <row r="737" spans="1:10" ht="28.5">
       <c r="A737" s="5" t="s">
         <v>4029</v>
       </c>
@@ -47820,7 +47319,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="738" ht="28.55" spans="1:10">
+    <row r="738" spans="1:10" ht="28.5">
       <c r="A738" s="5" t="s">
         <v>4039</v>
       </c>
@@ -47916,7 +47415,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="741" ht="28.55" spans="1:10">
+    <row r="741" spans="1:10" ht="28.5">
       <c r="A741" s="5" t="s">
         <v>4066</v>
       </c>
@@ -47948,7 +47447,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="742" ht="28.55" spans="1:10">
+    <row r="742" spans="1:10" ht="28.5">
       <c r="A742" s="5" t="s">
         <v>4075</v>
       </c>
@@ -48012,7 +47511,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="744" ht="28.55" spans="1:10">
+    <row r="744" spans="1:10" ht="28.5">
       <c r="A744" s="5" t="s">
         <v>4095</v>
       </c>
@@ -48044,7 +47543,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="745" ht="28.55" spans="1:10">
+    <row r="745" spans="1:10" ht="28.5">
       <c r="A745" s="5" t="s">
         <v>4105</v>
       </c>
@@ -48076,7 +47575,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="746" ht="28.55" spans="1:10">
+    <row r="746" spans="1:10" ht="28.5">
       <c r="A746" s="5" t="s">
         <v>4114</v>
       </c>
@@ -48172,7 +47671,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="749" ht="28.55" spans="1:10">
+    <row r="749" spans="1:10" ht="28.5">
       <c r="A749" s="5" t="s">
         <v>4144</v>
       </c>
@@ -48236,7 +47735,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="751" ht="71.35" spans="1:10">
+    <row r="751" spans="1:10" ht="71.25">
       <c r="A751" s="5" t="s">
         <v>4163</v>
       </c>
@@ -48300,7 +47799,7 @@
         <v>4181</v>
       </c>
     </row>
-    <row r="753" ht="28.55" spans="1:10">
+    <row r="753" spans="1:10" ht="28.5">
       <c r="A753" s="5" t="s">
         <v>4182</v>
       </c>
@@ -48396,7 +47895,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="756" ht="71.35" spans="1:10">
+    <row r="756" spans="1:10" ht="57">
       <c r="A756" s="5" t="s">
         <v>4211</v>
       </c>
@@ -48428,7 +47927,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="757" ht="42.8" spans="1:10">
+    <row r="757" spans="1:10" ht="42.75">
       <c r="A757" s="5" t="s">
         <v>4221</v>
       </c>
@@ -48460,7 +47959,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="758" ht="156.95" spans="1:10">
+    <row r="758" spans="1:10" ht="156.75">
       <c r="A758" s="5" t="s">
         <v>4231</v>
       </c>
@@ -48492,7 +47991,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="759" ht="85.6" spans="1:10">
+    <row r="759" spans="1:10" ht="85.5">
       <c r="A759" s="5" t="s">
         <v>4241</v>
       </c>
@@ -48524,7 +48023,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="760" ht="71.35" spans="1:10">
+    <row r="760" spans="1:10" ht="71.25">
       <c r="A760" s="5" t="s">
         <v>4251</v>
       </c>
@@ -48588,7 +48087,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="762" ht="28.55" spans="1:10">
+    <row r="762" spans="1:10" ht="28.5">
       <c r="A762" s="5" t="s">
         <v>4268</v>
       </c>
@@ -48620,7 +48119,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="763" ht="28.55" spans="1:10">
+    <row r="763" spans="1:10" ht="28.5">
       <c r="A763" s="5" t="s">
         <v>4274</v>
       </c>
@@ -48652,7 +48151,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="764" ht="28.55" spans="1:10">
+    <row r="764" spans="1:10">
       <c r="A764" s="5" t="s">
         <v>4284</v>
       </c>
@@ -48748,7 +48247,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="767" ht="28.55" spans="1:10">
+    <row r="767" spans="1:10" ht="28.5">
       <c r="A767" s="5" t="s">
         <v>4304</v>
       </c>
@@ -48780,7 +48279,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="768" ht="28.55" spans="1:10">
+    <row r="768" spans="1:10" ht="28.5">
       <c r="A768" s="5" t="s">
         <v>4314</v>
       </c>
@@ -48908,7 +48407,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="772" ht="28.55" spans="1:10">
+    <row r="772" spans="1:10" ht="28.5">
       <c r="A772" s="5" t="s">
         <v>4350</v>
       </c>
@@ -48940,7 +48439,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="773" ht="28.55" spans="1:10">
+    <row r="773" spans="1:10" ht="28.5">
       <c r="A773" s="5" t="s">
         <v>4360</v>
       </c>
@@ -48972,7 +48471,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="774" ht="42.8" spans="1:10">
+    <row r="774" spans="1:10" ht="42.75">
       <c r="A774" s="5" t="s">
         <v>4369</v>
       </c>
@@ -49004,7 +48503,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="775" ht="57.1" spans="1:10">
+    <row r="775" spans="1:10" ht="42.75">
       <c r="A775" s="5" t="s">
         <v>4374</v>
       </c>
@@ -49036,7 +48535,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="776" ht="71.35" spans="1:10">
+    <row r="776" spans="1:10" ht="71.25">
       <c r="A776" s="5" t="s">
         <v>4384</v>
       </c>
@@ -49068,7 +48567,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="777" ht="28.55" spans="1:10">
+    <row r="777" spans="1:10" ht="28.5">
       <c r="A777" s="5" t="s">
         <v>4394</v>
       </c>
@@ -49100,7 +48599,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="778" ht="28.55" spans="1:10">
+    <row r="778" spans="1:10" ht="28.5">
       <c r="A778" s="5" t="s">
         <v>4404</v>
       </c>
@@ -49132,7 +48631,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="779" ht="28.55" spans="1:10">
+    <row r="779" spans="1:10" ht="28.5">
       <c r="A779" s="5" t="s">
         <v>4413</v>
       </c>
@@ -49164,7 +48663,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="780" ht="28.55" spans="1:10">
+    <row r="780" spans="1:10" ht="28.5">
       <c r="A780" s="5" t="s">
         <v>4423</v>
       </c>
@@ -49196,7 +48695,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="781" ht="85.6" spans="1:10">
+    <row r="781" spans="1:10" ht="85.5">
       <c r="A781" s="5" t="s">
         <v>4433</v>
       </c>
@@ -49228,7 +48727,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="782" ht="71.35" spans="1:10">
+    <row r="782" spans="1:10" ht="71.25">
       <c r="A782" s="5" t="s">
         <v>4443</v>
       </c>
@@ -49260,7 +48759,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="783" ht="42.8" spans="1:10">
+    <row r="783" spans="1:10" ht="42.75">
       <c r="A783" s="5" t="s">
         <v>4453</v>
       </c>
@@ -49292,7 +48791,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="784" ht="28.55" spans="1:10">
+    <row r="784" spans="1:10" ht="28.5">
       <c r="A784" s="5" t="s">
         <v>4463</v>
       </c>
@@ -49324,7 +48823,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="785" ht="57.1" spans="1:10">
+    <row r="785" spans="1:10" ht="57">
       <c r="A785" s="5" t="s">
         <v>4473</v>
       </c>
@@ -49356,7 +48855,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="786" ht="28.55" spans="1:10">
+    <row r="786" spans="1:10" ht="28.5">
       <c r="A786" s="5" t="s">
         <v>4483</v>
       </c>
@@ -49420,7 +48919,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="788" ht="42.8" spans="1:10">
+    <row r="788" spans="1:10" ht="42.75">
       <c r="A788" s="5" t="s">
         <v>4496</v>
       </c>
@@ -49452,7 +48951,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="789" ht="42.8" spans="1:10">
+    <row r="789" spans="1:10" ht="42.75">
       <c r="A789" s="5" t="s">
         <v>4506</v>
       </c>
@@ -49644,7 +49143,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="795" ht="27.25" spans="1:10">
+    <row r="795" spans="1:10">
       <c r="A795" s="5" t="s">
         <v>4557</v>
       </c>
@@ -49708,7 +49207,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="797" ht="42.8" spans="1:10">
+    <row r="797" spans="1:10" ht="42.75">
       <c r="A797" s="5" t="s">
         <v>4574</v>
       </c>
@@ -49740,7 +49239,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="798" ht="28.55" spans="1:10">
+    <row r="798" spans="1:10" ht="28.5">
       <c r="A798" s="5" t="s">
         <v>4584</v>
       </c>
@@ -49772,7 +49271,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="799" ht="28.55" spans="1:10">
+    <row r="799" spans="1:10" ht="28.5">
       <c r="A799" s="5" t="s">
         <v>4594</v>
       </c>
@@ -49804,7 +49303,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="800" ht="42.8" spans="1:10">
+    <row r="800" spans="1:10" ht="42.75">
       <c r="A800" s="5" t="s">
         <v>4604</v>
       </c>
@@ -49932,7 +49431,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="804" ht="28.55" spans="1:10">
+    <row r="804" spans="1:10" ht="28.5">
       <c r="A804" s="5" t="s">
         <v>4632</v>
       </c>
@@ -49996,7 +49495,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="806" ht="28.55" spans="1:10">
+    <row r="806" spans="1:10" ht="28.5">
       <c r="A806" s="5" t="s">
         <v>4649</v>
       </c>
@@ -50092,7 +49591,7 @@
         <v>4678</v>
       </c>
     </row>
-    <row r="809" ht="28.55" spans="1:10">
+    <row r="809" spans="1:10" ht="28.5">
       <c r="A809" s="5" t="s">
         <v>4679</v>
       </c>
@@ -50124,7 +49623,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="810" ht="28.55" spans="1:10">
+    <row r="810" spans="1:10" ht="28.5">
       <c r="A810" s="5" t="s">
         <v>4689</v>
       </c>
@@ -50156,7 +49655,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="811" ht="28.55" spans="1:10">
+    <row r="811" spans="1:10" ht="28.5">
       <c r="A811" s="5" t="s">
         <v>4699</v>
       </c>
@@ -50220,7 +49719,7 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="813" ht="42.8" spans="1:10">
+    <row r="813" spans="1:10" ht="42.75">
       <c r="A813" s="5" t="s">
         <v>4717</v>
       </c>
@@ -50252,7 +49751,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="814" ht="71.35" spans="1:10">
+    <row r="814" spans="1:10" ht="71.25">
       <c r="A814" s="5" t="s">
         <v>4727</v>
       </c>
@@ -50284,7 +49783,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="815" ht="28.55" spans="1:10">
+    <row r="815" spans="1:10" ht="28.5">
       <c r="A815" s="5" t="s">
         <v>4737</v>
       </c>
@@ -50348,7 +49847,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="817" ht="42.8" spans="1:10">
+    <row r="817" spans="1:10" ht="42.75">
       <c r="A817" s="5" t="s">
         <v>4755</v>
       </c>
@@ -50380,7 +49879,7 @@
         <v>4764</v>
       </c>
     </row>
-    <row r="818" ht="42.8" spans="1:10">
+    <row r="818" spans="1:10" ht="42.75">
       <c r="A818" s="5" t="s">
         <v>4765</v>
       </c>
@@ -50412,7 +49911,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="819" ht="28.55" spans="1:10">
+    <row r="819" spans="1:10" ht="28.5">
       <c r="A819" s="5" t="s">
         <v>4775</v>
       </c>
@@ -50444,7 +49943,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="820" ht="28.55" spans="1:10">
+    <row r="820" spans="1:10" ht="28.5">
       <c r="A820" s="5" t="s">
         <v>4785</v>
       </c>
@@ -50476,7 +49975,7 @@
         <v>4794</v>
       </c>
     </row>
-    <row r="821" ht="42.8" spans="1:10">
+    <row r="821" spans="1:10" ht="42.75">
       <c r="A821" s="5" t="s">
         <v>4795</v>
       </c>
@@ -50508,7 +50007,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="822" ht="28.55" spans="1:10">
+    <row r="822" spans="1:10" ht="28.5">
       <c r="A822" s="5" t="s">
         <v>4802</v>
       </c>
@@ -50572,7 +50071,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="824" ht="42.8" spans="1:10">
+    <row r="824" spans="1:10" ht="42.75">
       <c r="A824" s="5" t="s">
         <v>4822</v>
       </c>
@@ -50636,7 +50135,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="826" ht="42.8" spans="1:10">
+    <row r="826" spans="1:10" ht="28.5">
       <c r="A826" s="5" t="s">
         <v>4840</v>
       </c>
@@ -50668,7 +50167,7 @@
         <v>4849</v>
       </c>
     </row>
-    <row r="827" ht="28.55" spans="1:10">
+    <row r="827" spans="1:10" ht="28.5">
       <c r="A827" s="5" t="s">
         <v>4850</v>
       </c>
@@ -50700,7 +50199,7 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="828" ht="28.55" spans="1:10">
+    <row r="828" spans="1:10" ht="28.5">
       <c r="A828" s="5" t="s">
         <v>4860</v>
       </c>
@@ -50764,7 +50263,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="830" ht="28.55" spans="1:10">
+    <row r="830" spans="1:10" ht="28.5">
       <c r="A830" s="5" t="s">
         <v>4879</v>
       </c>
@@ -50828,7 +50327,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="832" ht="28.55" spans="1:10">
+    <row r="832" spans="1:10" ht="28.5">
       <c r="A832" s="5" t="s">
         <v>4897</v>
       </c>
@@ -50892,7 +50391,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="834" ht="28.55" spans="1:10">
+    <row r="834" spans="1:10" ht="28.5">
       <c r="A834" s="5" t="s">
         <v>4917</v>
       </c>
@@ -50924,7 +50423,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="835" ht="28.55" spans="1:10">
+    <row r="835" spans="1:10" ht="28.5">
       <c r="A835" s="5" t="s">
         <v>4927</v>
       </c>
@@ -50956,7 +50455,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="836" ht="42.8" spans="1:10">
+    <row r="836" spans="1:10" ht="42.75">
       <c r="A836" s="5" t="s">
         <v>4937</v>
       </c>
@@ -50988,7 +50487,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="837" ht="28.55" spans="1:10">
+    <row r="837" spans="1:10" ht="28.5">
       <c r="A837" s="5" t="s">
         <v>4947</v>
       </c>
@@ -51148,7 +50647,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="842" ht="28.55" spans="1:10">
+    <row r="842" spans="1:10" ht="28.5">
       <c r="A842" s="5" t="s">
         <v>4973</v>
       </c>
@@ -51180,7 +50679,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="843" ht="27.25" spans="1:10">
+    <row r="843" spans="1:10" ht="28.5">
       <c r="A843" s="5" t="s">
         <v>4983</v>
       </c>
@@ -51212,7 +50711,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="844" ht="85.6" spans="1:10">
+    <row r="844" spans="1:10" ht="71.25">
       <c r="A844" s="5" t="s">
         <v>4991</v>
       </c>
@@ -51276,7 +50775,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="846" ht="28.55" spans="1:10">
+    <row r="846" spans="1:10" ht="28.5">
       <c r="A846" s="5" t="s">
         <v>5011</v>
       </c>
@@ -51564,7 +51063,7 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="855" ht="28.55" spans="1:10">
+    <row r="855" spans="1:10" ht="28.5">
       <c r="A855" s="5" t="s">
         <v>5079</v>
       </c>
@@ -51596,7 +51095,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="856" ht="28.55" spans="1:10">
+    <row r="856" spans="1:10" ht="28.5">
       <c r="A856" s="5" t="s">
         <v>5089</v>
       </c>
@@ -51628,7 +51127,7 @@
         <v>5098</v>
       </c>
     </row>
-    <row r="857" ht="28.55" spans="1:10">
+    <row r="857" spans="1:10" ht="28.5">
       <c r="A857" s="5" t="s">
         <v>5099</v>
       </c>
@@ -51660,7 +51159,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="858" ht="28.55" spans="1:10">
+    <row r="858" spans="1:10">
       <c r="A858" s="5" t="s">
         <v>5109</v>
       </c>
@@ -51692,7 +51191,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="859" ht="28.55" spans="1:10">
+    <row r="859" spans="1:10" ht="28.5">
       <c r="A859" s="5" t="s">
         <v>5119</v>
       </c>
@@ -51724,7 +51223,7 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="860" ht="28.55" spans="1:10">
+    <row r="860" spans="1:10" ht="28.5">
       <c r="A860" s="5" t="s">
         <v>5129</v>
       </c>
@@ -51756,7 +51255,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="861" ht="28.55" spans="1:10">
+    <row r="861" spans="1:10" ht="28.5">
       <c r="A861" s="5" t="s">
         <v>5139</v>
       </c>
@@ -51788,7 +51287,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="862" ht="42.8" spans="1:10">
+    <row r="862" spans="1:10" ht="42.75">
       <c r="A862" s="5" t="s">
         <v>5149</v>
       </c>
@@ -51820,7 +51319,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="863" ht="42.8" spans="1:10">
+    <row r="863" spans="1:10" ht="42.75">
       <c r="A863" s="5" t="s">
         <v>5159</v>
       </c>
@@ -51980,7 +51479,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="868" ht="41.5" spans="1:10">
+    <row r="868" spans="1:10" ht="28.5">
       <c r="A868" s="5" t="s">
         <v>5192</v>
       </c>
@@ -52108,7 +51607,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="872" ht="42.8" spans="1:10">
+    <row r="872" spans="1:10" ht="42.75">
       <c r="A872" s="5" t="s">
         <v>5220</v>
       </c>
@@ -52140,7 +51639,7 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="873" ht="28.55" spans="1:10">
+    <row r="873" spans="1:10" ht="28.5">
       <c r="A873" s="5" t="s">
         <v>5230</v>
       </c>
@@ -52204,7 +51703,7 @@
         <v>5237</v>
       </c>
     </row>
-    <row r="875" ht="28.55" spans="1:10">
+    <row r="875" spans="1:10" ht="28.5">
       <c r="A875" s="5" t="s">
         <v>5238</v>
       </c>
@@ -52268,7 +51767,7 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="877" ht="28.55" spans="1:10">
+    <row r="877" spans="1:10" ht="28.5">
       <c r="A877" s="5" t="s">
         <v>5258</v>
       </c>
@@ -52332,7 +51831,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="879" ht="28.55" spans="1:10">
+    <row r="879" spans="1:10" ht="28.5">
       <c r="A879" s="5" t="s">
         <v>5278</v>
       </c>
@@ -52364,7 +51863,7 @@
         <v>5287</v>
       </c>
     </row>
-    <row r="880" ht="42.8" spans="1:10">
+    <row r="880" spans="1:10" ht="28.5">
       <c r="A880" s="5" t="s">
         <v>5288</v>
       </c>
@@ -52492,7 +51991,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="884" ht="28.55" spans="1:10">
+    <row r="884" spans="1:10" ht="28.5">
       <c r="A884" s="5" t="s">
         <v>5310</v>
       </c>
@@ -52524,7 +52023,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="885" ht="28.55" spans="1:10">
+    <row r="885" spans="1:10" ht="28.5">
       <c r="A885" s="5" t="s">
         <v>5320</v>
       </c>
@@ -52556,7 +52055,7 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="886" ht="28.55" spans="1:10">
+    <row r="886" spans="1:10" ht="28.5">
       <c r="A886" s="5" t="s">
         <v>5330</v>
       </c>
@@ -52588,7 +52087,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="887" ht="28.55" spans="1:10">
+    <row r="887" spans="1:10" ht="28.5">
       <c r="A887" s="5" t="s">
         <v>5340</v>
       </c>
@@ -52620,7 +52119,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="888" ht="28.55" spans="1:10">
+    <row r="888" spans="1:10" ht="28.5">
       <c r="A888" s="5" t="s">
         <v>5350</v>
       </c>
@@ -52716,7 +52215,7 @@
         <v>5377</v>
       </c>
     </row>
-    <row r="891" ht="256.85" spans="1:10">
+    <row r="891" spans="1:10" ht="256.5">
       <c r="A891" s="5" t="s">
         <v>5378</v>
       </c>
@@ -52748,7 +52247,7 @@
         <v>5387</v>
       </c>
     </row>
-    <row r="892" ht="28.55" spans="1:10">
+    <row r="892" spans="1:10" ht="28.5">
       <c r="A892" s="5" t="s">
         <v>5388</v>
       </c>
@@ -52812,7 +52311,7 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="894" ht="71.35" spans="1:10">
+    <row r="894" spans="1:10" ht="71.25">
       <c r="A894" s="5" t="s">
         <v>5407</v>
       </c>
@@ -52940,7 +52439,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="898" ht="28.55" spans="1:10">
+    <row r="898" spans="1:10" ht="28.5">
       <c r="A898" s="5" t="s">
         <v>5441</v>
       </c>
@@ -52972,7 +52471,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="899" ht="28.55" spans="1:10">
+    <row r="899" spans="1:10" ht="28.5">
       <c r="A899" s="5" t="s">
         <v>5450</v>
       </c>
@@ -53036,7 +52535,7 @@
         <v>5469</v>
       </c>
     </row>
-    <row r="901" ht="28.55" spans="1:10">
+    <row r="901" spans="1:10" ht="28.5">
       <c r="A901" s="5" t="s">
         <v>5470</v>
       </c>
@@ -53068,7 +52567,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="902" ht="42.8" spans="1:10">
+    <row r="902" spans="1:10" ht="42.75">
       <c r="A902" s="5" t="s">
         <v>5480</v>
       </c>
@@ -53100,7 +52599,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="903" ht="42.8" spans="1:10">
+    <row r="903" spans="1:10" ht="42.75">
       <c r="A903" s="5" t="s">
         <v>5490</v>
       </c>
@@ -53132,7 +52631,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="904" ht="28.55" spans="1:10">
+    <row r="904" spans="1:10" ht="28.5">
       <c r="A904" s="5" t="s">
         <v>5500</v>
       </c>
@@ -53164,7 +52663,7 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="905" ht="28.55" spans="1:10">
+    <row r="905" spans="1:10" ht="28.5">
       <c r="A905" s="5" t="s">
         <v>5509</v>
       </c>
@@ -53228,7 +52727,7 @@
         <v>5528</v>
       </c>
     </row>
-    <row r="907" ht="28.55" spans="1:10">
+    <row r="907" spans="1:10" ht="28.5">
       <c r="A907" s="5" t="s">
         <v>5529</v>
       </c>
@@ -53260,7 +52759,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="908" ht="28.55" spans="1:10">
+    <row r="908" spans="1:10" ht="28.5">
       <c r="A908" s="5" t="s">
         <v>5539</v>
       </c>
@@ -53292,7 +52791,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="909" ht="42.8" spans="1:10">
+    <row r="909" spans="1:10" ht="42.75">
       <c r="A909" s="5" t="s">
         <v>5549</v>
       </c>
@@ -53420,7 +52919,7 @@
         <v>5573</v>
       </c>
     </row>
-    <row r="913" ht="28.55" spans="1:10">
+    <row r="913" spans="1:10" ht="28.5">
       <c r="A913" s="5" t="s">
         <v>5574</v>
       </c>
@@ -53452,7 +52951,7 @@
         <v>5583</v>
       </c>
     </row>
-    <row r="914" ht="28.55" spans="1:10">
+    <row r="914" spans="1:10" ht="28.5">
       <c r="A914" s="5" t="s">
         <v>5584</v>
       </c>
@@ -53516,7 +53015,7 @@
         <v>5598</v>
       </c>
     </row>
-    <row r="916" ht="28.55" spans="1:10">
+    <row r="916" spans="1:10" ht="28.5">
       <c r="A916" s="5" t="s">
         <v>5599</v>
       </c>
@@ -53548,7 +53047,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="917" ht="28.55" spans="1:10">
+    <row r="917" spans="1:10" ht="28.5">
       <c r="A917" s="5" t="s">
         <v>5601</v>
       </c>
@@ -53580,7 +53079,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="918" ht="28.55" spans="1:10">
+    <row r="918" spans="1:10" ht="28.5">
       <c r="A918" s="5" t="s">
         <v>5603</v>
       </c>
@@ -53612,7 +53111,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="919" ht="28.55" spans="1:10">
+    <row r="919" spans="1:10" ht="28.5">
       <c r="A919" s="5" t="s">
         <v>5606</v>
       </c>
@@ -53644,7 +53143,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="920" ht="28.55" spans="1:10">
+    <row r="920" spans="1:10" ht="28.5">
       <c r="A920" s="5" t="s">
         <v>5610</v>
       </c>
@@ -54504,7 +54003,7 @@
       </c>
       <c r="J946" s="5"/>
     </row>
-    <row r="947" ht="28.55" spans="1:10">
+    <row r="947" spans="1:10" ht="28.5">
       <c r="A947" s="5" t="s">
         <v>5645</v>
       </c>
@@ -54600,7 +54099,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="950" ht="28.55" spans="1:10">
+    <row r="950" spans="1:10" ht="28.5">
       <c r="A950" s="5" t="s">
         <v>5649</v>
       </c>
@@ -54632,7 +54131,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="951" ht="28.55" spans="1:10">
+    <row r="951" spans="1:10" ht="28.5">
       <c r="A951" s="5" t="s">
         <v>5650</v>
       </c>
@@ -54664,7 +54163,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="952" ht="28.55" spans="1:10">
+    <row r="952" spans="1:10" ht="28.5">
       <c r="A952" s="5" t="s">
         <v>5651</v>
       </c>
@@ -55080,7 +54579,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="965" ht="28.55" spans="1:10">
+    <row r="965" spans="1:10" ht="28.5">
       <c r="A965" s="5" t="s">
         <v>5667</v>
       </c>
@@ -55624,7 +55123,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="982" ht="57.1" spans="1:10">
+    <row r="982" spans="1:10" ht="57">
       <c r="A982" s="5" t="s">
         <v>5699</v>
       </c>
@@ -55816,7 +55315,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="988" ht="28.55" spans="1:10">
+    <row r="988" spans="1:10" ht="28.5">
       <c r="A988" s="5" t="s">
         <v>5705</v>
       </c>
@@ -56008,7 +55507,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="994" ht="28.55" spans="1:10">
+    <row r="994" spans="1:10" ht="28.5">
       <c r="A994" s="5" t="s">
         <v>5713</v>
       </c>
@@ -56072,7 +55571,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="996" ht="28.55" spans="1:10">
+    <row r="996" spans="1:10" ht="28.5">
       <c r="A996" s="5" t="s">
         <v>5715</v>
       </c>
@@ -56136,7 +55635,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="998" ht="28.55" spans="1:10">
+    <row r="998" spans="1:10" ht="28.5">
       <c r="A998" s="5" t="s">
         <v>5717</v>
       </c>
@@ -56442,7 +55941,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1008" ht="28.55" spans="1:10">
+    <row r="1008" spans="1:10" ht="28.5">
       <c r="A1008" s="5" t="s">
         <v>5734</v>
       </c>
@@ -56506,7 +56005,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="1010" ht="28.55" spans="1:10">
+    <row r="1010" spans="1:10" ht="28.5">
       <c r="A1010" s="5" t="s">
         <v>5738</v>
       </c>
@@ -56538,7 +56037,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="1011" ht="28.55" spans="1:10">
+    <row r="1011" spans="1:10" ht="28.5">
       <c r="A1011" s="5" t="s">
         <v>5740</v>
       </c>
@@ -56570,7 +56069,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="1012" ht="28.55" spans="1:10">
+    <row r="1012" spans="1:10" ht="28.5">
       <c r="A1012" s="5" t="s">
         <v>5742</v>
       </c>
@@ -56602,7 +56101,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="1013" ht="28.55" spans="1:10">
+    <row r="1013" spans="1:10" ht="28.5">
       <c r="A1013" s="5" t="s">
         <v>5752</v>
       </c>
@@ -56698,7 +56197,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="1016" ht="28.55" spans="1:10">
+    <row r="1016" spans="1:10" ht="28.5">
       <c r="A1016" s="5" t="s">
         <v>5758</v>
       </c>
@@ -56730,7 +56229,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="1017" ht="28.55" spans="1:10">
+    <row r="1017" spans="1:10" ht="28.5">
       <c r="A1017" s="5" t="s">
         <v>5760</v>
       </c>
@@ -56826,7 +56325,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1020" ht="28.55" spans="1:10">
+    <row r="1020" spans="1:10" ht="28.5">
       <c r="A1020" s="5" t="s">
         <v>5768</v>
       </c>
@@ -56890,7 +56389,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="1022" ht="28.55" spans="1:10">
+    <row r="1022" spans="1:10" ht="28.5">
       <c r="A1022" s="5" t="s">
         <v>5773</v>
       </c>
@@ -56922,7 +56421,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="1023" ht="42.8" spans="1:10">
+    <row r="1023" spans="1:10" ht="42.75">
       <c r="A1023" s="5" t="s">
         <v>5775</v>
       </c>
@@ -56986,7 +56485,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="1025" ht="99.9" spans="1:10">
+    <row r="1025" spans="1:10" ht="99.75">
       <c r="A1025" s="5" t="s">
         <v>5793</v>
       </c>
@@ -57018,7 +56517,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="1026" ht="71.35" spans="1:10">
+    <row r="1026" spans="1:10" ht="57">
       <c r="A1026" s="5" t="s">
         <v>5802</v>
       </c>
@@ -57050,7 +56549,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="1027" ht="42.8" spans="1:10">
+    <row r="1027" spans="1:10" ht="42.75">
       <c r="A1027" s="5" t="s">
         <v>5811</v>
       </c>
@@ -57082,7 +56581,7 @@
         <v>5819</v>
       </c>
     </row>
-    <row r="1028" ht="28.55" spans="1:10">
+    <row r="1028" spans="1:10" ht="28.5">
       <c r="A1028" s="5" t="s">
         <v>5820</v>
       </c>
@@ -57114,7 +56613,7 @@
         <v>5828</v>
       </c>
     </row>
-    <row r="1029" ht="171.25" spans="1:10">
+    <row r="1029" spans="1:10" ht="171">
       <c r="A1029" s="5" t="s">
         <v>5829</v>
       </c>
@@ -57146,7 +56645,7 @@
         <v>5837</v>
       </c>
     </row>
-    <row r="1030" ht="99.9" spans="1:10">
+    <row r="1030" spans="1:10" ht="99.75">
       <c r="A1030" s="5" t="s">
         <v>5838</v>
       </c>
@@ -57178,7 +56677,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="1031" ht="99.9" spans="1:10">
+    <row r="1031" spans="1:10" ht="85.5">
       <c r="A1031" s="5" t="s">
         <v>5847</v>
       </c>
@@ -57210,7 +56709,7 @@
         <v>5855</v>
       </c>
     </row>
-    <row r="1032" ht="85.6" spans="1:10">
+    <row r="1032" spans="1:10" ht="71.25">
       <c r="A1032" s="5" t="s">
         <v>5856</v>
       </c>
@@ -57242,7 +56741,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="1033" ht="28.55" spans="1:10">
+    <row r="1033" spans="1:10" ht="28.5">
       <c r="A1033" s="5" t="s">
         <v>5865</v>
       </c>
@@ -57274,7 +56773,7 @@
         <v>5873</v>
       </c>
     </row>
-    <row r="1034" ht="42.8" spans="1:10">
+    <row r="1034" spans="1:10" ht="42.75">
       <c r="A1034" s="5" t="s">
         <v>5874</v>
       </c>
@@ -57338,7 +56837,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="1036" ht="28.55" spans="1:10">
+    <row r="1036" spans="1:10" ht="28.5">
       <c r="A1036" s="5" t="s">
         <v>5885</v>
       </c>
@@ -57466,7 +56965,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="1040" ht="28.55" spans="1:10">
+    <row r="1040" spans="1:10" ht="28.5">
       <c r="A1040" s="5" t="s">
         <v>5893</v>
       </c>
@@ -57786,7 +57285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1050" ht="28.55" spans="1:10">
+    <row r="1050" spans="1:10" ht="28.5">
       <c r="A1050" s="5" t="s">
         <v>5914</v>
       </c>
@@ -57818,7 +57317,7 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="1051" ht="28.55" spans="1:10">
+    <row r="1051" spans="1:10" ht="28.5">
       <c r="A1051" s="5" t="s">
         <v>5916</v>
       </c>
@@ -57850,7 +57349,7 @@
         <v>5917</v>
       </c>
     </row>
-    <row r="1052" ht="28.55" spans="1:10">
+    <row r="1052" spans="1:10" ht="28.5">
       <c r="A1052" s="5" t="s">
         <v>5918</v>
       </c>
@@ -58394,7 +57893,7 @@
         <v>5951</v>
       </c>
     </row>
-    <row r="1069" ht="28.55" spans="1:10">
+    <row r="1069" spans="1:10" ht="28.5">
       <c r="A1069" s="5" t="s">
         <v>5953</v>
       </c>
@@ -58426,7 +57925,7 @@
         <v>5954</v>
       </c>
     </row>
-    <row r="1070" ht="28.55" spans="1:10">
+    <row r="1070" spans="1:10" ht="28.5">
       <c r="A1070" s="5" t="s">
         <v>5956</v>
       </c>
@@ -58586,7 +58085,7 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="1075" ht="42.8" spans="1:10">
+    <row r="1075" spans="1:10" ht="42.75">
       <c r="A1075" s="5" t="s">
         <v>5968</v>
       </c>
@@ -58746,7 +58245,7 @@
         <v>5978</v>
       </c>
     </row>
-    <row r="1080" ht="28.55" spans="1:10">
+    <row r="1080" spans="1:10" ht="28.5">
       <c r="A1080" s="5" t="s">
         <v>5979</v>
       </c>
@@ -58778,7 +58277,7 @@
         <v>5980</v>
       </c>
     </row>
-    <row r="1081" ht="42.8" spans="1:10">
+    <row r="1081" spans="1:10" ht="28.5">
       <c r="A1081" s="5" t="s">
         <v>5982</v>
       </c>
@@ -58906,7 +58405,7 @@
         <v>5991</v>
       </c>
     </row>
-    <row r="1085" ht="28.55" spans="1:10">
+    <row r="1085" spans="1:10" ht="28.5">
       <c r="A1085" s="5" t="s">
         <v>5993</v>
       </c>
@@ -59256,7 +58755,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="1096" ht="42.8" spans="1:10">
+    <row r="1096" spans="1:10" ht="42.75">
       <c r="A1096" s="5" t="s">
         <v>6013</v>
       </c>
@@ -59288,7 +58787,7 @@
         <v>6014</v>
       </c>
     </row>
-    <row r="1097" ht="114.15" spans="1:10">
+    <row r="1097" spans="1:10" ht="114">
       <c r="A1097" s="5" t="s">
         <v>6015</v>
       </c>
@@ -59320,7 +58819,7 @@
         <v>6016</v>
       </c>
     </row>
-    <row r="1098" ht="71.35" spans="1:10">
+    <row r="1098" spans="1:10" ht="71.25">
       <c r="A1098" s="5" t="s">
         <v>6017</v>
       </c>
@@ -59384,7 +58883,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="1100" ht="28.55" spans="1:10">
+    <row r="1100" spans="1:10" ht="28.5">
       <c r="A1100" s="5" t="s">
         <v>6022</v>
       </c>
@@ -59416,7 +58915,7 @@
         <v>6023</v>
       </c>
     </row>
-    <row r="1101" ht="71.35" spans="1:10">
+    <row r="1101" spans="1:10" ht="71.25">
       <c r="A1101" s="5" t="s">
         <v>6025</v>
       </c>
@@ -59448,7 +58947,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="1102" ht="28.55" spans="1:10">
+    <row r="1102" spans="1:10" ht="28.5">
       <c r="A1102" s="5" t="s">
         <v>6027</v>
       </c>
@@ -59480,7 +58979,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="1103" ht="42.8" spans="1:10">
+    <row r="1103" spans="1:10" ht="42.75">
       <c r="A1103" s="5" t="s">
         <v>6029</v>
       </c>
@@ -59512,7 +59011,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="1104" ht="42.8" spans="1:10">
+    <row r="1104" spans="1:10" ht="42.75">
       <c r="A1104" s="5" t="s">
         <v>6031</v>
       </c>
@@ -59576,7 +59075,7 @@
         <v>6034</v>
       </c>
     </row>
-    <row r="1106" ht="28.55" spans="1:10">
+    <row r="1106" spans="1:10" ht="28.5">
       <c r="A1106" s="5" t="s">
         <v>6035</v>
       </c>
@@ -59608,7 +59107,7 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="1107" ht="28.55" spans="1:10">
+    <row r="1107" spans="1:10" ht="28.5">
       <c r="A1107" s="5" t="s">
         <v>6038</v>
       </c>
@@ -59640,7 +59139,7 @@
         <v>6039</v>
       </c>
     </row>
-    <row r="1108" ht="28.55" spans="1:10">
+    <row r="1108" spans="1:10" ht="28.5">
       <c r="A1108" s="5" t="s">
         <v>6041</v>
       </c>
@@ -59736,7 +59235,7 @@
         <v>6047</v>
       </c>
     </row>
-    <row r="1111" ht="42.8" spans="1:10">
+    <row r="1111" spans="1:10" ht="42.75">
       <c r="A1111" s="5" t="s">
         <v>6048</v>
       </c>
@@ -59800,7 +59299,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="1113" ht="28.55" spans="1:10">
+    <row r="1113" spans="1:10" ht="28.5">
       <c r="A1113" s="5" t="s">
         <v>6068</v>
       </c>
@@ -59832,7 +59331,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="1114" ht="28.55" spans="1:10">
+    <row r="1114" spans="1:10" ht="28.5">
       <c r="A1114" s="5" t="s">
         <v>6078</v>
       </c>
@@ -59928,7 +59427,7 @@
         <v>6103</v>
       </c>
     </row>
-    <row r="1117" ht="28.55" spans="1:10">
+    <row r="1117" spans="1:10" ht="28.5">
       <c r="A1117" s="5" t="s">
         <v>6104</v>
       </c>
@@ -59960,7 +59459,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="1118" ht="42.8" spans="1:10">
+    <row r="1118" spans="1:10" ht="28.5">
       <c r="A1118" s="5" t="s">
         <v>6107</v>
       </c>
@@ -59992,7 +59491,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="1119" ht="28.55" spans="1:10">
+    <row r="1119" spans="1:10" ht="28.5">
       <c r="A1119" s="5" t="s">
         <v>6115</v>
       </c>
@@ -60056,7 +59555,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="1121" ht="42.8" spans="1:10">
+    <row r="1121" spans="1:10" ht="42.75">
       <c r="A1121" s="5" t="s">
         <v>6135</v>
       </c>
@@ -60120,7 +59619,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="1123" ht="28.55" spans="1:10">
+    <row r="1123" spans="1:10" ht="28.5">
       <c r="A1123" s="5" t="s">
         <v>6147</v>
       </c>
@@ -60152,7 +59651,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="1124" ht="28.55" spans="1:10">
+    <row r="1124" spans="1:10" ht="28.5">
       <c r="A1124" s="5" t="s">
         <v>6148</v>
       </c>
@@ -60248,7 +59747,7 @@
         <v>6103</v>
       </c>
     </row>
-    <row r="1127" ht="28.55" spans="1:10">
+    <row r="1127" spans="1:10" ht="28.5">
       <c r="A1127" s="5" t="s">
         <v>6151</v>
       </c>
@@ -60280,7 +59779,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="1128" ht="42.8" spans="1:10">
+    <row r="1128" spans="1:10" ht="28.5">
       <c r="A1128" s="5" t="s">
         <v>6152</v>
       </c>
@@ -60312,7 +59811,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="1129" ht="28.55" spans="1:10">
+    <row r="1129" spans="1:10" ht="28.5">
       <c r="A1129" s="5" t="s">
         <v>6153</v>
       </c>
@@ -60376,7 +59875,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="1131" ht="42.8" spans="1:10">
+    <row r="1131" spans="1:10" ht="42.75">
       <c r="A1131" s="5" t="s">
         <v>6157</v>
       </c>
@@ -60440,7 +59939,7 @@
         <v>6164</v>
       </c>
     </row>
-    <row r="1133" ht="28.55" spans="1:10">
+    <row r="1133" spans="1:10" ht="28.5">
       <c r="A1133" s="5" t="s">
         <v>6165</v>
       </c>
@@ -60504,7 +60003,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="1135" ht="28.55" spans="1:10">
+    <row r="1135" spans="1:10" ht="28.5">
       <c r="A1135" s="5" t="s">
         <v>6172</v>
       </c>
@@ -60536,7 +60035,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="1136" ht="41.5" spans="1:10">
+    <row r="1136" spans="1:10" ht="28.5">
       <c r="A1136" s="5" t="s">
         <v>6182</v>
       </c>
@@ -60568,7 +60067,7 @@
         <v>6191</v>
       </c>
     </row>
-    <row r="1137" ht="28.55" spans="1:10">
+    <row r="1137" spans="1:10" ht="28.5">
       <c r="A1137" s="5" t="s">
         <v>6192</v>
       </c>
@@ -60600,7 +60099,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="1138" ht="28.55" spans="1:10">
+    <row r="1138" spans="1:10" ht="28.5">
       <c r="A1138" s="5" t="s">
         <v>6202</v>
       </c>
@@ -60632,7 +60131,7 @@
         <v>6211</v>
       </c>
     </row>
-    <row r="1139" ht="42.8" spans="1:10">
+    <row r="1139" spans="1:10" ht="42.75">
       <c r="A1139" s="5" t="s">
         <v>6212</v>
       </c>
@@ -60664,7 +60163,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row r="1140" ht="42.8" spans="1:10">
+    <row r="1140" spans="1:10" ht="42.75">
       <c r="A1140" s="5" t="s">
         <v>6222</v>
       </c>
@@ -60696,7 +60195,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="1141" ht="28.55" spans="1:10">
+    <row r="1141" spans="1:10" ht="28.5">
       <c r="A1141" s="5" t="s">
         <v>6232</v>
       </c>
@@ -60728,7 +60227,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="1142" ht="85.6" spans="1:10">
+    <row r="1142" spans="1:10" ht="71.25">
       <c r="A1142" s="5" t="s">
         <v>6242</v>
       </c>
@@ -60760,7 +60259,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="1143" ht="42.8" spans="1:10">
+    <row r="1143" spans="1:10" ht="42.75">
       <c r="A1143" s="5" t="s">
         <v>6252</v>
       </c>
@@ -60792,7 +60291,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="1144" ht="114.15" spans="1:10">
+    <row r="1144" spans="1:10" ht="99.75">
       <c r="A1144" s="5" t="s">
         <v>6262</v>
       </c>
@@ -60824,7 +60323,7 @@
         <v>6271</v>
       </c>
     </row>
-    <row r="1145" ht="28.55" spans="1:10">
+    <row r="1145" spans="1:10" ht="28.5">
       <c r="A1145" s="5" t="s">
         <v>6272</v>
       </c>
@@ -60888,7 +60387,7 @@
         <v>6291</v>
       </c>
     </row>
-    <row r="1147" ht="99.9" spans="1:10">
+    <row r="1147" spans="1:10" ht="99.75">
       <c r="A1147" s="5" t="s">
         <v>6292</v>
       </c>
@@ -60920,7 +60419,7 @@
         <v>6301</v>
       </c>
     </row>
-    <row r="1148" ht="28.55" spans="1:10">
+    <row r="1148" spans="1:10" ht="28.5">
       <c r="A1148" s="5" t="s">
         <v>6302</v>
       </c>
@@ -60952,7 +60451,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="1149" ht="28.55" spans="1:10">
+    <row r="1149" spans="1:10" ht="28.5">
       <c r="A1149" s="5" t="s">
         <v>6312</v>
       </c>
@@ -60984,7 +60483,7 @@
         <v>6321</v>
       </c>
     </row>
-    <row r="1150" ht="42.8" spans="1:10">
+    <row r="1150" spans="1:10" ht="28.5">
       <c r="A1150" s="5" t="s">
         <v>6322</v>
       </c>
@@ -61016,7 +60515,7 @@
         <v>6331</v>
       </c>
     </row>
-    <row r="1151" ht="42.8" spans="1:10">
+    <row r="1151" spans="1:10" ht="42.75">
       <c r="A1151" s="5" t="s">
         <v>6332</v>
       </c>
@@ -61048,7 +60547,7 @@
         <v>6341</v>
       </c>
     </row>
-    <row r="1152" ht="28.55" spans="1:10">
+    <row r="1152" spans="1:10" ht="28.5">
       <c r="A1152" s="5" t="s">
         <v>6342</v>
       </c>
@@ -61080,7 +60579,7 @@
         <v>6351</v>
       </c>
     </row>
-    <row r="1153" ht="28.55" spans="1:10">
+    <row r="1153" spans="1:10" ht="28.5">
       <c r="A1153" s="5" t="s">
         <v>6352</v>
       </c>
@@ -61112,7 +60611,7 @@
         <v>6361</v>
       </c>
     </row>
-    <row r="1154" ht="28.55" spans="1:10">
+    <row r="1154" spans="1:10" ht="28.5">
       <c r="A1154" s="5" t="s">
         <v>6362</v>
       </c>
@@ -61144,7 +60643,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="1155" ht="28.55" spans="1:10">
+    <row r="1155" spans="1:10" ht="28.5">
       <c r="A1155" s="5" t="s">
         <v>6372</v>
       </c>
@@ -61240,7 +60739,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="1158" ht="57.1" spans="1:10">
+    <row r="1158" spans="1:10" ht="57">
       <c r="A1158" s="5" t="s">
         <v>6398</v>
       </c>
@@ -61304,7 +60803,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="1160" ht="42.8" spans="1:10">
+    <row r="1160" spans="1:10" ht="42.75">
       <c r="A1160" s="5" t="s">
         <v>6417</v>
       </c>
@@ -61336,7 +60835,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="1161" ht="271.15" spans="1:10">
+    <row r="1161" spans="1:10" ht="256.5">
       <c r="A1161" s="5" t="s">
         <v>6427</v>
       </c>
@@ -61368,7 +60867,7 @@
         <v>6436</v>
       </c>
     </row>
-    <row r="1162" ht="42.8" spans="1:10">
+    <row r="1162" spans="1:10" ht="42.75">
       <c r="A1162" s="5" t="s">
         <v>6437</v>
       </c>
@@ -61400,7 +60899,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="1163" ht="57.1" spans="1:10">
+    <row r="1163" spans="1:10" ht="57">
       <c r="A1163" s="5" t="s">
         <v>6447</v>
       </c>
@@ -61432,7 +60931,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="1164" ht="42.8" spans="1:10">
+    <row r="1164" spans="1:10" ht="42.75">
       <c r="A1164" s="5" t="s">
         <v>6457</v>
       </c>
@@ -61464,7 +60963,7 @@
         <v>6466</v>
       </c>
     </row>
-    <row r="1165" ht="57.1" spans="1:10">
+    <row r="1165" spans="1:10" ht="57">
       <c r="A1165" s="5" t="s">
         <v>6467</v>
       </c>
@@ -61496,7 +60995,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="1166" ht="28.55" spans="1:10">
+    <row r="1166" spans="1:10" ht="28.5">
       <c r="A1166" s="5" t="s">
         <v>6477</v>
       </c>
@@ -61528,7 +61027,7 @@
         <v>6486</v>
       </c>
     </row>
-    <row r="1167" ht="28.55" spans="1:10">
+    <row r="1167" spans="1:10" ht="28.5">
       <c r="A1167" s="5" t="s">
         <v>6487</v>
       </c>
@@ -61560,7 +61059,7 @@
         <v>6496</v>
       </c>
     </row>
-    <row r="1168" ht="28.55" spans="1:10">
+    <row r="1168" spans="1:10" ht="28.5">
       <c r="A1168" s="5" t="s">
         <v>6497</v>
       </c>
@@ -61592,7 +61091,7 @@
         <v>6506</v>
       </c>
     </row>
-    <row r="1169" ht="28.55" spans="1:10">
+    <row r="1169" spans="1:10" ht="28.5">
       <c r="A1169" s="5" t="s">
         <v>6507</v>
       </c>
@@ -61688,7 +61187,7 @@
         <v>6530</v>
       </c>
     </row>
-    <row r="1172" ht="28.55" spans="1:10">
+    <row r="1172" spans="1:10" ht="28.5">
       <c r="A1172" s="5" t="s">
         <v>6531</v>
       </c>
@@ -61720,7 +61219,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="1173" ht="27.25" spans="1:10">
+    <row r="1173" spans="1:10" ht="28.5">
       <c r="A1173" s="5" t="s">
         <v>6541</v>
       </c>
@@ -61752,7 +61251,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="1174" ht="27.25" spans="1:10">
+    <row r="1174" spans="1:10">
       <c r="A1174" s="5" t="s">
         <v>6550</v>
       </c>
@@ -61784,7 +61283,7 @@
         <v>6559</v>
       </c>
     </row>
-    <row r="1175" ht="27.25" spans="1:10">
+    <row r="1175" spans="1:10">
       <c r="A1175" s="5" t="s">
         <v>6560</v>
       </c>
@@ -61816,7 +61315,7 @@
         <v>6569</v>
       </c>
     </row>
-    <row r="1176" ht="28.55" spans="1:10">
+    <row r="1176" spans="1:10" ht="28.5">
       <c r="A1176" s="5" t="s">
         <v>6570</v>
       </c>
@@ -61880,7 +61379,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="1178" ht="57.1" spans="1:10">
+    <row r="1178" spans="1:10" ht="57">
       <c r="A1178" s="5" t="s">
         <v>6590</v>
       </c>
@@ -61912,7 +61411,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row r="1179" ht="142.7" spans="1:10">
+    <row r="1179" spans="1:10" ht="128.25">
       <c r="A1179" s="5" t="s">
         <v>6600</v>
       </c>
@@ -61944,7 +61443,7 @@
         <v>6609</v>
       </c>
     </row>
-    <row r="1180" ht="57.1" spans="1:10">
+    <row r="1180" spans="1:10" ht="57">
       <c r="A1180" s="5" t="s">
         <v>6610</v>
       </c>
@@ -61976,7 +61475,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="1181" ht="57.1" spans="1:10">
+    <row r="1181" spans="1:10" ht="57">
       <c r="A1181" s="5" t="s">
         <v>6620</v>
       </c>
@@ -62008,7 +61507,7 @@
         <v>6626</v>
       </c>
     </row>
-    <row r="1182" ht="57.1" spans="1:10">
+    <row r="1182" spans="1:10" ht="57">
       <c r="A1182" s="5" t="s">
         <v>6627</v>
       </c>
@@ -62040,7 +61539,7 @@
         <v>6636</v>
       </c>
     </row>
-    <row r="1183" ht="57.1" spans="1:10">
+    <row r="1183" spans="1:10" ht="57">
       <c r="A1183" s="5" t="s">
         <v>6637</v>
       </c>
@@ -62072,7 +61571,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="1184" s="3" customFormat="1" ht="98.6" spans="1:10">
+    <row r="1184" spans="1:10" s="3" customFormat="1" ht="89.25">
       <c r="A1184" s="6" t="s">
         <v>6647</v>
       </c>
@@ -62104,7 +61603,7 @@
         <v>6656</v>
       </c>
     </row>
-    <row r="1185" ht="28.55" spans="1:10">
+    <row r="1185" spans="1:10" ht="28.5">
       <c r="A1185" s="5" t="s">
         <v>6657</v>
       </c>
@@ -62136,7 +61635,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="1186" ht="28.55" spans="1:10">
+    <row r="1186" spans="1:10" ht="28.5">
       <c r="A1186" s="5" t="s">
         <v>6667</v>
       </c>
@@ -62168,7 +61667,7 @@
         <v>6676</v>
       </c>
     </row>
-    <row r="1187" ht="28.55" spans="1:10">
+    <row r="1187" spans="1:10" ht="28.5">
       <c r="A1187" s="5" t="s">
         <v>6677</v>
       </c>
@@ -62200,7 +61699,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="1188" ht="156.95" spans="1:10">
+    <row r="1188" spans="1:10" ht="156.75">
       <c r="A1188" s="5" t="s">
         <v>6685</v>
       </c>
@@ -62232,7 +61731,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="1189" ht="114.15" spans="1:10">
+    <row r="1189" spans="1:10" ht="114">
       <c r="A1189" s="5" t="s">
         <v>6695</v>
       </c>
@@ -62264,7 +61763,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="1190" ht="156.95" spans="1:10">
+    <row r="1190" spans="1:10" ht="142.5">
       <c r="A1190" s="5" t="s">
         <v>6705</v>
       </c>
@@ -62296,7 +61795,7 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="1191" ht="142.7" spans="1:10">
+    <row r="1191" spans="1:10" ht="142.5">
       <c r="A1191" s="5" t="s">
         <v>6715</v>
       </c>
@@ -62328,7 +61827,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="1192" ht="42.8" spans="1:10">
+    <row r="1192" spans="1:10" ht="42.75">
       <c r="A1192" s="5" t="s">
         <v>6725</v>
       </c>
@@ -62360,7 +61859,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="1193" ht="57.1" spans="1:10">
+    <row r="1193" spans="1:10" ht="57">
       <c r="A1193" s="5" t="s">
         <v>6735</v>
       </c>
@@ -62392,7 +61891,7 @@
         <v>6744</v>
       </c>
     </row>
-    <row r="1194" ht="71.35" spans="1:10">
+    <row r="1194" spans="1:10" ht="71.25">
       <c r="A1194" s="5" t="s">
         <v>6745</v>
       </c>
@@ -62424,7 +61923,7 @@
         <v>6754</v>
       </c>
     </row>
-    <row r="1195" ht="28.55" spans="1:10">
+    <row r="1195" spans="1:10" ht="28.5">
       <c r="A1195" s="5" t="s">
         <v>6755</v>
       </c>
@@ -62456,7 +61955,7 @@
         <v>6764</v>
       </c>
     </row>
-    <row r="1196" ht="99.9" spans="1:10">
+    <row r="1196" spans="1:10" ht="99.75">
       <c r="A1196" s="5" t="s">
         <v>6765</v>
       </c>
@@ -62520,7 +62019,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="1198" ht="42.8" spans="1:10">
+    <row r="1198" spans="1:10" ht="42.75">
       <c r="A1198" s="5" t="s">
         <v>6780</v>
       </c>
@@ -62552,7 +62051,7 @@
         <v>6789</v>
       </c>
     </row>
-    <row r="1199" ht="28.55" spans="1:10">
+    <row r="1199" spans="1:10" ht="28.5">
       <c r="A1199" s="5" t="s">
         <v>6790</v>
       </c>
@@ -62584,7 +62083,7 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="1200" ht="42.8" spans="1:10">
+    <row r="1200" spans="1:10" ht="42.75">
       <c r="A1200" s="5" t="s">
         <v>6800</v>
       </c>
@@ -62616,7 +62115,7 @@
         <v>6808</v>
       </c>
     </row>
-    <row r="1201" ht="156.95" spans="1:10">
+    <row r="1201" spans="1:10" ht="156.75">
       <c r="A1201" s="5" t="s">
         <v>6809</v>
       </c>
@@ -62648,7 +62147,7 @@
         <v>6818</v>
       </c>
     </row>
-    <row r="1202" ht="242.6" spans="1:10">
+    <row r="1202" spans="1:10" ht="242.25">
       <c r="A1202" s="5" t="s">
         <v>6819</v>
       </c>
@@ -62808,7 +62307,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="1207" ht="28.55" spans="1:10">
+    <row r="1207" spans="1:10">
       <c r="A1207" s="5" t="s">
         <v>6865</v>
       </c>
@@ -62840,7 +62339,7 @@
         <v>6874</v>
       </c>
     </row>
-    <row r="1208" ht="28.55" spans="1:10">
+    <row r="1208" spans="1:10" ht="28.5">
       <c r="A1208" s="5" t="s">
         <v>6875</v>
       </c>
@@ -62872,7 +62371,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="1209" ht="28.55" spans="1:10">
+    <row r="1209" spans="1:10" ht="28.5">
       <c r="A1209" s="5" t="s">
         <v>6879</v>
       </c>
@@ -62904,7 +62403,7 @@
         <v>6888</v>
       </c>
     </row>
-    <row r="1210" ht="27.25" spans="1:10">
+    <row r="1210" spans="1:10">
       <c r="A1210" s="5" t="s">
         <v>6889</v>
       </c>
@@ -62936,7 +62435,7 @@
         <v>6898</v>
       </c>
     </row>
-    <row r="1211" ht="42.8" spans="1:10">
+    <row r="1211" spans="1:10" ht="42.75">
       <c r="A1211" s="5" t="s">
         <v>6899</v>
       </c>
@@ -62968,7 +62467,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="1212" ht="28.55" spans="1:10">
+    <row r="1212" spans="1:10">
       <c r="A1212" s="5" t="s">
         <v>6909</v>
       </c>
@@ -63032,7 +62531,7 @@
         <v>6924</v>
       </c>
     </row>
-    <row r="1214" ht="28.55" spans="1:10">
+    <row r="1214" spans="1:10" ht="28.5">
       <c r="A1214" s="5" t="s">
         <v>6925</v>
       </c>
@@ -63064,7 +62563,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="1215" ht="28.55" spans="1:10">
+    <row r="1215" spans="1:10" ht="28.5">
       <c r="A1215" s="5" t="s">
         <v>6934</v>
       </c>
@@ -63096,7 +62595,7 @@
         <v>6943</v>
       </c>
     </row>
-    <row r="1216" ht="185.5" spans="1:10">
+    <row r="1216" spans="1:10" ht="185.25">
       <c r="A1216" s="5" t="s">
         <v>6944</v>
       </c>
@@ -63128,7 +62627,7 @@
         <v>6953</v>
       </c>
     </row>
-    <row r="1217" ht="256.85" spans="1:10">
+    <row r="1217" spans="1:10" ht="242.25">
       <c r="A1217" s="5" t="s">
         <v>6954</v>
       </c>
@@ -63160,7 +62659,7 @@
         <v>6963</v>
       </c>
     </row>
-    <row r="1218" ht="28.55" spans="1:10">
+    <row r="1218" spans="1:10" ht="28.5">
       <c r="A1218" s="5" t="s">
         <v>6964</v>
       </c>
@@ -63192,7 +62691,7 @@
         <v>6972</v>
       </c>
     </row>
-    <row r="1219" ht="42.8" spans="1:10">
+    <row r="1219" spans="1:10" ht="42.75">
       <c r="A1219" s="5" t="s">
         <v>6973</v>
       </c>
@@ -63224,7 +62723,7 @@
         <v>6982</v>
       </c>
     </row>
-    <row r="1220" ht="42.8" spans="1:10">
+    <row r="1220" spans="1:10" ht="42.75">
       <c r="A1220" s="5" t="s">
         <v>6983</v>
       </c>
@@ -63256,7 +62755,7 @@
         <v>6992</v>
       </c>
     </row>
-    <row r="1221" ht="42.8" spans="1:10">
+    <row r="1221" spans="1:10" ht="42.75">
       <c r="A1221" s="5" t="s">
         <v>6993</v>
       </c>
@@ -63288,7 +62787,7 @@
         <v>7002</v>
       </c>
     </row>
-    <row r="1222" ht="42.8" spans="1:10">
+    <row r="1222" spans="1:10" ht="42.75">
       <c r="A1222" s="5" t="s">
         <v>7003</v>
       </c>
@@ -63320,7 +62819,7 @@
         <v>7012</v>
       </c>
     </row>
-    <row r="1223" ht="42.8" spans="1:10">
+    <row r="1223" spans="1:10" ht="42.75">
       <c r="A1223" s="5" t="s">
         <v>7013</v>
       </c>
@@ -63352,7 +62851,7 @@
         <v>7022</v>
       </c>
     </row>
-    <row r="1224" ht="42.8" spans="1:10">
+    <row r="1224" spans="1:10" ht="42.75">
       <c r="A1224" s="5" t="s">
         <v>7023</v>
       </c>
@@ -63384,7 +62883,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="1225" ht="42.8" spans="1:10">
+    <row r="1225" spans="1:10" ht="42.75">
       <c r="A1225" s="5" t="s">
         <v>7028</v>
       </c>
@@ -63416,7 +62915,7 @@
         <v>7037</v>
       </c>
     </row>
-    <row r="1226" ht="41.5" spans="1:10">
+    <row r="1226" spans="1:10" ht="28.5">
       <c r="A1226" s="5" t="s">
         <v>7038</v>
       </c>
@@ -63480,7 +62979,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="1228" ht="409.5" spans="1:10">
+    <row r="1228" spans="1:10" ht="399">
       <c r="A1228" s="5" t="s">
         <v>7050</v>
       </c>
@@ -63512,7 +63011,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="1229" ht="28.55" spans="1:10">
+    <row r="1229" spans="1:10" ht="28.5">
       <c r="A1229" s="5" t="s">
         <v>7060</v>
       </c>
@@ -63544,7 +63043,7 @@
         <v>7069</v>
       </c>
     </row>
-    <row r="1230" ht="57.1" spans="1:10">
+    <row r="1230" spans="1:10" ht="57">
       <c r="A1230" s="5" t="s">
         <v>7070</v>
       </c>
@@ -63736,7 +63235,7 @@
         <v>7121</v>
       </c>
     </row>
-    <row r="1236" ht="57.1" spans="1:10">
+    <row r="1236" spans="1:10" ht="42.75">
       <c r="A1236" s="5" t="s">
         <v>7122</v>
       </c>
@@ -63768,7 +63267,7 @@
         <v>7131</v>
       </c>
     </row>
-    <row r="1237" ht="57.1" spans="1:10">
+    <row r="1237" spans="1:10" ht="57">
       <c r="A1237" s="5" t="s">
         <v>7132</v>
       </c>
@@ -63800,7 +63299,7 @@
         <v>7141</v>
       </c>
     </row>
-    <row r="1238" ht="57.1" spans="1:10">
+    <row r="1238" spans="1:10" ht="57">
       <c r="A1238" s="5" t="s">
         <v>7142</v>
       </c>
@@ -63832,7 +63331,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="1239" ht="85.6" spans="1:10">
+    <row r="1239" spans="1:10" ht="71.25">
       <c r="A1239" s="5" t="s">
         <v>7152</v>
       </c>
@@ -63864,7 +63363,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="1240" ht="128.45" spans="1:10">
+    <row r="1240" spans="1:10" ht="128.25">
       <c r="A1240" s="5" t="s">
         <v>7162</v>
       </c>
@@ -63896,7 +63395,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="1241" ht="142.7" spans="1:10">
+    <row r="1241" spans="1:10" ht="142.5">
       <c r="A1241" s="5" t="s">
         <v>7172</v>
       </c>
@@ -63928,7 +63427,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="1242" ht="142.7" spans="1:10">
+    <row r="1242" spans="1:10" ht="142.5">
       <c r="A1242" s="5" t="s">
         <v>7182</v>
       </c>
@@ -63960,7 +63459,7 @@
         <v>7191</v>
       </c>
     </row>
-    <row r="1243" ht="57.1" spans="1:10">
+    <row r="1243" spans="1:10" ht="57">
       <c r="A1243" s="5" t="s">
         <v>7192</v>
       </c>
@@ -63992,7 +63491,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="1244" ht="42.8" spans="1:10">
+    <row r="1244" spans="1:10" ht="42.75">
       <c r="A1244" s="5" t="s">
         <v>7202</v>
       </c>
@@ -64024,7 +63523,7 @@
         <v>7211</v>
       </c>
     </row>
-    <row r="1245" ht="85.6" spans="1:10">
+    <row r="1245" spans="1:10" ht="85.5">
       <c r="A1245" s="5" t="s">
         <v>7212</v>
       </c>
@@ -64056,7 +63555,7 @@
         <v>7221</v>
       </c>
     </row>
-    <row r="1246" ht="28.55" spans="1:10">
+    <row r="1246" spans="1:10" ht="28.5">
       <c r="A1246" s="5" t="s">
         <v>7222</v>
       </c>
@@ -64088,7 +63587,7 @@
         <v>7231</v>
       </c>
     </row>
-    <row r="1247" ht="42.8" spans="1:10">
+    <row r="1247" spans="1:10" ht="42.75">
       <c r="A1247" s="5" t="s">
         <v>7232</v>
       </c>
@@ -64120,7 +63619,7 @@
         <v>7241</v>
       </c>
     </row>
-    <row r="1248" ht="28.55" spans="1:10">
+    <row r="1248" spans="1:10" ht="28.5">
       <c r="A1248" s="5" t="s">
         <v>7242</v>
       </c>
@@ -64152,7 +63651,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="1249" ht="28.55" spans="1:10">
+    <row r="1249" spans="1:10" ht="28.5">
       <c r="A1249" s="5" t="s">
         <v>7252</v>
       </c>
@@ -64184,7 +63683,7 @@
         <v>7261</v>
       </c>
     </row>
-    <row r="1250" ht="85.6" spans="1:10">
+    <row r="1250" spans="1:10" ht="85.5">
       <c r="A1250" s="5" t="s">
         <v>7262</v>
       </c>
@@ -64216,7 +63715,7 @@
         <v>7271</v>
       </c>
     </row>
-    <row r="1251" ht="71.35" spans="1:10">
+    <row r="1251" spans="1:10" ht="71.25">
       <c r="A1251" s="5" t="s">
         <v>7272</v>
       </c>
@@ -64248,7 +63747,7 @@
         <v>7281</v>
       </c>
     </row>
-    <row r="1252" ht="185.5" spans="1:10">
+    <row r="1252" spans="1:10" ht="185.25">
       <c r="A1252" s="5" t="s">
         <v>7282</v>
       </c>
@@ -64280,7 +63779,7 @@
         <v>7291</v>
       </c>
     </row>
-    <row r="1253" ht="85.6" spans="1:10">
+    <row r="1253" spans="1:10" ht="57">
       <c r="A1253" s="5" t="s">
         <v>7292</v>
       </c>
@@ -64312,7 +63811,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="1254" ht="71.35" spans="1:10">
+    <row r="1254" spans="1:10" ht="57">
       <c r="A1254" s="5" t="s">
         <v>7302</v>
       </c>
@@ -64344,7 +63843,7 @@
         <v>7311</v>
       </c>
     </row>
-    <row r="1255" ht="28.55" spans="1:10">
+    <row r="1255" spans="1:10" ht="28.5">
       <c r="A1255" s="5" t="s">
         <v>7312</v>
       </c>
@@ -64376,7 +63875,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="1256" ht="42.8" spans="1:10">
+    <row r="1256" spans="1:10" ht="42.75">
       <c r="A1256" s="5" t="s">
         <v>7321</v>
       </c>
@@ -64408,7 +63907,7 @@
         <v>7330</v>
       </c>
     </row>
-    <row r="1257" ht="57.1" spans="1:10">
+    <row r="1257" spans="1:10" ht="57">
       <c r="A1257" s="5" t="s">
         <v>7331</v>
       </c>
@@ -64440,7 +63939,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="1258" ht="28.55" spans="1:10">
+    <row r="1258" spans="1:10" ht="28.5">
       <c r="A1258" s="5" t="s">
         <v>7341</v>
       </c>
@@ -64504,7 +64003,7 @@
         <v>7360</v>
       </c>
     </row>
-    <row r="1260" ht="171.25" spans="1:10">
+    <row r="1260" spans="1:10" ht="156.75">
       <c r="A1260" s="5" t="s">
         <v>7361</v>
       </c>
@@ -64536,7 +64035,7 @@
         <v>7370</v>
       </c>
     </row>
-    <row r="1261" ht="57.1" spans="1:10">
+    <row r="1261" spans="1:10" ht="57">
       <c r="A1261" s="5" t="s">
         <v>7371</v>
       </c>
@@ -64568,7 +64067,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="1262" ht="57.1" spans="1:10">
+    <row r="1262" spans="1:10" ht="57">
       <c r="A1262" s="5" t="s">
         <v>7381</v>
       </c>
@@ -64632,7 +64131,7 @@
         <v>7399</v>
       </c>
     </row>
-    <row r="1264" ht="28.55" spans="1:10">
+    <row r="1264" spans="1:10" ht="28.5">
       <c r="A1264" s="5" t="s">
         <v>7400</v>
       </c>
@@ -64664,7 +64163,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="1265" ht="28.55" spans="1:10">
+    <row r="1265" spans="1:10" ht="28.5">
       <c r="A1265" s="5" t="s">
         <v>7410</v>
       </c>
@@ -64696,7 +64195,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="1266" ht="42.8" spans="1:10">
+    <row r="1266" spans="1:10" ht="42.75">
       <c r="A1266" s="5" t="s">
         <v>7419</v>
       </c>
@@ -64728,7 +64227,7 @@
         <v>7428</v>
       </c>
     </row>
-    <row r="1267" ht="42.8" spans="1:10">
+    <row r="1267" spans="1:10" ht="42.75">
       <c r="A1267" s="5" t="s">
         <v>7429</v>
       </c>
@@ -64760,7 +64259,7 @@
         <v>7434</v>
       </c>
     </row>
-    <row r="1268" ht="42.8" spans="1:10">
+    <row r="1268" spans="1:10" ht="42.75">
       <c r="A1268" s="5" t="s">
         <v>7435</v>
       </c>
@@ -64792,7 +64291,7 @@
         <v>7444</v>
       </c>
     </row>
-    <row r="1269" ht="42.8" spans="1:10">
+    <row r="1269" spans="1:10" ht="28.5">
       <c r="A1269" s="5" t="s">
         <v>7445</v>
       </c>
@@ -64824,7 +64323,7 @@
         <v>7454</v>
       </c>
     </row>
-    <row r="1270" ht="28.55" spans="1:10">
+    <row r="1270" spans="1:10" ht="28.5">
       <c r="A1270" s="5" t="s">
         <v>7455</v>
       </c>
@@ -64856,7 +64355,7 @@
         <v>7464</v>
       </c>
     </row>
-    <row r="1271" ht="28.55" spans="1:10">
+    <row r="1271" spans="1:10" ht="28.5">
       <c r="A1271" s="5" t="s">
         <v>7465</v>
       </c>
@@ -64888,7 +64387,7 @@
         <v>7474</v>
       </c>
     </row>
-    <row r="1272" ht="42.8" spans="1:10">
+    <row r="1272" spans="1:10" ht="42.75">
       <c r="A1272" s="5" t="s">
         <v>7475</v>
       </c>
@@ -64920,7 +64419,7 @@
         <v>7484</v>
       </c>
     </row>
-    <row r="1273" ht="42.8" spans="1:10">
+    <row r="1273" spans="1:10" ht="42.75">
       <c r="A1273" s="5" t="s">
         <v>7485</v>
       </c>
@@ -64952,7 +64451,7 @@
         <v>7494</v>
       </c>
     </row>
-    <row r="1274" ht="28.55" spans="1:10">
+    <row r="1274" spans="1:10" ht="28.5">
       <c r="A1274" s="5" t="s">
         <v>7495</v>
       </c>
@@ -65016,7 +64515,7 @@
         <v>7506</v>
       </c>
     </row>
-    <row r="1276" ht="42.8" spans="1:10">
+    <row r="1276" spans="1:10" ht="42.75">
       <c r="A1276" s="5" t="s">
         <v>7508</v>
       </c>
@@ -65048,7 +64547,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="1277" ht="28.55" spans="1:10">
+    <row r="1277" spans="1:10" ht="28.5">
       <c r="A1277" s="5" t="s">
         <v>7518</v>
       </c>
@@ -65080,7 +64579,7 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="1278" ht="71.35" spans="1:10">
+    <row r="1278" spans="1:10" ht="57">
       <c r="A1278" s="5" t="s">
         <v>7528</v>
       </c>
@@ -65112,7 +64611,7 @@
         <v>7537</v>
       </c>
     </row>
-    <row r="1279" ht="28.55" spans="1:10">
+    <row r="1279" spans="1:10" ht="28.5">
       <c r="A1279" s="5" t="s">
         <v>7538</v>
       </c>
@@ -65144,7 +64643,7 @@
         <v>7547</v>
       </c>
     </row>
-    <row r="1280" ht="42.8" spans="1:10">
+    <row r="1280" spans="1:10" ht="42.75">
       <c r="A1280" s="5" t="s">
         <v>7548</v>
       </c>
@@ -65176,7 +64675,7 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="1281" ht="28.55" spans="1:10">
+    <row r="1281" spans="1:10" ht="28.5">
       <c r="A1281" s="5" t="s">
         <v>7558</v>
       </c>
@@ -65208,7 +64707,7 @@
         <v>7567</v>
       </c>
     </row>
-    <row r="1282" ht="42.8" spans="1:10">
+    <row r="1282" spans="1:10" ht="42.75">
       <c r="A1282" s="5" t="s">
         <v>7568</v>
       </c>
@@ -65240,7 +64739,7 @@
         <v>7577</v>
       </c>
     </row>
-    <row r="1283" ht="27.25" spans="1:10">
+    <row r="1283" spans="1:10">
       <c r="A1283" s="5" t="s">
         <v>7578</v>
       </c>
@@ -65272,7 +64771,7 @@
         <v>7587</v>
       </c>
     </row>
-    <row r="1284" ht="57.1" spans="1:10">
+    <row r="1284" spans="1:10" ht="57">
       <c r="A1284" s="5" t="s">
         <v>7588</v>
       </c>
@@ -65304,7 +64803,7 @@
         <v>7597</v>
       </c>
     </row>
-    <row r="1285" ht="42.8" spans="1:10">
+    <row r="1285" spans="1:10" ht="42.75">
       <c r="A1285" s="5" t="s">
         <v>7598</v>
       </c>
@@ -65336,7 +64835,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="1286" ht="42.8" spans="1:10">
+    <row r="1286" spans="1:10" ht="42.75">
       <c r="A1286" s="5" t="s">
         <v>7608</v>
       </c>
@@ -65400,7 +64899,7 @@
         <v>7627</v>
       </c>
     </row>
-    <row r="1288" ht="114.15" spans="1:10">
+    <row r="1288" spans="1:10" ht="99.75">
       <c r="A1288" s="5" t="s">
         <v>7628</v>
       </c>
@@ -65432,7 +64931,7 @@
         <v>7637</v>
       </c>
     </row>
-    <row r="1289" ht="57.1" spans="1:10">
+    <row r="1289" spans="1:10" ht="57">
       <c r="A1289" s="5" t="s">
         <v>7638</v>
       </c>
@@ -65464,7 +64963,7 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="1290" ht="28.55" spans="1:10">
+    <row r="1290" spans="1:10" ht="28.5">
       <c r="A1290" s="5" t="s">
         <v>7648</v>
       </c>
@@ -65496,7 +64995,7 @@
         <v>7657</v>
       </c>
     </row>
-    <row r="1291" ht="28.55" spans="1:10">
+    <row r="1291" spans="1:10" ht="28.5">
       <c r="A1291" s="5" t="s">
         <v>7658</v>
       </c>
@@ -65528,7 +65027,7 @@
         <v>7667</v>
       </c>
     </row>
-    <row r="1292" ht="42.8" spans="1:10">
+    <row r="1292" spans="1:10" ht="42.75">
       <c r="A1292" s="5" t="s">
         <v>7668</v>
       </c>
@@ -65560,7 +65059,7 @@
         <v>7677</v>
       </c>
     </row>
-    <row r="1293" ht="42.8" spans="1:10">
+    <row r="1293" spans="1:10" ht="42.75">
       <c r="A1293" s="5" t="s">
         <v>7678</v>
       </c>
@@ -65592,7 +65091,7 @@
         <v>7687</v>
       </c>
     </row>
-    <row r="1294" ht="42.8" spans="1:10">
+    <row r="1294" spans="1:10" ht="42.75">
       <c r="A1294" s="5" t="s">
         <v>7688</v>
       </c>
@@ -65624,7 +65123,7 @@
         <v>7697</v>
       </c>
     </row>
-    <row r="1295" ht="28.55" spans="1:10">
+    <row r="1295" spans="1:10" ht="28.5">
       <c r="A1295" s="5" t="s">
         <v>7698</v>
       </c>
@@ -65656,7 +65155,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="1296" ht="28.55" spans="1:10">
+    <row r="1296" spans="1:10" ht="28.5">
       <c r="A1296" s="5" t="s">
         <v>7703</v>
       </c>
@@ -65688,7 +65187,7 @@
         <v>7712</v>
       </c>
     </row>
-    <row r="1297" ht="42.8" spans="1:10">
+    <row r="1297" spans="1:10" ht="42.75">
       <c r="A1297" s="5" t="s">
         <v>7713</v>
       </c>
@@ -65720,7 +65219,7 @@
         <v>7722</v>
       </c>
     </row>
-    <row r="1298" ht="28.55" spans="1:10">
+    <row r="1298" spans="1:10" ht="28.5">
       <c r="A1298" s="5" t="s">
         <v>7723</v>
       </c>
@@ -65752,7 +65251,7 @@
         <v>7732</v>
       </c>
     </row>
-    <row r="1299" ht="28.55" spans="1:10">
+    <row r="1299" spans="1:10" ht="28.5">
       <c r="A1299" s="5" t="s">
         <v>7733</v>
       </c>
@@ -65784,7 +65283,7 @@
         <v>7742</v>
       </c>
     </row>
-    <row r="1300" ht="42.8" spans="1:10">
+    <row r="1300" spans="1:10" ht="42.75">
       <c r="A1300" s="5" t="s">
         <v>7743</v>
       </c>
@@ -65816,7 +65315,7 @@
         <v>7752</v>
       </c>
     </row>
-    <row r="1301" ht="28.55" spans="1:10">
+    <row r="1301" spans="1:10" ht="28.5">
       <c r="A1301" s="5" t="s">
         <v>7753</v>
       </c>
@@ -65848,7 +65347,7 @@
         <v>7762</v>
       </c>
     </row>
-    <row r="1302" ht="28.55" spans="1:10">
+    <row r="1302" spans="1:10" ht="28.5">
       <c r="A1302" s="5" t="s">
         <v>7763</v>
       </c>
@@ -65880,7 +65379,7 @@
         <v>7772</v>
       </c>
     </row>
-    <row r="1303" ht="28.55" spans="1:10">
+    <row r="1303" spans="1:10" ht="28.5">
       <c r="A1303" s="5" t="s">
         <v>7773</v>
       </c>
@@ -65912,7 +65411,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="1304" ht="28.55" spans="1:10">
+    <row r="1304" spans="1:10" ht="28.5">
       <c r="A1304" s="5" t="s">
         <v>7783</v>
       </c>
@@ -65944,7 +65443,7 @@
         <v>7792</v>
       </c>
     </row>
-    <row r="1305" ht="28.55" spans="1:10">
+    <row r="1305" spans="1:10" ht="28.5">
       <c r="A1305" s="5" t="s">
         <v>7793</v>
       </c>
@@ -65976,7 +65475,7 @@
         <v>7802</v>
       </c>
     </row>
-    <row r="1306" ht="28.55" spans="1:10">
+    <row r="1306" spans="1:10" ht="28.5">
       <c r="A1306" s="5" t="s">
         <v>7803</v>
       </c>
@@ -66008,7 +65507,7 @@
         <v>7812</v>
       </c>
     </row>
-    <row r="1307" ht="42.8" spans="1:10">
+    <row r="1307" spans="1:10" ht="42.75">
       <c r="A1307" s="5" t="s">
         <v>7813</v>
       </c>
@@ -66040,7 +65539,7 @@
         <v>7822</v>
       </c>
     </row>
-    <row r="1308" ht="28.55" spans="1:10">
+    <row r="1308" spans="1:10" ht="28.5">
       <c r="A1308" s="5" t="s">
         <v>7823</v>
       </c>
@@ -66072,7 +65571,7 @@
         <v>7832</v>
       </c>
     </row>
-    <row r="1309" ht="57.1" spans="1:10">
+    <row r="1309" spans="1:10" ht="57">
       <c r="A1309" s="5" t="s">
         <v>7833</v>
       </c>
@@ -66104,7 +65603,7 @@
         <v>7842</v>
       </c>
     </row>
-    <row r="1310" ht="71.35" spans="1:10">
+    <row r="1310" spans="1:10" ht="71.25">
       <c r="A1310" s="5" t="s">
         <v>7843</v>
       </c>
@@ -66136,7 +65635,7 @@
         <v>7852</v>
       </c>
     </row>
-    <row r="1311" ht="42.8" spans="1:10">
+    <row r="1311" spans="1:10" ht="28.5">
       <c r="A1311" s="5" t="s">
         <v>7853</v>
       </c>
@@ -66168,7 +65667,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="1312" ht="57.1" spans="1:10">
+    <row r="1312" spans="1:10" ht="57">
       <c r="A1312" s="5" t="s">
         <v>7863</v>
       </c>
@@ -66200,7 +65699,7 @@
         <v>7872</v>
       </c>
     </row>
-    <row r="1313" ht="57.1" spans="1:10">
+    <row r="1313" spans="1:10" ht="57">
       <c r="A1313" s="5" t="s">
         <v>7873</v>
       </c>
@@ -66232,7 +65731,7 @@
         <v>7882</v>
       </c>
     </row>
-    <row r="1314" ht="28.55" spans="1:10">
+    <row r="1314" spans="1:10" ht="28.5">
       <c r="A1314" s="5" t="s">
         <v>7883</v>
       </c>
@@ -66264,7 +65763,7 @@
         <v>7892</v>
       </c>
     </row>
-    <row r="1315" ht="57.1" spans="1:10">
+    <row r="1315" spans="1:10" ht="57">
       <c r="A1315" s="5" t="s">
         <v>7893</v>
       </c>
@@ -66296,7 +65795,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="1316" ht="28.55" spans="1:10">
+    <row r="1316" spans="1:10" ht="28.5">
       <c r="A1316" s="5" t="s">
         <v>7903</v>
       </c>
@@ -66328,7 +65827,7 @@
         <v>7911</v>
       </c>
     </row>
-    <row r="1317" ht="42.8" spans="1:10">
+    <row r="1317" spans="1:10" ht="42.75">
       <c r="A1317" s="5" t="s">
         <v>7912</v>
       </c>
@@ -66360,7 +65859,7 @@
         <v>7921</v>
       </c>
     </row>
-    <row r="1318" ht="42.8" spans="1:10">
+    <row r="1318" spans="1:10" ht="42.75">
       <c r="A1318" s="5" t="s">
         <v>7922</v>
       </c>
@@ -66392,7 +65891,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="1319" ht="28.55" spans="1:10">
+    <row r="1319" spans="1:10" ht="28.5">
       <c r="A1319" s="5" t="s">
         <v>7932</v>
       </c>
@@ -66424,7 +65923,7 @@
         <v>7941</v>
       </c>
     </row>
-    <row r="1320" ht="42.8" spans="1:10">
+    <row r="1320" spans="1:10" ht="28.5">
       <c r="A1320" s="5" t="s">
         <v>7942</v>
       </c>
@@ -66488,7 +65987,7 @@
         <v>7961</v>
       </c>
     </row>
-    <row r="1322" ht="28.55" spans="1:10">
+    <row r="1322" spans="1:10" ht="28.5">
       <c r="A1322" s="5" t="s">
         <v>7962</v>
       </c>
@@ -66520,7 +66019,7 @@
         <v>7971</v>
       </c>
     </row>
-    <row r="1323" ht="28.55" spans="1:10">
+    <row r="1323" spans="1:10" ht="28.5">
       <c r="A1323" s="5" t="s">
         <v>7972</v>
       </c>
@@ -66552,7 +66051,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="1324" ht="57.1" spans="1:10">
+    <row r="1324" spans="1:10" ht="57">
       <c r="A1324" s="5" t="s">
         <v>7981</v>
       </c>
@@ -66584,7 +66083,7 @@
         <v>7990</v>
       </c>
     </row>
-    <row r="1325" ht="42.8" spans="1:10">
+    <row r="1325" spans="1:10" ht="42.75">
       <c r="A1325" s="5" t="s">
         <v>7991</v>
       </c>
@@ -66616,7 +66115,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="1326" ht="57.1" spans="1:10">
+    <row r="1326" spans="1:10" ht="57">
       <c r="A1326" s="5" t="s">
         <v>8001</v>
       </c>
@@ -66648,7 +66147,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="1327" ht="28.55" spans="1:10">
+    <row r="1327" spans="1:10" ht="28.5">
       <c r="A1327" s="5" t="s">
         <v>8011</v>
       </c>
@@ -66680,7 +66179,7 @@
         <v>8020</v>
       </c>
     </row>
-    <row r="1328" ht="28.55" spans="1:10">
+    <row r="1328" spans="1:10" ht="28.5">
       <c r="A1328" s="5" t="s">
         <v>8021</v>
       </c>
@@ -66712,7 +66211,7 @@
         <v>8030</v>
       </c>
     </row>
-    <row r="1329" ht="71.35" spans="1:10">
+    <row r="1329" spans="1:10" ht="71.25">
       <c r="A1329" s="5" t="s">
         <v>8031</v>
       </c>
@@ -66744,7 +66243,7 @@
         <v>8040</v>
       </c>
     </row>
-    <row r="1330" ht="42.8" spans="1:10">
+    <row r="1330" spans="1:10" ht="42.75">
       <c r="A1330" s="5" t="s">
         <v>8041</v>
       </c>
@@ -66776,7 +66275,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="1331" ht="42.8" spans="1:10">
+    <row r="1331" spans="1:10" ht="42.75">
       <c r="A1331" s="5" t="s">
         <v>8051</v>
       </c>
@@ -66808,7 +66307,7 @@
         <v>8060</v>
       </c>
     </row>
-    <row r="1332" ht="42.8" spans="1:10">
+    <row r="1332" spans="1:10" ht="42.75">
       <c r="A1332" s="5" t="s">
         <v>8061</v>
       </c>
@@ -66840,7 +66339,7 @@
         <v>8070</v>
       </c>
     </row>
-    <row r="1333" ht="41.5" spans="1:10">
+    <row r="1333" spans="1:10" ht="28.5">
       <c r="A1333" s="5" t="s">
         <v>8071</v>
       </c>
@@ -66872,7 +66371,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="1334" ht="28.55" spans="1:10">
+    <row r="1334" spans="1:10" ht="28.5">
       <c r="A1334" s="5" t="s">
         <v>8081</v>
       </c>
@@ -66904,7 +66403,7 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="1335" ht="28.55" spans="1:10">
+    <row r="1335" spans="1:10" ht="28.5">
       <c r="A1335" s="5" t="s">
         <v>8091</v>
       </c>
@@ -66936,7 +66435,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="1336" ht="57.1" spans="1:10">
+    <row r="1336" spans="1:10" ht="57">
       <c r="A1336" s="5" t="s">
         <v>8101</v>
       </c>
@@ -66968,7 +66467,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="1337" ht="71.35" spans="1:10">
+    <row r="1337" spans="1:10" ht="57">
       <c r="A1337" s="5" t="s">
         <v>8111</v>
       </c>
@@ -67000,7 +66499,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="1338" ht="28.55" spans="1:10">
+    <row r="1338" spans="1:10" ht="28.5">
       <c r="A1338" s="5" t="s">
         <v>8121</v>
       </c>
@@ -67064,7 +66563,7 @@
         <v>8140</v>
       </c>
     </row>
-    <row r="1340" ht="57.1" spans="1:10">
+    <row r="1340" spans="1:10" ht="57">
       <c r="A1340" s="5" t="s">
         <v>8141</v>
       </c>
@@ -67096,7 +66595,7 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="1341" ht="42.8" spans="1:10">
+    <row r="1341" spans="1:10" ht="42.75">
       <c r="A1341" s="5" t="s">
         <v>8151</v>
       </c>
@@ -67128,7 +66627,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="1342" ht="28.55" spans="1:10">
+    <row r="1342" spans="1:10" ht="28.5">
       <c r="A1342" s="5" t="s">
         <v>8161</v>
       </c>
@@ -67160,7 +66659,7 @@
         <v>8170</v>
       </c>
     </row>
-    <row r="1343" ht="28.55" spans="1:10">
+    <row r="1343" spans="1:10" ht="28.5">
       <c r="A1343" s="5" t="s">
         <v>8171</v>
       </c>
@@ -67192,7 +66691,7 @@
         <v>8180</v>
       </c>
     </row>
-    <row r="1344" ht="42.8" spans="1:10">
+    <row r="1344" spans="1:10" ht="42.75">
       <c r="A1344" s="5" t="s">
         <v>8181</v>
       </c>
@@ -67224,7 +66723,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="1345" ht="57.1" spans="1:10">
+    <row r="1345" spans="1:10" ht="57">
       <c r="A1345" s="5" t="s">
         <v>8191</v>
       </c>
@@ -67256,7 +66755,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="1346" ht="57.1" spans="1:10">
+    <row r="1346" spans="1:10" ht="42.75">
       <c r="A1346" s="5" t="s">
         <v>8201</v>
       </c>
@@ -67288,7 +66787,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="1347" ht="42.8" spans="1:10">
+    <row r="1347" spans="1:10" ht="42.75">
       <c r="A1347" s="5" t="s">
         <v>8211</v>
       </c>
@@ -67320,7 +66819,7 @@
         <v>8220</v>
       </c>
     </row>
-    <row r="1348" ht="57.1" spans="1:10">
+    <row r="1348" spans="1:10" ht="57">
       <c r="A1348" s="5" t="s">
         <v>8221</v>
       </c>
@@ -67352,7 +66851,7 @@
         <v>8230</v>
       </c>
     </row>
-    <row r="1349" ht="42.8" spans="1:10">
+    <row r="1349" spans="1:10" ht="42.75">
       <c r="A1349" s="5" t="s">
         <v>8231</v>
       </c>
@@ -67384,7 +66883,7 @@
         <v>8240</v>
       </c>
     </row>
-    <row r="1350" ht="57.1" spans="1:10">
+    <row r="1350" spans="1:10" ht="57">
       <c r="A1350" s="5" t="s">
         <v>8241</v>
       </c>
@@ -67416,7 +66915,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="1351" ht="42.8" spans="1:10">
+    <row r="1351" spans="1:10" ht="42.75">
       <c r="A1351" s="5" t="s">
         <v>8251</v>
       </c>
@@ -67448,7 +66947,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="1352" ht="42.8" spans="1:10">
+    <row r="1352" spans="1:10" ht="42.75">
       <c r="A1352" s="5" t="s">
         <v>8261</v>
       </c>
@@ -67480,7 +66979,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="1353" ht="42.8" spans="1:10">
+    <row r="1353" spans="1:10" ht="42.75">
       <c r="A1353" s="5" t="s">
         <v>8271</v>
       </c>
@@ -67512,7 +67011,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="1354" ht="42.8" spans="1:10">
+    <row r="1354" spans="1:10" ht="42.75">
       <c r="A1354" s="5" t="s">
         <v>8281</v>
       </c>
@@ -67544,7 +67043,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="1355" ht="57.1" spans="1:10">
+    <row r="1355" spans="1:10" ht="57">
       <c r="A1355" s="5" t="s">
         <v>8291</v>
       </c>
@@ -67576,7 +67075,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="1356" ht="57.1" spans="1:10">
+    <row r="1356" spans="1:10" ht="42.75">
       <c r="A1356" s="5" t="s">
         <v>8301</v>
       </c>
@@ -67608,7 +67107,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="1357" ht="42.8" spans="1:10">
+    <row r="1357" spans="1:10" ht="42.75">
       <c r="A1357" s="5" t="s">
         <v>8311</v>
       </c>
@@ -67640,7 +67139,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="1358" ht="42.8" spans="1:10">
+    <row r="1358" spans="1:10" ht="42.75">
       <c r="A1358" s="5" t="s">
         <v>8313</v>
       </c>
@@ -67672,7 +67171,7 @@
         <v>8322</v>
       </c>
     </row>
-    <row r="1359" ht="57.1" spans="1:10">
+    <row r="1359" spans="1:10" ht="57">
       <c r="A1359" s="5" t="s">
         <v>8323</v>
       </c>
@@ -67704,7 +67203,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="1360" ht="57.1" spans="1:10">
+    <row r="1360" spans="1:10" ht="57">
       <c r="A1360" s="5" t="s">
         <v>8333</v>
       </c>
@@ -67736,7 +67235,7 @@
         <v>8342</v>
       </c>
     </row>
-    <row r="1361" ht="42.8" spans="1:10">
+    <row r="1361" spans="1:10" ht="42.75">
       <c r="A1361" s="5" t="s">
         <v>8343</v>
       </c>
@@ -67768,7 +67267,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="1362" ht="57.1" spans="1:10">
+    <row r="1362" spans="1:10" ht="57">
       <c r="A1362" s="5" t="s">
         <v>8353</v>
       </c>
@@ -67800,7 +67299,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="1363" ht="57.1" spans="1:10">
+    <row r="1363" spans="1:10" ht="57">
       <c r="A1363" s="5" t="s">
         <v>8363</v>
       </c>
@@ -67832,7 +67331,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="1364" ht="71.35" spans="1:10">
+    <row r="1364" spans="1:10" ht="71.25">
       <c r="A1364" s="5" t="s">
         <v>8373</v>
       </c>
@@ -67896,7 +67395,7 @@
         <v>8392</v>
       </c>
     </row>
-    <row r="1366" ht="42.8" spans="1:10">
+    <row r="1366" spans="1:10" ht="42.75">
       <c r="A1366" s="5" t="s">
         <v>8393</v>
       </c>
@@ -67928,7 +67427,7 @@
         <v>8402</v>
       </c>
     </row>
-    <row r="1367" ht="28.55" spans="1:10">
+    <row r="1367" spans="1:10" ht="28.5">
       <c r="A1367" s="5" t="s">
         <v>8403</v>
       </c>
@@ -67960,7 +67459,7 @@
         <v>8412</v>
       </c>
     </row>
-    <row r="1368" ht="42.8" spans="1:10">
+    <row r="1368" spans="1:10" ht="42.75">
       <c r="A1368" s="5" t="s">
         <v>8413</v>
       </c>
@@ -67992,7 +67491,7 @@
         <v>8422</v>
       </c>
     </row>
-    <row r="1369" ht="57.1" spans="1:10">
+    <row r="1369" spans="1:10" ht="57">
       <c r="A1369" s="5" t="s">
         <v>8423</v>
       </c>
@@ -68024,7 +67523,7 @@
         <v>8432</v>
       </c>
     </row>
-    <row r="1370" ht="28.55" spans="1:10">
+    <row r="1370" spans="1:10" ht="28.5">
       <c r="A1370" s="5" t="s">
         <v>8433</v>
       </c>
@@ -68216,7 +67715,7 @@
         <v>8486</v>
       </c>
     </row>
-    <row r="1376" ht="28.55" spans="1:10">
+    <row r="1376" spans="1:10" ht="28.5">
       <c r="A1376" s="5" t="s">
         <v>8487</v>
       </c>
@@ -68280,7 +67779,7 @@
         <v>8506</v>
       </c>
     </row>
-    <row r="1378" ht="28.55" spans="1:10">
+    <row r="1378" spans="1:10" ht="28.5">
       <c r="A1378" s="5" t="s">
         <v>8507</v>
       </c>
@@ -68312,7 +67811,7 @@
         <v>8516</v>
       </c>
     </row>
-    <row r="1379" ht="28.55" spans="1:10">
+    <row r="1379" spans="1:10" ht="28.5">
       <c r="A1379" s="5" t="s">
         <v>8517</v>
       </c>
@@ -68344,7 +67843,7 @@
         <v>8526</v>
       </c>
     </row>
-    <row r="1380" ht="28.55" spans="1:10">
+    <row r="1380" spans="1:10" ht="28.5">
       <c r="A1380" s="5" t="s">
         <v>8527</v>
       </c>
@@ -68376,7 +67875,7 @@
         <v>8536</v>
       </c>
     </row>
-    <row r="1381" ht="28.55" spans="1:10">
+    <row r="1381" spans="1:10" ht="28.5">
       <c r="A1381" s="5" t="s">
         <v>8537</v>
       </c>
@@ -68408,7 +67907,7 @@
         <v>8546</v>
       </c>
     </row>
-    <row r="1382" ht="28.55" spans="1:10">
+    <row r="1382" spans="1:10" ht="28.5">
       <c r="A1382" s="5" t="s">
         <v>8547</v>
       </c>
@@ -68440,7 +67939,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="1383" ht="28.55" spans="1:10">
+    <row r="1383" spans="1:10" ht="28.5">
       <c r="A1383" s="5" t="s">
         <v>8556</v>
       </c>
@@ -68472,7 +67971,7 @@
         <v>8565</v>
       </c>
     </row>
-    <row r="1384" ht="28.55" spans="1:10">
+    <row r="1384" spans="1:10" ht="28.5">
       <c r="A1384" s="5" t="s">
         <v>8566</v>
       </c>
@@ -68504,7 +68003,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="1385" ht="28.55" spans="1:10">
+    <row r="1385" spans="1:10" ht="28.5">
       <c r="A1385" s="5" t="s">
         <v>8576</v>
       </c>
@@ -68536,7 +68035,7 @@
         <v>8585</v>
       </c>
     </row>
-    <row r="1386" ht="42.8" spans="1:10">
+    <row r="1386" spans="1:10" ht="28.5">
       <c r="A1386" s="5" t="s">
         <v>8586</v>
       </c>
@@ -68568,7 +68067,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="1387" ht="57.1" spans="1:10">
+    <row r="1387" spans="1:10" ht="57">
       <c r="A1387" s="5" t="s">
         <v>8596</v>
       </c>
@@ -68600,7 +68099,7 @@
         <v>8605</v>
       </c>
     </row>
-    <row r="1388" ht="71.35" spans="1:10">
+    <row r="1388" spans="1:10" ht="71.25">
       <c r="A1388" s="5" t="s">
         <v>8606</v>
       </c>
@@ -68664,7 +68163,7 @@
         <v>8625</v>
       </c>
     </row>
-    <row r="1390" ht="28.55" spans="1:10">
+    <row r="1390" spans="1:10" ht="28.5">
       <c r="A1390" s="5" t="s">
         <v>8626</v>
       </c>
@@ -68760,7 +68259,7 @@
         <v>8654</v>
       </c>
     </row>
-    <row r="1393" ht="57.1" spans="1:10">
+    <row r="1393" spans="1:10" ht="57">
       <c r="A1393" s="5" t="s">
         <v>8655</v>
       </c>
@@ -68824,7 +68323,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="1395" ht="42.8" spans="1:10">
+    <row r="1395" spans="1:10" ht="42.75">
       <c r="A1395" s="5" t="s">
         <v>8673</v>
       </c>
@@ -68856,7 +68355,7 @@
         <v>8682</v>
       </c>
     </row>
-    <row r="1396" ht="28.55" spans="1:10">
+    <row r="1396" spans="1:10" ht="28.5">
       <c r="A1396" s="5" t="s">
         <v>8683</v>
       </c>
@@ -68888,7 +68387,7 @@
         <v>8692</v>
       </c>
     </row>
-    <row r="1397" ht="28.55" spans="1:10">
+    <row r="1397" spans="1:10" ht="28.5">
       <c r="A1397" s="5" t="s">
         <v>8693</v>
       </c>
@@ -68920,7 +68419,7 @@
         <v>8702</v>
       </c>
     </row>
-    <row r="1398" ht="28.55" spans="1:10">
+    <row r="1398" spans="1:10" ht="28.5">
       <c r="A1398" s="5" t="s">
         <v>8703</v>
       </c>
@@ -69016,7 +68515,7 @@
         <v>8731</v>
       </c>
     </row>
-    <row r="1401" ht="42.8" spans="1:10">
+    <row r="1401" spans="1:10" ht="42.75">
       <c r="A1401" s="5" t="s">
         <v>8732</v>
       </c>
@@ -69272,7 +68771,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="1409" ht="28.55" spans="1:10">
+    <row r="1409" spans="1:10" ht="28.5">
       <c r="A1409" s="5" t="s">
         <v>8801</v>
       </c>
@@ -69304,7 +68803,7 @@
         <v>8810</v>
       </c>
     </row>
-    <row r="1410" ht="28.55" spans="1:10">
+    <row r="1410" spans="1:10" ht="28.5">
       <c r="A1410" s="5" t="s">
         <v>8811</v>
       </c>
@@ -69336,7 +68835,7 @@
         <v>8820</v>
       </c>
     </row>
-    <row r="1411" ht="42.8" spans="1:10">
+    <row r="1411" spans="1:10" ht="42.75">
       <c r="A1411" s="5" t="s">
         <v>8821</v>
       </c>
@@ -69368,7 +68867,7 @@
         <v>8830</v>
       </c>
     </row>
-    <row r="1412" ht="28.55" spans="1:10">
+    <row r="1412" spans="1:10" ht="28.5">
       <c r="A1412" s="5" t="s">
         <v>8831</v>
       </c>
@@ -69400,7 +68899,7 @@
         <v>8840</v>
       </c>
     </row>
-    <row r="1413" ht="42.8" spans="1:10">
+    <row r="1413" spans="1:10" ht="42.75">
       <c r="A1413" s="5" t="s">
         <v>8841</v>
       </c>
@@ -69432,7 +68931,7 @@
         <v>8850</v>
       </c>
     </row>
-    <row r="1414" ht="42.8" spans="1:10">
+    <row r="1414" spans="1:10" ht="42.75">
       <c r="A1414" s="5" t="s">
         <v>8851</v>
       </c>
@@ -69464,7 +68963,7 @@
         <v>8860</v>
       </c>
     </row>
-    <row r="1415" ht="28.55" spans="1:10">
+    <row r="1415" spans="1:10" ht="28.5">
       <c r="A1415" s="5" t="s">
         <v>8861</v>
       </c>
@@ -69496,7 +68995,7 @@
         <v>8870</v>
       </c>
     </row>
-    <row r="1416" ht="71.35" spans="1:10">
+    <row r="1416" spans="1:10" ht="57">
       <c r="A1416" s="5" t="s">
         <v>8871</v>
       </c>
@@ -69560,7 +69059,7 @@
         <v>8890</v>
       </c>
     </row>
-    <row r="1418" ht="57.1" spans="1:10">
+    <row r="1418" spans="1:10" ht="42.75">
       <c r="A1418" s="5" t="s">
         <v>8891</v>
       </c>
@@ -69592,7 +69091,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="1419" ht="57.1" spans="1:10">
+    <row r="1419" spans="1:10" ht="42.75">
       <c r="A1419" s="5" t="s">
         <v>8901</v>
       </c>
@@ -69624,7 +69123,7 @@
         <v>8910</v>
       </c>
     </row>
-    <row r="1420" ht="42.8" spans="1:10">
+    <row r="1420" spans="1:10" ht="42.75">
       <c r="A1420" s="5" t="s">
         <v>8911</v>
       </c>
@@ -69656,7 +69155,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="1421" ht="28.55" spans="1:10">
+    <row r="1421" spans="1:10" ht="28.5">
       <c r="A1421" s="5" t="s">
         <v>8921</v>
       </c>
@@ -69688,7 +69187,7 @@
         <v>8930</v>
       </c>
     </row>
-    <row r="1422" ht="28.55" spans="1:10">
+    <row r="1422" spans="1:10" ht="28.5">
       <c r="A1422" s="5" t="s">
         <v>8931</v>
       </c>
@@ -69720,7 +69219,7 @@
         <v>8940</v>
       </c>
     </row>
-    <row r="1423" ht="57.1" spans="1:10">
+    <row r="1423" spans="1:10" ht="42.75">
       <c r="A1423" s="5" t="s">
         <v>8941</v>
       </c>
@@ -69752,7 +69251,7 @@
         <v>8950</v>
       </c>
     </row>
-    <row r="1424" ht="71.35" spans="1:10">
+    <row r="1424" spans="1:10" ht="71.25">
       <c r="A1424" s="5" t="s">
         <v>8951</v>
       </c>
@@ -69784,7 +69283,7 @@
         <v>8960</v>
       </c>
     </row>
-    <row r="1425" ht="57.1" spans="1:10">
+    <row r="1425" spans="1:10" ht="57">
       <c r="A1425" s="5" t="s">
         <v>8961</v>
       </c>
@@ -69816,7 +69315,7 @@
         <v>8970</v>
       </c>
     </row>
-    <row r="1426" ht="71.35" spans="1:10">
+    <row r="1426" spans="1:10" ht="71.25">
       <c r="A1426" s="5" t="s">
         <v>8971</v>
       </c>
@@ -69848,7 +69347,7 @@
         <v>8980</v>
       </c>
     </row>
-    <row r="1427" ht="42.8" spans="1:10">
+    <row r="1427" spans="1:10" ht="42.75">
       <c r="A1427" s="5" t="s">
         <v>8981</v>
       </c>
@@ -69880,7 +69379,7 @@
         <v>8990</v>
       </c>
     </row>
-    <row r="1428" ht="28.55" spans="1:10">
+    <row r="1428" spans="1:10" ht="28.5">
       <c r="A1428" s="5" t="s">
         <v>8991</v>
       </c>
@@ -69912,7 +69411,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="1429" ht="99.9" spans="1:10">
+    <row r="1429" spans="1:10" ht="99.75">
       <c r="A1429" s="5" t="s">
         <v>9001</v>
       </c>
@@ -69944,7 +69443,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="1430" ht="28.55" spans="1:10">
+    <row r="1430" spans="1:10" ht="28.5">
       <c r="A1430" s="5" t="s">
         <v>9011</v>
       </c>
@@ -69976,7 +69475,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="1431" ht="71.35" spans="1:10">
+    <row r="1431" spans="1:10" ht="57">
       <c r="A1431" s="5" t="s">
         <v>9021</v>
       </c>
@@ -70008,7 +69507,7 @@
         <v>9030</v>
       </c>
     </row>
-    <row r="1432" ht="28.55" spans="1:10">
+    <row r="1432" spans="1:10" ht="28.5">
       <c r="A1432" s="5" t="s">
         <v>9031</v>
       </c>
@@ -70072,7 +69571,7 @@
         <v>9041</v>
       </c>
     </row>
-    <row r="1434" ht="28.55" spans="1:10">
+    <row r="1434" spans="1:10" ht="28.5">
       <c r="A1434" s="5" t="s">
         <v>9042</v>
       </c>
@@ -70104,7 +69603,7 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="1435" ht="28.55" spans="1:10">
+    <row r="1435" spans="1:10" ht="28.5">
       <c r="A1435" s="5" t="s">
         <v>9052</v>
       </c>
@@ -70136,7 +69635,7 @@
         <v>9061</v>
       </c>
     </row>
-    <row r="1436" ht="28.55" spans="1:10">
+    <row r="1436" spans="1:10" ht="28.5">
       <c r="A1436" s="5" t="s">
         <v>9062</v>
       </c>
@@ -70168,7 +69667,7 @@
         <v>9071</v>
       </c>
     </row>
-    <row r="1437" ht="57.1" spans="1:10">
+    <row r="1437" spans="1:10" ht="57">
       <c r="A1437" s="5" t="s">
         <v>9072</v>
       </c>
@@ -70200,7 +69699,7 @@
         <v>9081</v>
       </c>
     </row>
-    <row r="1438" ht="28.55" spans="1:10">
+    <row r="1438" spans="1:10" ht="28.5">
       <c r="A1438" s="5" t="s">
         <v>9082</v>
       </c>
@@ -70232,7 +69731,7 @@
         <v>9091</v>
       </c>
     </row>
-    <row r="1439" ht="57.1" spans="1:10">
+    <row r="1439" spans="1:10" ht="42.75">
       <c r="A1439" s="5" t="s">
         <v>9092</v>
       </c>
@@ -70264,7 +69763,7 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="1440" ht="171.25" spans="1:10">
+    <row r="1440" spans="1:10" ht="156.75">
       <c r="A1440" s="5" t="s">
         <v>9102</v>
       </c>
@@ -70296,7 +69795,7 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="1441" ht="114.15" spans="1:10">
+    <row r="1441" spans="1:10" ht="99.75">
       <c r="A1441" s="5" t="s">
         <v>9112</v>
       </c>
@@ -70328,7 +69827,7 @@
         <v>9121</v>
       </c>
     </row>
-    <row r="1442" ht="71.35" spans="1:10">
+    <row r="1442" spans="1:10" ht="71.25">
       <c r="A1442" s="5" t="s">
         <v>9122</v>
       </c>
@@ -70392,7 +69891,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="1444" ht="28.55" spans="1:10">
+    <row r="1444" spans="1:10" ht="28.5">
       <c r="A1444" s="5" t="s">
         <v>9135</v>
       </c>
@@ -70424,7 +69923,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="1445" ht="28.55" spans="1:10">
+    <row r="1445" spans="1:10" ht="28.5">
       <c r="A1445" s="5" t="s">
         <v>9137</v>
       </c>
@@ -70456,7 +69955,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="1446" ht="128.45" spans="1:10">
+    <row r="1446" spans="1:10" ht="128.25">
       <c r="A1446" s="5" t="s">
         <v>9140</v>
       </c>
@@ -70488,7 +69987,7 @@
         <v>9149</v>
       </c>
     </row>
-    <row r="1447" ht="71.35" spans="1:10">
+    <row r="1447" spans="1:10" ht="71.25">
       <c r="A1447" s="5" t="s">
         <v>9150</v>
       </c>
@@ -70520,7 +70019,7 @@
         <v>9159</v>
       </c>
     </row>
-    <row r="1448" ht="57.1" spans="1:10">
+    <row r="1448" spans="1:10" ht="57">
       <c r="A1448" s="5" t="s">
         <v>9160</v>
       </c>
@@ -70616,7 +70115,7 @@
         <v>9174</v>
       </c>
     </row>
-    <row r="1451" ht="28.55" spans="1:10">
+    <row r="1451" spans="1:10" ht="28.5">
       <c r="A1451" s="5" t="s">
         <v>9175</v>
       </c>
@@ -70776,7 +70275,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="1456" ht="42.8" spans="1:10">
+    <row r="1456" spans="1:10" ht="42.75">
       <c r="A1456" s="5" t="s">
         <v>9214</v>
       </c>
@@ -70840,7 +70339,7 @@
         <v>9233</v>
       </c>
     </row>
-    <row r="1458" ht="28.55" spans="1:10">
+    <row r="1458" spans="1:10" ht="28.5">
       <c r="A1458" s="5" t="s">
         <v>9234</v>
       </c>
@@ -70872,7 +70371,7 @@
         <v>9243</v>
       </c>
     </row>
-    <row r="1459" ht="42.8" spans="1:10">
+    <row r="1459" spans="1:10" ht="28.5">
       <c r="A1459" s="5" t="s">
         <v>9244</v>
       </c>
@@ -70904,7 +70403,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="1460" ht="71.35" spans="1:10">
+    <row r="1460" spans="1:10" ht="71.25">
       <c r="A1460" s="5" t="s">
         <v>9254</v>
       </c>
@@ -70936,7 +70435,7 @@
         <v>9263</v>
       </c>
     </row>
-    <row r="1461" ht="99.9" spans="1:10">
+    <row r="1461" spans="1:10" ht="99.75">
       <c r="A1461" s="5" t="s">
         <v>9264</v>
       </c>
@@ -70968,7 +70467,7 @@
         <v>9273</v>
       </c>
     </row>
-    <row r="1462" ht="28.55" spans="1:10">
+    <row r="1462" spans="1:10" ht="28.5">
       <c r="A1462" s="5" t="s">
         <v>9274</v>
       </c>
@@ -71032,7 +70531,7 @@
         <v>9292</v>
       </c>
     </row>
-    <row r="1464" ht="28.55" spans="1:10">
+    <row r="1464" spans="1:10" ht="28.5">
       <c r="A1464" s="5" t="s">
         <v>9293</v>
       </c>
@@ -71064,7 +70563,7 @@
         <v>9301</v>
       </c>
     </row>
-    <row r="1465" ht="28.55" spans="1:10">
+    <row r="1465" spans="1:10" ht="28.5">
       <c r="A1465" s="5" t="s">
         <v>9302</v>
       </c>
@@ -71192,7 +70691,7 @@
         <v>9330</v>
       </c>
     </row>
-    <row r="1469" ht="42.8" spans="1:10">
+    <row r="1469" spans="1:10" ht="42.75">
       <c r="A1469" s="5" t="s">
         <v>9331</v>
       </c>
@@ -71224,7 +70723,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="1470" ht="85.6" spans="1:10">
+    <row r="1470" spans="1:10" ht="71.25">
       <c r="A1470" s="5" t="s">
         <v>9334</v>
       </c>
@@ -71256,7 +70755,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="1471" ht="185.5" spans="1:10">
+    <row r="1471" spans="1:10" ht="171">
       <c r="A1471" s="5" t="s">
         <v>9344</v>
       </c>
@@ -71288,7 +70787,7 @@
         <v>9353</v>
       </c>
     </row>
-    <row r="1472" ht="28.55" spans="1:10">
+    <row r="1472" spans="1:10" ht="28.5">
       <c r="A1472" s="5" t="s">
         <v>9354</v>
       </c>
@@ -71320,7 +70819,7 @@
         <v>9363</v>
       </c>
     </row>
-    <row r="1473" ht="42.8" spans="1:10">
+    <row r="1473" spans="1:10" ht="42.75">
       <c r="A1473" s="5" t="s">
         <v>9364</v>
       </c>
@@ -71352,7 +70851,7 @@
         <v>9372</v>
       </c>
     </row>
-    <row r="1474" ht="71.35" spans="1:10">
+    <row r="1474" spans="1:10" ht="57">
       <c r="A1474" s="5" t="s">
         <v>9373</v>
       </c>
@@ -71416,7 +70915,7 @@
         <v>9391</v>
       </c>
     </row>
-    <row r="1476" ht="199.8" spans="1:10">
+    <row r="1476" spans="1:10" ht="199.5">
       <c r="A1476" s="5" t="s">
         <v>9392</v>
       </c>
@@ -71448,7 +70947,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="1477" ht="42.8" spans="1:10">
+    <row r="1477" spans="1:10" ht="42.75">
       <c r="A1477" s="5" t="s">
         <v>9402</v>
       </c>
@@ -71480,7 +70979,7 @@
         <v>9411</v>
       </c>
     </row>
-    <row r="1478" ht="42.8" spans="1:10">
+    <row r="1478" spans="1:10" ht="42.75">
       <c r="A1478" s="5" t="s">
         <v>9412</v>
       </c>
@@ -71512,7 +71011,7 @@
         <v>9419</v>
       </c>
     </row>
-    <row r="1479" ht="28.55" spans="1:10">
+    <row r="1479" spans="1:10" ht="28.5">
       <c r="A1479" s="5" t="s">
         <v>9420</v>
       </c>
@@ -71544,7 +71043,7 @@
         <v>9429</v>
       </c>
     </row>
-    <row r="1480" ht="42.8" spans="1:10">
+    <row r="1480" spans="1:10" ht="42.75">
       <c r="A1480" s="5" t="s">
         <v>9430</v>
       </c>
@@ -71576,82 +71075,82 @@
         <v>9439</v>
       </c>
     </row>
-    <row r="1481" ht="114.15" spans="1:10">
+    <row r="1481" spans="1:10" ht="114">
       <c r="A1481" s="5" t="s">
         <v>9440</v>
       </c>
       <c r="B1481" s="5" t="s">
+        <v>9703</v>
+      </c>
+      <c r="C1481" s="5" t="s">
         <v>9441</v>
       </c>
-      <c r="C1481" s="5" t="s">
+      <c r="D1481" s="5" t="s">
         <v>9442</v>
       </c>
-      <c r="D1481" s="5" t="s">
+      <c r="E1481" s="5" t="s">
+        <v>9704</v>
+      </c>
+      <c r="F1481" s="5" t="s">
         <v>9443</v>
       </c>
-      <c r="E1481" s="5" t="s">
+      <c r="G1481" s="5" t="s">
         <v>9444</v>
       </c>
-      <c r="F1481" s="5" t="s">
+      <c r="H1481" s="5" t="s">
         <v>9445</v>
       </c>
-      <c r="G1481" s="5" t="s">
+      <c r="I1481" s="5" t="s">
         <v>9446</v>
       </c>
-      <c r="H1481" s="5" t="s">
+      <c r="J1481" s="5" t="s">
         <v>9447</v>
       </c>
-      <c r="I1481" s="5" t="s">
+    </row>
+    <row r="1482" spans="1:10" ht="42.75">
+      <c r="A1482" s="5" t="s">
         <v>9448</v>
       </c>
-      <c r="J1481" s="5" t="s">
-        <v>9449</v>
-      </c>
-    </row>
-    <row r="1482" ht="114.15" spans="1:10">
-      <c r="A1482" s="5" t="s">
-        <v>9450</v>
-      </c>
       <c r="B1482" s="5" t="s">
-        <v>9451</v>
+        <v>9705</v>
       </c>
       <c r="C1482" s="5" t="s">
-        <v>9452</v>
+        <v>9706</v>
       </c>
       <c r="D1482" s="5" t="s">
-        <v>9453</v>
+        <v>9707</v>
       </c>
       <c r="E1482" s="5" t="s">
-        <v>9454</v>
+        <v>9708</v>
       </c>
       <c r="F1482" s="5" t="s">
-        <v>9455</v>
+        <v>9709</v>
       </c>
       <c r="G1482" s="5" t="s">
-        <v>9456</v>
+        <v>9710</v>
       </c>
       <c r="H1482" s="5" t="s">
-        <v>9457</v>
+        <v>9711</v>
       </c>
       <c r="I1482" s="5" t="s">
-        <v>9458</v>
+        <v>9712</v>
       </c>
       <c r="J1482" s="5" t="s">
-        <v>9459</v>
+        <v>9713</v>
       </c>
     </row>
     <row r="1483" spans="1:10">
       <c r="A1483" s="5" t="s">
-        <v>9460</v>
+        <v>9449</v>
       </c>
       <c r="B1483" s="5" t="s">
-        <v>9461</v>
+        <v>9450</v>
       </c>
       <c r="C1483" s="5" t="s">
-        <v>9462</v>
+        <v>9451</v>
       </c>
       <c r="D1483" s="5" t="s">
-        <v>9463</v>
+        <v>9452</v>
       </c>
       <c r="E1483" s="5"/>
       <c r="F1483" s="5"/>
@@ -71662,11 +71161,11 @@
     </row>
     <row r="1484" spans="1:10">
       <c r="A1484" s="5" t="s">
-        <v>9464</v>
+        <v>9453</v>
       </c>
       <c r="B1484" s="5"/>
       <c r="C1484" s="5" t="s">
-        <v>9465</v>
+        <v>9454</v>
       </c>
       <c r="D1484" s="5"/>
       <c r="E1484" s="5"/>
@@ -71678,11 +71177,11 @@
     </row>
     <row r="1485" spans="1:10">
       <c r="A1485" s="5" t="s">
-        <v>9466</v>
+        <v>9455</v>
       </c>
       <c r="B1485" s="5"/>
       <c r="C1485" s="5" t="s">
-        <v>9467</v>
+        <v>9456</v>
       </c>
       <c r="D1485" s="5"/>
       <c r="E1485" s="5"/>
@@ -71694,11 +71193,11 @@
     </row>
     <row r="1486" spans="1:10">
       <c r="A1486" s="5" t="s">
-        <v>9468</v>
+        <v>9457</v>
       </c>
       <c r="B1486" s="5"/>
       <c r="C1486" s="5" t="s">
-        <v>9469</v>
+        <v>9458</v>
       </c>
       <c r="D1486" s="5"/>
       <c r="E1486" s="5"/>
@@ -71710,11 +71209,11 @@
     </row>
     <row r="1487" spans="1:10">
       <c r="A1487" s="5" t="s">
-        <v>9470</v>
+        <v>9459</v>
       </c>
       <c r="B1487" s="5"/>
       <c r="C1487" s="5" t="s">
-        <v>9471</v>
+        <v>9460</v>
       </c>
       <c r="D1487" s="5"/>
       <c r="E1487" s="5"/>
@@ -71726,11 +71225,11 @@
     </row>
     <row r="1488" spans="1:10">
       <c r="A1488" s="5" t="s">
-        <v>9472</v>
+        <v>9461</v>
       </c>
       <c r="B1488" s="5"/>
       <c r="C1488" s="5" t="s">
-        <v>9473</v>
+        <v>9462</v>
       </c>
       <c r="D1488" s="5"/>
       <c r="E1488" s="5"/>
@@ -71742,11 +71241,11 @@
     </row>
     <row r="1489" spans="1:10">
       <c r="A1489" s="5" t="s">
-        <v>9474</v>
+        <v>9463</v>
       </c>
       <c r="B1489" s="5"/>
       <c r="C1489" s="5" t="s">
-        <v>9475</v>
+        <v>9464</v>
       </c>
       <c r="D1489" s="5"/>
       <c r="E1489" s="5"/>
@@ -71758,11 +71257,11 @@
     </row>
     <row r="1490" spans="1:10">
       <c r="A1490" s="5" t="s">
-        <v>9476</v>
+        <v>9465</v>
       </c>
       <c r="B1490" s="5"/>
       <c r="C1490" s="5" t="s">
-        <v>9477</v>
+        <v>9466</v>
       </c>
       <c r="D1490" s="5"/>
       <c r="E1490" s="5"/>
@@ -71774,11 +71273,11 @@
     </row>
     <row r="1491" spans="1:10">
       <c r="A1491" s="5" t="s">
-        <v>9478</v>
+        <v>9467</v>
       </c>
       <c r="B1491" s="5"/>
       <c r="C1491" s="5" t="s">
-        <v>9471</v>
+        <v>9460</v>
       </c>
       <c r="D1491" s="5"/>
       <c r="E1491" s="5"/>
@@ -71790,10 +71289,10 @@
     </row>
     <row r="1492" spans="1:10">
       <c r="A1492" s="5" t="s">
-        <v>9479</v>
+        <v>9468</v>
       </c>
       <c r="B1492" s="5" t="s">
-        <v>9480</v>
+        <v>9469</v>
       </c>
       <c r="C1492" s="5"/>
       <c r="D1492" s="5"/>
@@ -71806,10 +71305,10 @@
     </row>
     <row r="1493" spans="1:10">
       <c r="A1493" s="5" t="s">
-        <v>9481</v>
+        <v>9470</v>
       </c>
       <c r="B1493" s="5" t="s">
-        <v>9482</v>
+        <v>9471</v>
       </c>
       <c r="C1493" s="5"/>
       <c r="D1493" s="5"/>
@@ -71822,10 +71321,10 @@
     </row>
     <row r="1494" spans="1:10">
       <c r="A1494" s="5" t="s">
-        <v>9483</v>
+        <v>9472</v>
       </c>
       <c r="B1494" s="5" t="s">
-        <v>9484</v>
+        <v>9473</v>
       </c>
       <c r="C1494" s="5"/>
       <c r="D1494" s="5"/>
@@ -71838,10 +71337,10 @@
     </row>
     <row r="1495" spans="1:10">
       <c r="A1495" s="5" t="s">
-        <v>9485</v>
+        <v>9474</v>
       </c>
       <c r="B1495" s="5" t="s">
-        <v>9486</v>
+        <v>9475</v>
       </c>
       <c r="C1495" s="5"/>
       <c r="D1495" s="5"/>
@@ -71854,10 +71353,10 @@
     </row>
     <row r="1496" spans="1:10">
       <c r="A1496" s="5" t="s">
-        <v>9487</v>
+        <v>9476</v>
       </c>
       <c r="B1496" s="5" t="s">
-        <v>9488</v>
+        <v>9477</v>
       </c>
       <c r="C1496" s="5"/>
       <c r="D1496" s="5"/>
@@ -71870,7 +71369,7 @@
     </row>
     <row r="1497" spans="1:10">
       <c r="A1497" s="5" t="s">
-        <v>9489</v>
+        <v>9478</v>
       </c>
       <c r="B1497" s="5" t="s">
         <v>2054</v>
@@ -71886,10 +71385,10 @@
     </row>
     <row r="1498" spans="1:10">
       <c r="A1498" s="5" t="s">
-        <v>9490</v>
+        <v>9479</v>
       </c>
       <c r="B1498" s="5" t="s">
-        <v>9491</v>
+        <v>9480</v>
       </c>
       <c r="C1498" s="5"/>
       <c r="D1498" s="5"/>
@@ -71902,10 +71401,10 @@
     </row>
     <row r="1499" spans="1:10">
       <c r="A1499" s="5" t="s">
-        <v>9492</v>
+        <v>9481</v>
       </c>
       <c r="B1499" s="5" t="s">
-        <v>9493</v>
+        <v>9482</v>
       </c>
       <c r="C1499" s="5"/>
       <c r="D1499" s="5"/>
@@ -71918,7 +71417,7 @@
     </row>
     <row r="1500" spans="1:10">
       <c r="A1500" s="5" t="s">
-        <v>9494</v>
+        <v>9483</v>
       </c>
       <c r="B1500" s="5" t="s">
         <v>4253</v>
@@ -71934,10 +71433,10 @@
     </row>
     <row r="1501" spans="1:10">
       <c r="A1501" s="5" t="s">
-        <v>9495</v>
+        <v>9484</v>
       </c>
       <c r="B1501" s="5" t="s">
-        <v>9496</v>
+        <v>9485</v>
       </c>
       <c r="C1501" s="5"/>
       <c r="D1501" s="5"/>
@@ -71950,7 +71449,7 @@
     </row>
     <row r="1502" spans="1:10">
       <c r="A1502" s="5" t="s">
-        <v>9497</v>
+        <v>9486</v>
       </c>
       <c r="B1502" s="5" t="s">
         <v>941</v>
@@ -71966,10 +71465,10 @@
     </row>
     <row r="1503" spans="1:10">
       <c r="A1503" s="5" t="s">
-        <v>9498</v>
+        <v>9487</v>
       </c>
       <c r="B1503" s="5" t="s">
-        <v>9499</v>
+        <v>9488</v>
       </c>
       <c r="C1503" s="5"/>
       <c r="D1503" s="5"/>
@@ -71982,10 +71481,10 @@
     </row>
     <row r="1504" spans="1:10">
       <c r="A1504" s="5" t="s">
-        <v>9500</v>
+        <v>9489</v>
       </c>
       <c r="B1504" s="5" t="s">
-        <v>9501</v>
+        <v>9490</v>
       </c>
       <c r="C1504" s="5"/>
       <c r="D1504" s="5"/>
@@ -71998,10 +71497,10 @@
     </row>
     <row r="1505" spans="1:10">
       <c r="A1505" s="5" t="s">
-        <v>9502</v>
+        <v>9491</v>
       </c>
       <c r="B1505" s="5" t="s">
-        <v>9503</v>
+        <v>9492</v>
       </c>
       <c r="C1505" s="5"/>
       <c r="D1505" s="5"/>
@@ -72014,10 +71513,10 @@
     </row>
     <row r="1506" spans="1:10">
       <c r="A1506" s="5" t="s">
-        <v>9504</v>
+        <v>9493</v>
       </c>
       <c r="B1506" s="5" t="s">
-        <v>9505</v>
+        <v>9494</v>
       </c>
       <c r="C1506" s="5"/>
       <c r="D1506" s="5"/>
@@ -72030,10 +71529,10 @@
     </row>
     <row r="1507" spans="1:10">
       <c r="A1507" s="5" t="s">
-        <v>9506</v>
+        <v>9495</v>
       </c>
       <c r="B1507" s="5" t="s">
-        <v>9507</v>
+        <v>9496</v>
       </c>
       <c r="C1507" s="5"/>
       <c r="D1507" s="5"/>
@@ -72046,10 +71545,10 @@
     </row>
     <row r="1508" spans="1:10">
       <c r="A1508" s="5" t="s">
-        <v>9508</v>
+        <v>9497</v>
       </c>
       <c r="B1508" s="5" t="s">
-        <v>9509</v>
+        <v>9498</v>
       </c>
       <c r="C1508" s="5"/>
       <c r="D1508" s="5"/>
@@ -72062,10 +71561,10 @@
     </row>
     <row r="1509" spans="1:10">
       <c r="A1509" s="5" t="s">
-        <v>9510</v>
+        <v>9499</v>
       </c>
       <c r="B1509" s="5" t="s">
-        <v>9511</v>
+        <v>9500</v>
       </c>
       <c r="C1509" s="5"/>
       <c r="D1509" s="5"/>
@@ -72078,10 +71577,10 @@
     </row>
     <row r="1510" spans="1:10">
       <c r="A1510" s="5" t="s">
-        <v>9512</v>
+        <v>9501</v>
       </c>
       <c r="B1510" s="5" t="s">
-        <v>9513</v>
+        <v>9502</v>
       </c>
       <c r="C1510" s="5"/>
       <c r="D1510" s="5"/>
@@ -72094,10 +71593,10 @@
     </row>
     <row r="1511" spans="1:10">
       <c r="A1511" s="5" t="s">
-        <v>9514</v>
+        <v>9503</v>
       </c>
       <c r="B1511" s="5" t="s">
-        <v>9515</v>
+        <v>9504</v>
       </c>
       <c r="C1511" s="5"/>
       <c r="D1511" s="5"/>
@@ -72110,10 +71609,10 @@
     </row>
     <row r="1512" spans="1:10">
       <c r="A1512" s="5" t="s">
-        <v>9516</v>
+        <v>9505</v>
       </c>
       <c r="B1512" s="5" t="s">
-        <v>9517</v>
+        <v>9506</v>
       </c>
       <c r="C1512" s="5"/>
       <c r="D1512" s="5"/>
@@ -72126,10 +71625,10 @@
     </row>
     <row r="1513" spans="1:10">
       <c r="A1513" s="5" t="s">
-        <v>9518</v>
+        <v>9507</v>
       </c>
       <c r="B1513" s="5" t="s">
-        <v>9519</v>
+        <v>9508</v>
       </c>
       <c r="C1513" s="5"/>
       <c r="D1513" s="5"/>
@@ -72142,10 +71641,10 @@
     </row>
     <row r="1514" spans="1:10">
       <c r="A1514" s="5" t="s">
-        <v>9520</v>
+        <v>9509</v>
       </c>
       <c r="B1514" s="5" t="s">
-        <v>9521</v>
+        <v>9510</v>
       </c>
       <c r="C1514" s="5"/>
       <c r="D1514" s="5"/>
@@ -72158,10 +71657,10 @@
     </row>
     <row r="1515" spans="1:10">
       <c r="A1515" s="5" t="s">
-        <v>9522</v>
+        <v>9511</v>
       </c>
       <c r="B1515" s="5" t="s">
-        <v>9523</v>
+        <v>9512</v>
       </c>
       <c r="C1515" s="5"/>
       <c r="D1515" s="5"/>
@@ -72174,10 +71673,10 @@
     </row>
     <row r="1516" spans="1:10">
       <c r="A1516" s="5" t="s">
-        <v>9524</v>
+        <v>9513</v>
       </c>
       <c r="B1516" s="5" t="s">
-        <v>9525</v>
+        <v>9514</v>
       </c>
       <c r="C1516" s="5"/>
       <c r="D1516" s="5"/>
@@ -72190,10 +71689,10 @@
     </row>
     <row r="1517" spans="1:10">
       <c r="A1517" s="5" t="s">
-        <v>9526</v>
+        <v>9515</v>
       </c>
       <c r="B1517" s="5" t="s">
-        <v>9527</v>
+        <v>9516</v>
       </c>
       <c r="C1517" s="5"/>
       <c r="D1517" s="5"/>
@@ -72206,10 +71705,10 @@
     </row>
     <row r="1518" spans="1:10">
       <c r="A1518" s="5" t="s">
-        <v>9528</v>
+        <v>9517</v>
       </c>
       <c r="B1518" s="5" t="s">
-        <v>9529</v>
+        <v>9518</v>
       </c>
       <c r="C1518" s="5"/>
       <c r="D1518" s="5"/>
@@ -72220,12 +71719,12 @@
       <c r="I1518" s="5"/>
       <c r="J1518" s="5"/>
     </row>
-    <row r="1519" ht="28.55" spans="1:10">
+    <row r="1519" spans="1:10" ht="28.5">
       <c r="A1519" s="5" t="s">
-        <v>9530</v>
+        <v>9519</v>
       </c>
       <c r="B1519" s="5" t="s">
-        <v>9531</v>
+        <v>9520</v>
       </c>
       <c r="C1519" s="5"/>
       <c r="D1519" s="5"/>
@@ -72238,10 +71737,10 @@
     </row>
     <row r="1520" spans="1:10">
       <c r="A1520" s="5" t="s">
-        <v>9532</v>
+        <v>9521</v>
       </c>
       <c r="B1520" s="5" t="s">
-        <v>9533</v>
+        <v>9522</v>
       </c>
       <c r="C1520" s="5"/>
       <c r="D1520" s="5"/>
@@ -72254,10 +71753,10 @@
     </row>
     <row r="1521" spans="1:10">
       <c r="A1521" s="5" t="s">
-        <v>9534</v>
+        <v>9523</v>
       </c>
       <c r="B1521" s="5" t="s">
-        <v>9535</v>
+        <v>9524</v>
       </c>
       <c r="C1521" s="5"/>
       <c r="D1521" s="5"/>
@@ -72270,10 +71769,10 @@
     </row>
     <row r="1522" spans="1:10">
       <c r="A1522" s="5" t="s">
-        <v>9536</v>
+        <v>9525</v>
       </c>
       <c r="B1522" s="5" t="s">
-        <v>9535</v>
+        <v>9524</v>
       </c>
       <c r="C1522" s="5"/>
       <c r="D1522" s="5"/>
@@ -72286,10 +71785,10 @@
     </row>
     <row r="1523" spans="1:10">
       <c r="A1523" s="5" t="s">
-        <v>9537</v>
+        <v>9526</v>
       </c>
       <c r="B1523" s="5" t="s">
-        <v>9538</v>
+        <v>9527</v>
       </c>
       <c r="C1523" s="5"/>
       <c r="D1523" s="5"/>
@@ -72302,10 +71801,10 @@
     </row>
     <row r="1524" spans="1:10">
       <c r="A1524" s="5" t="s">
-        <v>9539</v>
+        <v>9528</v>
       </c>
       <c r="B1524" s="5" t="s">
-        <v>9540</v>
+        <v>9529</v>
       </c>
       <c r="C1524" s="5"/>
       <c r="D1524" s="5"/>
@@ -72318,10 +71817,10 @@
     </row>
     <row r="1525" spans="1:10">
       <c r="A1525" s="5" t="s">
-        <v>9541</v>
+        <v>9530</v>
       </c>
       <c r="B1525" s="5" t="s">
-        <v>9542</v>
+        <v>9531</v>
       </c>
       <c r="C1525" s="5"/>
       <c r="D1525" s="5"/>
@@ -72334,10 +71833,10 @@
     </row>
     <row r="1526" spans="1:10">
       <c r="A1526" s="5" t="s">
-        <v>9543</v>
+        <v>9532</v>
       </c>
       <c r="B1526" s="5" t="s">
-        <v>9544</v>
+        <v>9533</v>
       </c>
       <c r="C1526" s="5"/>
       <c r="D1526" s="5"/>
@@ -72350,7 +71849,7 @@
     </row>
     <row r="1527" spans="1:10">
       <c r="A1527" s="5" t="s">
-        <v>9545</v>
+        <v>9534</v>
       </c>
       <c r="B1527" s="5" t="s">
         <v>8813</v>
@@ -72366,10 +71865,10 @@
     </row>
     <row r="1528" spans="1:10">
       <c r="A1528" s="5" t="s">
-        <v>9546</v>
+        <v>9535</v>
       </c>
       <c r="B1528" s="5" t="s">
-        <v>9547</v>
+        <v>9536</v>
       </c>
       <c r="C1528" s="5"/>
       <c r="D1528" s="5"/>
@@ -72380,543 +71879,575 @@
       <c r="I1528" s="5"/>
       <c r="J1528" s="5"/>
     </row>
-    <row r="1529" ht="23.35" spans="1:10">
+    <row r="1529" spans="1:10" ht="24.75">
       <c r="A1529" s="12" t="s">
-        <v>9548</v>
+        <v>9537</v>
       </c>
       <c r="B1529" s="13" t="s">
-        <v>9549</v>
+        <v>9538</v>
       </c>
       <c r="C1529" s="12" t="s">
-        <v>9550</v>
+        <v>9539</v>
       </c>
       <c r="D1529" s="13" t="s">
-        <v>9551</v>
+        <v>9540</v>
       </c>
       <c r="E1529" s="13" t="s">
-        <v>9552</v>
+        <v>9541</v>
       </c>
       <c r="F1529" s="13" t="s">
-        <v>9553</v>
+        <v>9542</v>
       </c>
       <c r="G1529" s="13" t="s">
-        <v>9554</v>
+        <v>9543</v>
       </c>
       <c r="H1529" s="13" t="s">
         <v>5357</v>
       </c>
       <c r="I1529" s="13" t="s">
-        <v>9555</v>
+        <v>9544</v>
       </c>
       <c r="J1529" s="13" t="s">
-        <v>9556</v>
-      </c>
-    </row>
-    <row r="1530" ht="15.55" spans="1:10">
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:10" ht="15">
       <c r="A1530" s="12" t="s">
-        <v>9557</v>
+        <v>9546</v>
       </c>
       <c r="B1530" s="14" t="s">
-        <v>9558</v>
+        <v>9547</v>
       </c>
       <c r="C1530" s="12" t="s">
-        <v>9559</v>
+        <v>9548</v>
       </c>
       <c r="D1530" s="12" t="s">
-        <v>9560</v>
+        <v>9549</v>
       </c>
       <c r="E1530" s="12"/>
       <c r="F1530" s="12"/>
       <c r="G1530" s="12"/>
       <c r="H1530" s="15" t="s">
-        <v>9561</v>
+        <v>9550</v>
       </c>
       <c r="I1530" s="12"/>
       <c r="J1530" s="12"/>
     </row>
-    <row r="1531" ht="57.1" spans="1:10">
+    <row r="1531" spans="1:10" ht="57">
       <c r="A1531" s="12" t="s">
+        <v>9551</v>
+      </c>
+      <c r="B1531" s="14" t="s">
+        <v>9552</v>
+      </c>
+      <c r="C1531" s="12" t="s">
+        <v>9553</v>
+      </c>
+      <c r="D1531" s="12" t="s">
+        <v>9554</v>
+      </c>
+      <c r="E1531" s="12" t="s">
+        <v>9555</v>
+      </c>
+      <c r="F1531" s="12" t="s">
+        <v>9556</v>
+      </c>
+      <c r="G1531" s="12" t="s">
+        <v>9557</v>
+      </c>
+      <c r="H1531" s="15" t="s">
+        <v>9558</v>
+      </c>
+      <c r="I1531" s="12" t="s">
+        <v>9559</v>
+      </c>
+      <c r="J1531" s="12" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:10" ht="71.25">
+      <c r="A1532" s="12" t="s">
+        <v>9561</v>
+      </c>
+      <c r="B1532" s="14" t="s">
         <v>9562</v>
       </c>
-      <c r="B1531" s="14" t="s">
+      <c r="C1532" s="12" t="s">
         <v>9563</v>
       </c>
-      <c r="C1531" s="12" t="s">
+      <c r="D1532" s="12" t="s">
         <v>9564</v>
       </c>
-      <c r="D1531" s="12" t="s">
+      <c r="E1532" s="12" t="s">
         <v>9565</v>
       </c>
-      <c r="E1531" s="12" t="s">
+      <c r="F1532" s="12" t="s">
         <v>9566</v>
       </c>
-      <c r="F1531" s="12" t="s">
+      <c r="G1532" s="12" t="s">
         <v>9567</v>
       </c>
-      <c r="G1531" s="12" t="s">
+      <c r="H1532" s="15" t="s">
         <v>9568</v>
       </c>
-      <c r="H1531" s="15" t="s">
+      <c r="I1532" s="12" t="s">
         <v>9569</v>
       </c>
-      <c r="I1531" s="12" t="s">
+      <c r="J1532" s="12" t="s">
         <v>9570</v>
       </c>
-      <c r="J1531" s="12" t="s">
+    </row>
+    <row r="1533" spans="1:10" ht="71.25">
+      <c r="A1533" s="12" t="s">
         <v>9571</v>
       </c>
-    </row>
-    <row r="1532" ht="71.35" spans="1:10">
-      <c r="A1532" s="12" t="s">
+      <c r="B1533" s="14" t="s">
         <v>9572</v>
       </c>
-      <c r="B1532" s="14" t="s">
+      <c r="C1533" s="12" t="s">
         <v>9573</v>
       </c>
-      <c r="C1532" s="12" t="s">
+      <c r="D1533" s="12" t="s">
         <v>9574</v>
       </c>
-      <c r="D1532" s="12" t="s">
+      <c r="E1533" s="12" t="s">
         <v>9575</v>
       </c>
-      <c r="E1532" s="12" t="s">
+      <c r="F1533" s="12" t="s">
         <v>9576</v>
       </c>
-      <c r="F1532" s="12" t="s">
+      <c r="G1533" s="12" t="s">
         <v>9577</v>
       </c>
-      <c r="G1532" s="12" t="s">
+      <c r="H1533" s="15" t="s">
         <v>9578</v>
       </c>
-      <c r="H1532" s="15" t="s">
+      <c r="I1533" s="12" t="s">
         <v>9579</v>
       </c>
-      <c r="I1532" s="12" t="s">
+      <c r="J1533" s="12" t="s">
         <v>9580</v>
       </c>
-      <c r="J1532" s="12" t="s">
+    </row>
+    <row r="1534" spans="1:10" ht="28.5">
+      <c r="A1534" s="12" t="s">
         <v>9581</v>
       </c>
-    </row>
-    <row r="1533" ht="71.35" spans="1:10">
-      <c r="A1533" s="12" t="s">
+      <c r="B1534" s="14" t="s">
         <v>9582</v>
       </c>
-      <c r="B1533" s="14" t="s">
+      <c r="C1534" s="12" t="s">
         <v>9583</v>
       </c>
-      <c r="C1533" s="12" t="s">
+      <c r="D1534" s="12" t="s">
         <v>9584</v>
       </c>
-      <c r="D1533" s="12" t="s">
+      <c r="E1534" s="12" t="s">
         <v>9585</v>
       </c>
-      <c r="E1533" s="12" t="s">
+      <c r="F1534" s="12" t="s">
         <v>9586</v>
       </c>
-      <c r="F1533" s="12" t="s">
+      <c r="G1534" s="12" t="s">
         <v>9587</v>
       </c>
-      <c r="G1533" s="12" t="s">
+      <c r="H1534" s="15" t="s">
         <v>9588</v>
       </c>
-      <c r="H1533" s="15" t="s">
+      <c r="I1534" s="12" t="s">
         <v>9589</v>
       </c>
-      <c r="I1533" s="12" t="s">
+      <c r="J1534" s="12" t="s">
         <v>9590</v>
       </c>
-      <c r="J1533" s="12" t="s">
+    </row>
+    <row r="1535" spans="1:10" ht="30">
+      <c r="A1535" s="12" t="s">
         <v>9591</v>
       </c>
-    </row>
-    <row r="1534" ht="28.55" spans="1:10">
-      <c r="A1534" s="12" t="s">
+      <c r="B1535" s="14" t="s">
         <v>9592</v>
       </c>
-      <c r="B1534" s="14" t="s">
+      <c r="C1535" s="12" t="s">
         <v>9593</v>
       </c>
-      <c r="C1534" s="12" t="s">
+      <c r="D1535" s="12" t="s">
+        <v>9593</v>
+      </c>
+      <c r="E1535" s="12" t="s">
         <v>9594</v>
       </c>
-      <c r="D1534" s="12" t="s">
+      <c r="F1535" s="12" t="s">
         <v>9595</v>
       </c>
-      <c r="E1534" s="12" t="s">
+      <c r="G1535" s="12" t="s">
         <v>9596</v>
       </c>
-      <c r="F1534" s="12" t="s">
+      <c r="H1535" s="15" t="s">
+        <v>9578</v>
+      </c>
+      <c r="I1535" s="12" t="s">
         <v>9597</v>
       </c>
-      <c r="G1534" s="12" t="s">
+      <c r="J1535" s="12" t="s">
         <v>9598</v>
       </c>
-      <c r="H1534" s="15" t="s">
+    </row>
+    <row r="1536" spans="1:10" ht="213.75">
+      <c r="A1536" s="12" t="s">
         <v>9599</v>
       </c>
-      <c r="I1534" s="12" t="s">
+      <c r="B1536" s="16" t="s">
         <v>9600</v>
       </c>
-      <c r="J1534" s="12" t="s">
+      <c r="C1536" s="12" t="s">
         <v>9601</v>
       </c>
-    </row>
-    <row r="1535" ht="31.15" spans="1:10">
-      <c r="A1535" s="12" t="s">
+      <c r="D1536" s="17" t="s">
         <v>9602</v>
       </c>
-      <c r="B1535" s="14" t="s">
+      <c r="E1536" s="18" t="s">
         <v>9603</v>
       </c>
-      <c r="C1535" s="12" t="s">
+      <c r="F1536" s="18" t="s">
         <v>9604</v>
       </c>
-      <c r="D1535" s="12" t="s">
-        <v>9604</v>
-      </c>
-      <c r="E1535" s="12" t="s">
+      <c r="G1536" s="18" t="s">
         <v>9605</v>
       </c>
-      <c r="F1535" s="12" t="s">
+      <c r="H1536" s="19" t="s">
         <v>9606</v>
       </c>
-      <c r="G1535" s="12" t="s">
+      <c r="I1536" s="20" t="s">
         <v>9607</v>
       </c>
-      <c r="H1535" s="15" t="s">
-        <v>9589</v>
-      </c>
-      <c r="I1535" s="12" t="s">
+      <c r="J1536" s="21" t="s">
         <v>9608</v>
       </c>
-      <c r="J1535" s="12" t="s">
+    </row>
+    <row r="1537" spans="1:10" ht="285">
+      <c r="A1537" s="12" t="s">
         <v>9609</v>
       </c>
-    </row>
-    <row r="1536" ht="214.05" spans="1:10">
-      <c r="A1536" s="12" t="s">
+      <c r="B1537" s="22" t="s">
         <v>9610</v>
       </c>
-      <c r="B1536" s="16" t="s">
+      <c r="C1537" s="12" t="s">
         <v>9611</v>
       </c>
-      <c r="C1536" s="12" t="s">
+      <c r="D1537" s="17" t="s">
         <v>9612</v>
       </c>
-      <c r="D1536" s="17" t="s">
+      <c r="E1537" s="18" t="s">
         <v>9613</v>
       </c>
-      <c r="E1536" s="18" t="s">
+      <c r="F1537" s="18" t="s">
         <v>9614</v>
       </c>
-      <c r="F1536" s="18" t="s">
+      <c r="G1537" s="18" t="s">
         <v>9615</v>
       </c>
-      <c r="G1536" s="18" t="s">
+      <c r="H1537" s="19" t="s">
         <v>9616</v>
       </c>
-      <c r="H1536" s="19" t="s">
+      <c r="I1537" s="18" t="s">
         <v>9617</v>
       </c>
-      <c r="I1536" s="20" t="s">
+      <c r="J1537" s="21" t="s">
         <v>9618</v>
       </c>
-      <c r="J1536" s="21" t="s">
+    </row>
+    <row r="1538" spans="1:10" ht="242.25">
+      <c r="A1538" t="s">
         <v>9619</v>
       </c>
-    </row>
-    <row r="1537" ht="299.7" spans="1:10">
-      <c r="A1537" s="12" t="s">
+      <c r="B1538" s="5" t="s">
         <v>9620</v>
       </c>
-      <c r="B1537" s="22" t="s">
+      <c r="C1538" s="12" t="s">
         <v>9621</v>
       </c>
-      <c r="C1537" s="12" t="s">
+      <c r="D1538" s="5" t="s">
         <v>9622</v>
       </c>
-      <c r="D1537" s="17" t="s">
+      <c r="E1538" s="5" t="s">
         <v>9623</v>
       </c>
-      <c r="E1537" s="18" t="s">
+      <c r="F1538" s="5" t="s">
         <v>9624</v>
       </c>
-      <c r="F1537" s="18" t="s">
+      <c r="G1538" s="5" t="s">
         <v>9625</v>
       </c>
-      <c r="G1537" s="18" t="s">
+      <c r="H1538" s="5" t="s">
         <v>9626</v>
       </c>
-      <c r="H1537" s="19" t="s">
+      <c r="I1538" s="5" t="s">
         <v>9627</v>
       </c>
-      <c r="I1537" s="18" t="s">
+      <c r="J1538" s="5" t="s">
         <v>9628</v>
       </c>
-      <c r="J1537" s="21" t="s">
+    </row>
+    <row r="1539" spans="1:10" ht="99.75">
+      <c r="A1539" s="5" t="s">
         <v>9629</v>
       </c>
-    </row>
-    <row r="1538" ht="242.6" spans="1:10">
-      <c r="A1538" t="s">
+      <c r="B1539" s="5" t="s">
         <v>9630</v>
       </c>
-      <c r="B1538" s="5" t="s">
+      <c r="C1539" s="5" t="s">
         <v>9631</v>
       </c>
-      <c r="C1538" s="12" t="s">
+      <c r="D1539" s="5" t="s">
         <v>9632</v>
       </c>
-      <c r="D1538" s="5" t="s">
+      <c r="E1539" s="5" t="s">
         <v>9633</v>
       </c>
-      <c r="E1538" s="5" t="s">
+      <c r="F1539" s="5" t="s">
         <v>9634</v>
       </c>
-      <c r="F1538" s="5" t="s">
+      <c r="G1539" s="5" t="s">
         <v>9635</v>
       </c>
-      <c r="G1538" s="5" t="s">
+      <c r="H1539" s="5" t="s">
         <v>9636</v>
       </c>
-      <c r="H1538" s="5" t="s">
+      <c r="I1539" s="5" t="s">
         <v>9637</v>
       </c>
-      <c r="I1538" s="5" t="s">
+      <c r="J1539" s="5" t="s">
         <v>9638</v>
       </c>
-      <c r="J1538" s="5" t="s">
+    </row>
+    <row r="1540" spans="1:10" ht="256.5">
+      <c r="A1540" s="5" t="s">
         <v>9639</v>
       </c>
-    </row>
-    <row r="1539" ht="114.15" spans="1:10">
-      <c r="A1539" s="5" t="s">
+      <c r="B1540" s="5" t="s">
         <v>9640</v>
       </c>
-      <c r="B1539" s="5" t="s">
+      <c r="C1540" s="5" t="s">
         <v>9641</v>
       </c>
-      <c r="C1539" s="5" t="s">
+      <c r="D1540" s="5" t="s">
         <v>9642</v>
       </c>
-      <c r="D1539" s="5" t="s">
+      <c r="E1540" s="5" t="s">
         <v>9643</v>
       </c>
-      <c r="E1539" s="5" t="s">
+      <c r="F1540" s="5" t="s">
         <v>9644</v>
       </c>
-      <c r="F1539" s="5" t="s">
+      <c r="G1540" s="5" t="s">
         <v>9645</v>
       </c>
-      <c r="G1539" s="5" t="s">
+      <c r="H1540" s="5" t="s">
         <v>9646</v>
       </c>
-      <c r="H1539" s="5" t="s">
+      <c r="I1540" s="5" t="s">
         <v>9647</v>
       </c>
-      <c r="I1539" s="5" t="s">
+      <c r="J1540" s="5" t="s">
         <v>9648</v>
       </c>
-      <c r="J1539" s="5" t="s">
+    </row>
+    <row r="1541" spans="1:10" ht="28.5">
+      <c r="A1541" s="5" t="s">
         <v>9649</v>
       </c>
-    </row>
-    <row r="1540" ht="256.85" spans="1:10">
-      <c r="A1540" s="5" t="s">
+      <c r="B1541" s="5" t="s">
         <v>9650</v>
       </c>
-      <c r="B1540" s="5" t="s">
+      <c r="C1541" s="5" t="s">
         <v>9651</v>
       </c>
-      <c r="C1540" s="5" t="s">
+      <c r="D1541" s="5" t="s">
         <v>9652</v>
       </c>
-      <c r="D1540" s="5" t="s">
+      <c r="E1541" s="5" t="s">
         <v>9653</v>
       </c>
-      <c r="E1540" s="5" t="s">
+      <c r="F1541" s="5" t="s">
         <v>9654</v>
       </c>
-      <c r="F1540" s="5" t="s">
+      <c r="G1541" s="5" t="s">
         <v>9655</v>
       </c>
-      <c r="G1540" s="5" t="s">
+      <c r="H1541" s="5" t="s">
         <v>9656</v>
       </c>
-      <c r="H1540" s="5" t="s">
+      <c r="I1541" s="5" t="s">
         <v>9657</v>
       </c>
-      <c r="I1540" s="5" t="s">
+      <c r="J1541" s="5" t="s">
         <v>9658</v>
-      </c>
-      <c r="J1540" s="5" t="s">
-        <v>9659</v>
-      </c>
-    </row>
-    <row r="1541" ht="28.55" spans="1:10">
-      <c r="A1541" s="5" t="s">
-        <v>9660</v>
-      </c>
-      <c r="B1541" s="5" t="s">
-        <v>9661</v>
-      </c>
-      <c r="C1541" s="5" t="s">
-        <v>9662</v>
-      </c>
-      <c r="D1541" s="5" t="s">
-        <v>9663</v>
-      </c>
-      <c r="E1541" s="5" t="s">
-        <v>9664</v>
-      </c>
-      <c r="F1541" s="5" t="s">
-        <v>9665</v>
-      </c>
-      <c r="G1541" s="5" t="s">
-        <v>9666</v>
-      </c>
-      <c r="H1541" s="5" t="s">
-        <v>9667</v>
-      </c>
-      <c r="I1541" s="5" t="s">
-        <v>9668</v>
-      </c>
-      <c r="J1541" s="5" t="s">
-        <v>9669</v>
       </c>
     </row>
     <row r="1542" spans="1:10">
       <c r="A1542" s="5" t="s">
-        <v>9670</v>
+        <v>9659</v>
       </c>
       <c r="B1542" s="5" t="s">
-        <v>9671</v>
+        <v>9660</v>
       </c>
       <c r="C1542" s="5" t="s">
-        <v>9672</v>
+        <v>9661</v>
       </c>
       <c r="D1542" s="5" t="s">
-        <v>9673</v>
+        <v>9662</v>
       </c>
       <c r="E1542" s="5" t="s">
-        <v>9674</v>
+        <v>9663</v>
       </c>
       <c r="F1542" s="5" t="s">
-        <v>9675</v>
+        <v>9664</v>
       </c>
       <c r="G1542" s="5" t="s">
-        <v>9676</v>
+        <v>9665</v>
       </c>
       <c r="H1542" s="5" t="s">
-        <v>9677</v>
+        <v>9666</v>
       </c>
       <c r="I1542" s="5" t="s">
-        <v>9678</v>
+        <v>9667</v>
       </c>
       <c r="J1542" s="5" t="s">
-        <v>9679</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="1543" spans="1:10">
       <c r="A1543" s="5" t="s">
-        <v>9680</v>
+        <v>9669</v>
       </c>
       <c r="B1543" s="5" t="s">
-        <v>9681</v>
+        <v>9670</v>
       </c>
       <c r="C1543" s="5" t="s">
-        <v>9682</v>
+        <v>9671</v>
       </c>
       <c r="D1543" s="5" t="s">
-        <v>9683</v>
+        <v>9672</v>
       </c>
       <c r="E1543" s="5" t="s">
-        <v>9684</v>
+        <v>9673</v>
       </c>
       <c r="F1543" s="5" t="s">
-        <v>9685</v>
+        <v>9674</v>
       </c>
       <c r="G1543" s="5" t="s">
-        <v>9686</v>
+        <v>9675</v>
       </c>
       <c r="H1543" s="5" t="s">
-        <v>9687</v>
+        <v>9676</v>
       </c>
       <c r="I1543" s="5" t="s">
-        <v>9688</v>
+        <v>9677</v>
       </c>
       <c r="J1543" s="5" t="s">
-        <v>9689</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="1544" spans="1:10">
       <c r="A1544" s="5" t="s">
-        <v>9690</v>
+        <v>9679</v>
       </c>
       <c r="B1544" s="5" t="s">
-        <v>9691</v>
+        <v>9680</v>
       </c>
       <c r="C1544" s="5" t="s">
-        <v>9692</v>
+        <v>9681</v>
       </c>
       <c r="D1544" s="5" t="s">
-        <v>9693</v>
+        <v>9682</v>
       </c>
       <c r="E1544" s="5" t="s">
-        <v>9694</v>
+        <v>9683</v>
       </c>
       <c r="F1544" s="5" t="s">
-        <v>9695</v>
+        <v>9684</v>
       </c>
       <c r="G1544" s="5" t="s">
-        <v>9696</v>
+        <v>9685</v>
       </c>
       <c r="H1544" s="5" t="s">
-        <v>9697</v>
+        <v>9686</v>
       </c>
       <c r="I1544" s="5" t="s">
-        <v>9698</v>
+        <v>9687</v>
       </c>
       <c r="J1544" s="5" t="s">
-        <v>9699</v>
+        <v>9688</v>
       </c>
     </row>
     <row r="1545" spans="1:10">
       <c r="A1545" s="5" t="s">
+        <v>9689</v>
+      </c>
+      <c r="B1545" s="5" t="s">
+        <v>9690</v>
+      </c>
+      <c r="C1545" s="5" t="s">
+        <v>9691</v>
+      </c>
+      <c r="D1545" s="5" t="s">
+        <v>9691</v>
+      </c>
+      <c r="E1545" s="5" t="s">
+        <v>9690</v>
+      </c>
+      <c r="F1545" s="5" t="s">
+        <v>9690</v>
+      </c>
+      <c r="G1545" s="5" t="s">
+        <v>9690</v>
+      </c>
+      <c r="H1545" s="5" t="s">
+        <v>9692</v>
+      </c>
+      <c r="I1545" s="5" t="s">
+        <v>9693</v>
+      </c>
+      <c r="J1545" s="5" t="s">
+        <v>9668</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:10" ht="72">
+      <c r="A1546" s="23" t="s">
+        <v>9694</v>
+      </c>
+      <c r="B1546" s="24" t="s">
+        <v>9695</v>
+      </c>
+      <c r="C1546" s="25" t="s">
+        <v>9694</v>
+      </c>
+      <c r="D1546" s="26" t="s">
+        <v>9696</v>
+      </c>
+      <c r="E1546" s="27" t="s">
+        <v>9697</v>
+      </c>
+      <c r="F1546" s="27" t="s">
+        <v>9698</v>
+      </c>
+      <c r="G1546" s="27" t="s">
+        <v>9699</v>
+      </c>
+      <c r="H1546" s="27" t="s">
         <v>9700</v>
       </c>
-      <c r="B1545" s="5" t="s">
+      <c r="I1546" s="27" t="s">
         <v>9701</v>
       </c>
-      <c r="C1545" s="5" t="s">
+      <c r="J1546" s="28" t="s">
         <v>9702</v>
       </c>
-      <c r="D1545" s="5" t="s">
-        <v>9702</v>
-      </c>
-      <c r="E1545" s="5" t="s">
-        <v>9701</v>
-      </c>
-      <c r="F1545" s="5" t="s">
-        <v>9701</v>
-      </c>
-      <c r="G1545" s="5" t="s">
-        <v>9701</v>
-      </c>
-      <c r="H1545" s="5" t="s">
-        <v>9703</v>
-      </c>
-      <c r="I1545" s="5" t="s">
-        <v>9704</v>
-      </c>
-      <c r="J1545" s="5" t="s">
-        <v>9679</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>